--- a/data/hotels_by_city/Denver/Denver_shard_1.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="812">
   <si>
     <t>STR#</t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g33388-d12388462-Reviews-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
   </si>
   <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Denver-Hotels-AC-Hotel-By-Marriott-Denver-Downtown.h18133660.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,2354 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/31/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r598656891-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>33388</t>
+  </si>
+  <si>
+    <t>12388462</t>
+  </si>
+  <si>
+    <t>598656891</t>
+  </si>
+  <si>
+    <t>07/22/2018</t>
+  </si>
+  <si>
+    <t>Modern and updated</t>
+  </si>
+  <si>
+    <t>I stayed here for 4 nights and was very comfortable. My wife and 2 kids joined me on the last night. The room with a king sized bed and sleeper sofa is a decent size for a downtown Denver hotel. The bathroom sink is open to the room. The toilet and shower each have an opaque glass door which might bother some people. The only thing that could have made the room perfect would have been a mini fridge. The fitness center has a good number of treadmills, cardio and workout equipment. The roof top bar is nice when the weather is nice. Parking is expensive at $45 for valet but it was $28 to park in the pacific garage across the street too. This hotel is a block away from the convention center and conference events at the old opera house. You are a block away from 16th street mall area which has a ton of restaurants and bars. Walgreens and 7-11 is close by for groceries and snacks. I felt safe walking around early in the morning and during the day and early evening. It gets pretty wild after dark though. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Aaron P, Manager at AC Hotel Denver Downtown, responded to this reviewResponded 4 days ago</t>
+  </si>
+  <si>
+    <t>Responded 4 days ago</t>
+  </si>
+  <si>
+    <t>I stayed here for 4 nights and was very comfortable. My wife and 2 kids joined me on the last night. The room with a king sized bed and sleeper sofa is a decent size for a downtown Denver hotel. The bathroom sink is open to the room. The toilet and shower each have an opaque glass door which might bother some people. The only thing that could have made the room perfect would have been a mini fridge. The fitness center has a good number of treadmills, cardio and workout equipment. The roof top bar is nice when the weather is nice. Parking is expensive at $45 for valet but it was $28 to park in the pacific garage across the street too. This hotel is a block away from the convention center and conference events at the old opera house. You are a block away from 16th street mall area which has a ton of restaurants and bars. Walgreens and 7-11 is close by for groceries and snacks. I felt safe walking around early in the morning and during the day and early evening. It gets pretty wild after dark though. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r598601092-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>598601092</t>
+  </si>
+  <si>
+    <t>Excellent hotel in a great location</t>
+  </si>
+  <si>
+    <t>We stayed here for a weekend using points. The hotel shares a lobby and space with Le Meridian.  The hotels are beautiful. We had a corner room on the 19th floor (there are 20 floors).  It was clean and well-kept. The staff was all very friendly and helpful.  There is a place to refill your water bottles in the lobby.  We had the European breakfast there both mornings (free for Platinum members,  I think $15 otherwise).  There was a good selection of fruit, cheeses, quiches, and yogurt.  There was also lots of beverage choices, and to-go cups available.  The gym is located on the 20th floor, with great views of the Denver skyline.  It is decent sized, with plenty of cardio and weight equipment.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>We stayed here for a weekend using points. The hotel shares a lobby and space with Le Meridian.  The hotels are beautiful. We had a corner room on the 19th floor (there are 20 floors).  It was clean and well-kept. The staff was all very friendly and helpful.  There is a place to refill your water bottles in the lobby.  We had the European breakfast there both mornings (free for Platinum members,  I think $15 otherwise).  There was a good selection of fruit, cheeses, quiches, and yogurt.  There was also lots of beverage choices, and to-go cups available.  The gym is located on the 20th floor, with great views of the Denver skyline.  It is decent sized, with plenty of cardio and weight equipment.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r596513077-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>596513077</t>
+  </si>
+  <si>
+    <t>07/15/2018</t>
+  </si>
+  <si>
+    <t>Nice place but not for me</t>
+  </si>
+  <si>
+    <t>Expensive small  rooms with no privacy from the bathroom area.  No drawers or closet in the room.   Loud, young crowd.  Music was so loud I couldn’t hear the check in guy. Parking is dreadful.  It is clean, very minimalistic, comfortable beds but if you are older you may want to try somewhere else.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Aaron P, Manager at AC Hotel Denver Downtown, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>Expensive small  rooms with no privacy from the bathroom area.  No drawers or closet in the room.   Loud, young crowd.  Music was so loud I couldn’t hear the check in guy. Parking is dreadful.  It is clean, very minimalistic, comfortable beds but if you are older you may want to try somewhere else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r595280561-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>595280561</t>
+  </si>
+  <si>
+    <t>07/11/2018</t>
+  </si>
+  <si>
+    <t>Comfortable, Hip, Stylish</t>
+  </si>
+  <si>
+    <t>This Hotel is really cutting edge. Its modern open style, artwork, use of space, clean design, great customer service goes a long way in making your stay in Denver a relaxing, comfortable stay. Being in the heart of the city, your close to everything and all attraction points will only take you minutes to get to. It’s minimal interior design is logical, and makes sense. Amenities are a great quality, showers are clean and offers both a wand and large rain shower head. I had a great stay and will be back again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Aaron P, Manager at AC Hotel Denver Downtown, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>This Hotel is really cutting edge. Its modern open style, artwork, use of space, clean design, great customer service goes a long way in making your stay in Denver a relaxing, comfortable stay. Being in the heart of the city, your close to everything and all attraction points will only take you minutes to get to. It’s minimal interior design is logical, and makes sense. Amenities are a great quality, showers are clean and offers both a wand and large rain shower head. I had a great stay and will be back again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r595248206-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>595248206</t>
+  </si>
+  <si>
+    <t>Service Wasn't on Point</t>
+  </si>
+  <si>
+    <t>When we arrived we got to our room it was very very small. Like a closet. So we went down and upgraded for $20 more and walked in and the only difference was that we were on a corner and we had an extra window but no more space. At that point my friend went downstairs to ask about a MoreShow less</t>
+  </si>
+  <si>
+    <t>When we arrived we got to our room it was very very small. Like a closet. So we went down and upgraded for $20 more and walked in and the only difference was that we were on a corner and we had an extra window but no more space. At that point my friend went downstairs to ask about a More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r595196664-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>595196664</t>
+  </si>
+  <si>
+    <t>Meh.</t>
+  </si>
+  <si>
+    <t>This is the Marriott version of the W Hotel. It was OK, except there was no dresser and very limited space to hang your clothes. I made the mistake of hanging the environmentally conscious sign on my door handle on the first day in the housekeeping staff took that to mean that I did not want new towels For the next four days.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>This is the Marriott version of the W Hotel. It was OK, except there was no dresser and very limited space to hang your clothes. I made the mistake of hanging the environmentally conscious sign on my door handle on the first day in the housekeeping staff took that to mean that I did not want new towels For the next four days.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r595118482-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>595118482</t>
+  </si>
+  <si>
+    <t>07/10/2018</t>
+  </si>
+  <si>
+    <t>Perfect location for downtown experience</t>
+  </si>
+  <si>
+    <t>Perfect location, close to everything, one block from the free 16th street mall ride.  Bus to redrocks concert picked us up one block away on Champa street.  Tarantula billiards across the street has very reasonable drink prices, and free pool during the day time.MoreShow less</t>
+  </si>
+  <si>
+    <t>Perfect location, close to everything, one block from the free 16th street mall ride.  Bus to redrocks concert picked us up one block away on Champa street.  Tarantula billiards across the street has very reasonable drink prices, and free pool during the day time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r595114076-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>595114076</t>
+  </si>
+  <si>
+    <t>First time in Denver</t>
+  </si>
+  <si>
+    <t>The location and decor of this hotel are perfect. The restaurants are great and that's where it ends.  The valet service is fair at best, They were seemingly short staffed the whole time.  Front desk personnel were barely friendly when answering the phone. MoreShow less</t>
+  </si>
+  <si>
+    <t>The location and decor of this hotel are perfect. The restaurants are great and that's where it ends.  The valet service is fair at best, They were seemingly short staffed the whole time.  Front desk personnel were barely friendly when answering the phone. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r595112577-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>595112577</t>
+  </si>
+  <si>
+    <t>Denver weekday stay</t>
+  </si>
+  <si>
+    <t>Great room. Open concept bathroom — took some getting used to. Great staff who helped us with an early and late Check-In, storming our bags before our flight, and directions.  Easy location to walk around downtown. Would recommend to others and would stay again when in Denver. MoreShow less</t>
+  </si>
+  <si>
+    <t>Great room. Open concept bathroom — took some getting used to. Great staff who helped us with an early and late Check-In, storming our bags before our flight, and directions.  Easy location to walk around downtown. Would recommend to others and would stay again when in Denver. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r593783774-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>593783774</t>
+  </si>
+  <si>
+    <t>07/07/2018</t>
+  </si>
+  <si>
+    <t>Fantastic City Views!</t>
+  </si>
+  <si>
+    <t>Great location, easy walk to convention center for week long AANP Conference.Worked great for single person, this room would have been difficult with family or sharing with another NP colleague. Small dressing areas and luggage storage.Also room service menu was a bit disappointing for a Marriott. Room telephone was not working every time so difficult to call and place order. Had to go down to lobby to accomplish this. they eventually comped my dinner at final check out which was very nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>Aaron P, Manager at AC Hotel Denver Downtown, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Great location, easy walk to convention center for week long AANP Conference.Worked great for single person, this room would have been difficult with family or sharing with another NP colleague. Small dressing areas and luggage storage.Also room service menu was a bit disappointing for a Marriott. Room telephone was not working every time so difficult to call and place order. Had to go down to lobby to accomplish this. they eventually comped my dinner at final check out which was very nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r592468478-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>592468478</t>
+  </si>
+  <si>
+    <t>07/02/2018</t>
+  </si>
+  <si>
+    <t>Worst customer service from nay hotel that I have ever stayed at.</t>
+  </si>
+  <si>
+    <t>I usually love Marriott hotels and have been a long time customer.  I went to the hotel on June 29th and was not allowed to check in because they said the reservation that my friend had paid for was not transferred into my name.  I showed them all of the documentation, email confirmations that it was transferred and the male at the front desk said if he doesn't see it in his computer then he will not let me check in.  I asked if my friend could call him and give her identification and approve this.  He stated no.  I had to go to the bathroom and get ready for my event in the bathroom.  In the meantime, my friend called the hotel and she stated that they were extremely rude to her and she also called hotels .com and was assured that everything was changed into my name.  I came back with my boyfriend after the event  and asked them to please recheck.  THey again said it wasn't there, I asked the manager if he could please make a call to hotels.com and they would confirm and he said that he would not do that because this was my problem, not his"  At this time, I had no dinner, no place to stay, and my wonderful night in Denver was being wasted.  This was at $350 room. I stated " this is F'ing ridiculous that you are unwilling to...I usually love Marriott hotels and have been a long time customer.  I went to the hotel on June 29th and was not allowed to check in because they said the reservation that my friend had paid for was not transferred into my name.  I showed them all of the documentation, email confirmations that it was transferred and the male at the front desk said if he doesn't see it in his computer then he will not let me check in.  I asked if my friend could call him and give her identification and approve this.  He stated no.  I had to go to the bathroom and get ready for my event in the bathroom.  In the meantime, my friend called the hotel and she stated that they were extremely rude to her and she also called hotels .com and was assured that everything was changed into my name.  I came back with my boyfriend after the event  and asked them to please recheck.  THey again said it wasn't there, I asked the manager if he could please make a call to hotels.com and they would confirm and he said that he would not do that because this was my problem, not his"  At this time, I had no dinner, no place to stay, and my wonderful night in Denver was being wasted.  This was at $350 room. I stated " this is F'ing ridiculous that you are unwilling to be kind at all and make a simple call"  The manager then told the other rude gentleman behind the desk to call security on me.  I asked why he would due that , that I am not acting crazy or anything".  He stated that no one says the F word in front of him and that he is going to have me escorted  out of his hotel.   Finally a girl behind the desk called another manager whom was nice and as my boyfriend again called Hotels.com, he was willing to talk to them and get this straightened out.  By the time we got to the room which had a view of a rooftop with air conditioning units on it, we ran to the rooftop to enjoy and right as we got there they turned on the lights and it was closed.  We had spent our entire night attempting to get into our room and didn't even get to enjoy the rooftop or go to dinner, nothing.  We then ordered a hamburger and a salad from room service which was disgusting and we couldn't eat.. we were charged $50 for this  and we just went to sleep.  This was my well earned evening that I had planned so carefully.  The saddest part was just the lack of kindness from the manager and the other gentleman behind the desk.  They are not Marriott material.  They represented Marriott so poorly.  Horrible Horrible Experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>Aaron P, Manager at AC Hotel Denver Downtown, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>I usually love Marriott hotels and have been a long time customer.  I went to the hotel on June 29th and was not allowed to check in because they said the reservation that my friend had paid for was not transferred into my name.  I showed them all of the documentation, email confirmations that it was transferred and the male at the front desk said if he doesn't see it in his computer then he will not let me check in.  I asked if my friend could call him and give her identification and approve this.  He stated no.  I had to go to the bathroom and get ready for my event in the bathroom.  In the meantime, my friend called the hotel and she stated that they were extremely rude to her and she also called hotels .com and was assured that everything was changed into my name.  I came back with my boyfriend after the event  and asked them to please recheck.  THey again said it wasn't there, I asked the manager if he could please make a call to hotels.com and they would confirm and he said that he would not do that because this was my problem, not his"  At this time, I had no dinner, no place to stay, and my wonderful night in Denver was being wasted.  This was at $350 room. I stated " this is F'ing ridiculous that you are unwilling to...I usually love Marriott hotels and have been a long time customer.  I went to the hotel on June 29th and was not allowed to check in because they said the reservation that my friend had paid for was not transferred into my name.  I showed them all of the documentation, email confirmations that it was transferred and the male at the front desk said if he doesn't see it in his computer then he will not let me check in.  I asked if my friend could call him and give her identification and approve this.  He stated no.  I had to go to the bathroom and get ready for my event in the bathroom.  In the meantime, my friend called the hotel and she stated that they were extremely rude to her and she also called hotels .com and was assured that everything was changed into my name.  I came back with my boyfriend after the event  and asked them to please recheck.  THey again said it wasn't there, I asked the manager if he could please make a call to hotels.com and they would confirm and he said that he would not do that because this was my problem, not his"  At this time, I had no dinner, no place to stay, and my wonderful night in Denver was being wasted.  This was at $350 room. I stated " this is F'ing ridiculous that you are unwilling to be kind at all and make a simple call"  The manager then told the other rude gentleman behind the desk to call security on me.  I asked why he would due that , that I am not acting crazy or anything".  He stated that no one says the F word in front of him and that he is going to have me escorted  out of his hotel.   Finally a girl behind the desk called another manager whom was nice and as my boyfriend again called Hotels.com, he was willing to talk to them and get this straightened out.  By the time we got to the room which had a view of a rooftop with air conditioning units on it, we ran to the rooftop to enjoy and right as we got there they turned on the lights and it was closed.  We had spent our entire night attempting to get into our room and didn't even get to enjoy the rooftop or go to dinner, nothing.  We then ordered a hamburger and a salad from room service which was disgusting and we couldn't eat.. we were charged $50 for this  and we just went to sleep.  This was my well earned evening that I had planned so carefully.  The saddest part was just the lack of kindness from the manager and the other gentleman behind the desk.  They are not Marriott material.  They represented Marriott so poorly.  Horrible Horrible Experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r592024799-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>592024799</t>
+  </si>
+  <si>
+    <t>06/30/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beautiful lobby and rooftop bar. Rooms not so much. </t>
+  </si>
+  <si>
+    <t>We were surprised how small the rooms were for some of the highest prices around.  The website does not reflect the size visually.  We did not see a need to look up dimensions. Too small for the price. The commons areas are very hip, cool, comfortable and sophisticated just be aware the rooms are tight.  Great restaurant attached. Corrine’s. MoreShow less</t>
+  </si>
+  <si>
+    <t>We were surprised how small the rooms were for some of the highest prices around.  The website does not reflect the size visually.  We did not see a need to look up dimensions. Too small for the price. The commons areas are very hip, cool, comfortable and sophisticated just be aware the rooms are tight.  Great restaurant attached. Corrine’s. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r588709172-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>588709172</t>
+  </si>
+  <si>
+    <t>06/18/2018</t>
+  </si>
+  <si>
+    <t>Good hotel for the price</t>
+  </si>
+  <si>
+    <t>This hotel is geared towards the minimalist. Simple, clean designs without a lot of extra frills. Some would say the room is too small, but I found it to be fine for the sleeping hours. It was a little strange not to have a normal sized separate changing area since there was no door to divide the sink area from the room itself. They did upgrade our room and provide free breakfast vouchers upon our arrival, which was very nice. It was in a good location to walk to several food locations and convenient stores. I thought the lobby was very spacious with a lot of room to hang out in with my friends. In my opinion, this hotel is a affordable and nice option on a vacation!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Aaron P, Manager at AC Hotel Denver Downtown, responded to this reviewResponded June 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 24, 2018</t>
+  </si>
+  <si>
+    <t>This hotel is geared towards the minimalist. Simple, clean designs without a lot of extra frills. Some would say the room is too small, but I found it to be fine for the sleeping hours. It was a little strange not to have a normal sized separate changing area since there was no door to divide the sink area from the room itself. They did upgrade our room and provide free breakfast vouchers upon our arrival, which was very nice. It was in a good location to walk to several food locations and convenient stores. I thought the lobby was very spacious with a lot of room to hang out in with my friends. In my opinion, this hotel is a affordable and nice option on a vacation!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r588467092-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>588467092</t>
+  </si>
+  <si>
+    <t>Great location....City’s best view @ Rooftop Bar</t>
+  </si>
+  <si>
+    <t>Stayed here two weeks ago while visiting Denver on Business.  Rooms were a little small; however, very modern.  Staff was amazing as they provided great insight in getting away from the “tourist” spots to have a drink and grab food.  Last but not least, it’s one block from 16st Mall.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here two weeks ago while visiting Denver on Business.  Rooms were a little small; however, very modern.  Staff was amazing as they provided great insight in getting away from the “tourist” spots to have a drink and grab food.  Last but not least, it’s one block from 16st Mall.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r588157942-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>588157942</t>
+  </si>
+  <si>
+    <t>06/17/2018</t>
+  </si>
+  <si>
+    <t>Good location; small rooms; special requests missed</t>
+  </si>
+  <si>
+    <t>Good location to "all downtown" and nice, newer hotel.  (Had stayed there previously and decided to stay again.)  The rooms are small and very stark (minimal furniture, no real closet, no dresser) but the design is pleasant.  We had a corner room with huge windows, but they unfortunately looked RIGHT into the apartment building across the street so we had to keep the shades drawn.  (Feel bad for the apartment tenants...)  I would have given the hotel a 4 star, but there were a few issues.  When checking in, the 2 people at the front desk just looked at each other as we walked up to the desk - no greeting or acknowledgement that we were standing there. 
+(The vibe was, "you get this one; no you do.")  Same issue at checkout.  There was a weird smell in the room (strong cleaning solvent?) that never seemed to go away.  Also, Marriott sent a text the day prior suggesting I use their fabulous app to check in - which I did.  It also asked if we had any special requests and I requested an extra bath towel and an extra pillow - neither of which were in the room when we arrived at 7:30 pm.  Don't bother asking me if you're not going to deliver.  The lobby bar area is nice (as is the bar on the rooftop - definitely louder and appealing to a younger crowd.)  Parking was a killer...Good location to "all downtown" and nice, newer hotel.  (Had stayed there previously and decided to stay again.)  The rooms are small and very stark (minimal furniture, no real closet, no dresser) but the design is pleasant.  We had a corner room with huge windows, but they unfortunately looked RIGHT into the apartment building across the street so we had to keep the shades drawn.  (Feel bad for the apartment tenants...)  I would have given the hotel a 4 star, but there were a few issues.  When checking in, the 2 people at the front desk just looked at each other as we walked up to the desk - no greeting or acknowledgement that we were standing there. (The vibe was, "you get this one; no you do.")  Same issue at checkout.  There was a weird smell in the room (strong cleaning solvent?) that never seemed to go away.  Also, Marriott sent a text the day prior suggesting I use their fabulous app to check in - which I did.  It also asked if we had any special requests and I requested an extra bath towel and an extra pillow - neither of which were in the room when we arrived at 7:30 pm.  Don't bother asking me if you're not going to deliver.  The lobby bar area is nice (as is the bar on the rooftop - definitely louder and appealing to a younger crowd.)  Parking was a killer $45/night - so much for the decent rate we got!  Not sure if we'll stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Good location to "all downtown" and nice, newer hotel.  (Had stayed there previously and decided to stay again.)  The rooms are small and very stark (minimal furniture, no real closet, no dresser) but the design is pleasant.  We had a corner room with huge windows, but they unfortunately looked RIGHT into the apartment building across the street so we had to keep the shades drawn.  (Feel bad for the apartment tenants...)  I would have given the hotel a 4 star, but there were a few issues.  When checking in, the 2 people at the front desk just looked at each other as we walked up to the desk - no greeting or acknowledgement that we were standing there. 
+(The vibe was, "you get this one; no you do.")  Same issue at checkout.  There was a weird smell in the room (strong cleaning solvent?) that never seemed to go away.  Also, Marriott sent a text the day prior suggesting I use their fabulous app to check in - which I did.  It also asked if we had any special requests and I requested an extra bath towel and an extra pillow - neither of which were in the room when we arrived at 7:30 pm.  Don't bother asking me if you're not going to deliver.  The lobby bar area is nice (as is the bar on the rooftop - definitely louder and appealing to a younger crowd.)  Parking was a killer...Good location to "all downtown" and nice, newer hotel.  (Had stayed there previously and decided to stay again.)  The rooms are small and very stark (minimal furniture, no real closet, no dresser) but the design is pleasant.  We had a corner room with huge windows, but they unfortunately looked RIGHT into the apartment building across the street so we had to keep the shades drawn.  (Feel bad for the apartment tenants...)  I would have given the hotel a 4 star, but there were a few issues.  When checking in, the 2 people at the front desk just looked at each other as we walked up to the desk - no greeting or acknowledgement that we were standing there. (The vibe was, "you get this one; no you do.")  Same issue at checkout.  There was a weird smell in the room (strong cleaning solvent?) that never seemed to go away.  Also, Marriott sent a text the day prior suggesting I use their fabulous app to check in - which I did.  It also asked if we had any special requests and I requested an extra bath towel and an extra pillow - neither of which were in the room when we arrived at 7:30 pm.  Don't bother asking me if you're not going to deliver.  The lobby bar area is nice (as is the bar on the rooftop - definitely louder and appealing to a younger crowd.)  Parking was a killer $45/night - so much for the decent rate we got!  Not sure if we'll stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r586279710-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>586279710</t>
+  </si>
+  <si>
+    <t>06/09/2018</t>
+  </si>
+  <si>
+    <t>great location</t>
+  </si>
+  <si>
+    <t>Stayed here for four days during a convention. Location is very convenient as its in the heart of downtown. Room and bathroom were clean, modern. Theres a huge flat screen tv, if thats your thing. There was notably no mini-fridge and the hotel doesn't provide access to any microwaves. That was kind of annoying as you pretty much have to eat out every meal but there are many great restaurants nearby. The staff was friendly and helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>Aaron P, Manager at AC Hotel Denver Downtown, responded to this reviewResponded June 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 10, 2018</t>
+  </si>
+  <si>
+    <t>Stayed here for four days during a convention. Location is very convenient as its in the heart of downtown. Room and bathroom were clean, modern. Theres a huge flat screen tv, if thats your thing. There was notably no mini-fridge and the hotel doesn't provide access to any microwaves. That was kind of annoying as you pretty much have to eat out every meal but there are many great restaurants nearby. The staff was friendly and helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r586060663-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>586060663</t>
+  </si>
+  <si>
+    <t>06/08/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great location, service and accommodations </t>
+  </si>
+  <si>
+    <t>This hotel is just a block from the convention center and a block from the 16th street mall.  It is not far from union station which made train travel from the airport easy.  The hotel is very modern and clean.  The gym is on the top floor and has plenty of equipment.  The hotel is connected to Le Meridian so it is easy to access from both lobbies.  I stayed for 6 nights and really felt my room was an enjoyable experience. The bed was great and the window consumes the whole wall so I woke up to the sunrise daily.  Be sure to spend time at the roof top bar...beautiful!  Being there for multiple days it was a bit challenging because the room does not have much cabinet space so not accommodating for unpacking. Also, no refrigerator.  Otherwise a great experience and I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Aaron P, Manager at AC Hotel Denver Downtown, responded to this reviewResponded June 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 9, 2018</t>
+  </si>
+  <si>
+    <t>This hotel is just a block from the convention center and a block from the 16th street mall.  It is not far from union station which made train travel from the airport easy.  The hotel is very modern and clean.  The gym is on the top floor and has plenty of equipment.  The hotel is connected to Le Meridian so it is easy to access from both lobbies.  I stayed for 6 nights and really felt my room was an enjoyable experience. The bed was great and the window consumes the whole wall so I woke up to the sunrise daily.  Be sure to spend time at the roof top bar...beautiful!  Being there for multiple days it was a bit challenging because the room does not have much cabinet space so not accommodating for unpacking. Also, no refrigerator.  Otherwise a great experience and I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r585799096-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>585799096</t>
+  </si>
+  <si>
+    <t>06/07/2018</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>The hotel is great.  The rooms do not have a mini fridge or microwave. They are a bit on the small size as well but are light and airy which makes them seem larger. Overall a nice location, great service.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel is great.  The rooms do not have a mini fridge or microwave. They are a bit on the small size as well but are light and airy which makes them seem larger. Overall a nice location, great service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r584660112-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>584660112</t>
+  </si>
+  <si>
+    <t>06/02/2018</t>
+  </si>
+  <si>
+    <t>Very nice Property</t>
+  </si>
+  <si>
+    <t>The AC is Marriot’s version of “loft/flat” minimalist type hotels. Nice property close to convention center and 16th Street pedestrian mall. Easy walk to many places to eat and shop. The hotel (which shares this property with the Le Meridien Downtown due to Marriot’s relationship with the SPG group) has. A fabulous rooftop bar on the 20th floor with great service and a fantastic view. The restaurant on the property, Corinne, is reasonably priced for the quality of the food. Nice place to stay. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>Aaron P, Manager at AC Hotel Denver Downtown, responded to this reviewResponded June 3, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 3, 2018</t>
+  </si>
+  <si>
+    <t>The AC is Marriot’s version of “loft/flat” minimalist type hotels. Nice property close to convention center and 16th Street pedestrian mall. Easy walk to many places to eat and shop. The hotel (which shares this property with the Le Meridien Downtown due to Marriot’s relationship with the SPG group) has. A fabulous rooftop bar on the 20th floor with great service and a fantastic view. The restaurant on the property, Corinne, is reasonably priced for the quality of the food. Nice place to stay. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r584459890-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>584459890</t>
+  </si>
+  <si>
+    <t>06/01/2018</t>
+  </si>
+  <si>
+    <t>Modern and nice</t>
+  </si>
+  <si>
+    <t>I loved the corner room and close proximity to the convention center.  Attached to La Meridian with a roof top bar contributes to the vibrant nightlife. Bar food and wine were very good and the service was phenomenal.MoreShow less</t>
+  </si>
+  <si>
+    <t>Aaron P, Manager at AC Hotel Denver Downtown, responded to this reviewResponded June 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 2, 2018</t>
+  </si>
+  <si>
+    <t>I loved the corner room and close proximity to the convention center.  Attached to La Meridian with a roof top bar contributes to the vibrant nightlife. Bar food and wine were very good and the service was phenomenal.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r584457600-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>584457600</t>
+  </si>
+  <si>
+    <t>Awesome</t>
+  </si>
+  <si>
+    <t>Everything was amazing.  I stay here often and it’s amazing every time. The new bar manager Kevin for the roof is excellent and took great care of us.  Room was perfect.  Only thing that was a little annoying was the nocking on the door in the morning to ask when I was checking out.  Otherwise all around 5 stars.MoreShow less</t>
+  </si>
+  <si>
+    <t>Everything was amazing.  I stay here often and it’s amazing every time. The new bar manager Kevin for the roof is excellent and took great care of us.  Room was perfect.  Only thing that was a little annoying was the nocking on the door in the morning to ask when I was checking out.  Otherwise all around 5 stars.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r584405964-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>584405964</t>
+  </si>
+  <si>
+    <t>Amazing stay</t>
+  </si>
+  <si>
+    <t>Had a great stay and the staff was amazing. Cierra did a great job taking care of me and ensured I had the best time in Denver. The hotel breakfast is delicious with the best inlets in town. If you are coming to Denver, AC Hotel is the way to go.MoreShow less</t>
+  </si>
+  <si>
+    <t>Had a great stay and the staff was amazing. Cierra did a great job taking care of me and ensured I had the best time in Denver. The hotel breakfast is delicious with the best inlets in town. If you are coming to Denver, AC Hotel is the way to go.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r583863697-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>583863697</t>
+  </si>
+  <si>
+    <t>05/30/2018</t>
+  </si>
+  <si>
+    <t>Love Denver</t>
+  </si>
+  <si>
+    <t>The hotel was nice and the restaurant food was very good. Will stay there again. Denver was clean and people friendly. Enjoyed the weather and hope to go back soon.  Weather man said upper 80s but it was comfortableMoreShow less</t>
+  </si>
+  <si>
+    <t>Aaron P, Manager at AC Hotel Denver Downtown, responded to this reviewResponded May 30, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 30, 2018</t>
+  </si>
+  <si>
+    <t>The hotel was nice and the restaurant food was very good. Will stay there again. Denver was clean and people friendly. Enjoyed the weather and hope to go back soon.  Weather man said upper 80s but it was comfortableMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r583743233-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>583743233</t>
+  </si>
+  <si>
+    <t>05/29/2018</t>
+  </si>
+  <si>
+    <t>Great hotel!</t>
+  </si>
+  <si>
+    <t>First time at an ac hotel and I loved it!  Great location close to transportation, restaurants, convention center and shopping. With Le mereidien being in the same building u got the best of both a full service and limited service hotel but u still your own bar and limited restaurant. See room tip below. MoreShow less</t>
+  </si>
+  <si>
+    <t>First time at an ac hotel and I loved it!  Great location close to transportation, restaurants, convention center and shopping. With Le mereidien being in the same building u got the best of both a full service and limited service hotel but u still your own bar and limited restaurant. See room tip below. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r583616092-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>583616092</t>
+  </si>
+  <si>
+    <t>Friendly front desk, nice clean rooms,restaurant had great food and was close proximity to almost everything we did!  Just 1 block over from the 16th street mall. I would defiantly stay here again on our next trip to Denver.  MoreShow less</t>
+  </si>
+  <si>
+    <t>LMAC-HotelManager, Front Office Manager at AC Hotel Denver Downtown, responded to this reviewResponded May 30, 2018</t>
+  </si>
+  <si>
+    <t>Friendly front desk, nice clean rooms,restaurant had great food and was close proximity to almost everything we did!  Just 1 block over from the 16th street mall. I would defiantly stay here again on our next trip to Denver.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r583586144-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>583586144</t>
+  </si>
+  <si>
+    <t>Very good stay</t>
+  </si>
+  <si>
+    <t>The hotel is new and very comfortable.  Not a lot of closet space but was able to figure it out.  Sad but still trying to get my final folio since my stay was part of a convention room block.  Location is a plus.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel is new and very comfortable.  Not a lot of closet space but was able to figure it out.  Sad but still trying to get my final folio since my stay was part of a convention room block.  Location is a plus.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r583159482-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>583159482</t>
+  </si>
+  <si>
+    <t>05/27/2018</t>
+  </si>
+  <si>
+    <t>New hotel 15 min walk from the train station</t>
+  </si>
+  <si>
+    <t>If you walk from the train station with luggage on wheels, walk on 15th street vs 16th (which is nicer, but has uneven sidewalks which are hard for luggage).The hotel is very nice, modern. Small rooms with very large TVs. Nice small bar downs stairs with a pool table.Staff was very friendly and helpful. Would definitely come back next time we’re in Denver. MoreShow less</t>
+  </si>
+  <si>
+    <t>If you walk from the train station with luggage on wheels, walk on 15th street vs 16th (which is nicer, but has uneven sidewalks which are hard for luggage).The hotel is very nice, modern. Small rooms with very large TVs. Nice small bar downs stairs with a pool table.Staff was very friendly and helpful. Would definitely come back next time we’re in Denver. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r582257489-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>582257489</t>
+  </si>
+  <si>
+    <t>05/23/2018</t>
+  </si>
+  <si>
+    <t>Great location</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel while traveling alone. The location was perfect and the staff were great. I was on the 16th floor and the view was nice. Beware though, “European Inspired “ is code for very small rooms. There was no separate room for the bathroom, instead a toilet stall and a shower stall off the room. I would stay here again if I was by myself.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Aaron P, Manager at AC Hotel Denver Downtown, responded to this reviewResponded May 25, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 25, 2018</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel while traveling alone. The location was perfect and the staff were great. I was on the 16th floor and the view was nice. Beware though, “European Inspired “ is code for very small rooms. There was no separate room for the bathroom, instead a toilet stall and a shower stall off the room. I would stay here again if I was by myself.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r581843287-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>581843287</t>
+  </si>
+  <si>
+    <t>05/21/2018</t>
+  </si>
+  <si>
+    <t>This was a great hotel. The room set up was very cool compared to traditional hotel rooms. I loved the shower and large screen tv. I would definitely stay at this hotel again. Also, check out the roof top bar! MoreShow less</t>
+  </si>
+  <si>
+    <t>Niels V, General Manager at AC Hotel Denver Downtown, responded to this reviewResponded May 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 22, 2018</t>
+  </si>
+  <si>
+    <t>This was a great hotel. The room set up was very cool compared to traditional hotel rooms. I loved the shower and large screen tv. I would definitely stay at this hotel again. Also, check out the roof top bar! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r581828467-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>581828467</t>
+  </si>
+  <si>
+    <t>Excellent close to everything</t>
+  </si>
+  <si>
+    <t>My family and I enjoyed our stay. We will stay again , very nice and close to everything. Rooms were great , beautiful hotel. Thank youThe beds were comfortable and the room was clean .Valet was great MoreShow less</t>
+  </si>
+  <si>
+    <t>My family and I enjoyed our stay. We will stay again , very nice and close to everything. Rooms were great , beautiful hotel. Thank youThe beds were comfortable and the room was clean .Valet was great More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r578808366-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>578808366</t>
+  </si>
+  <si>
+    <t>05/08/2018</t>
+  </si>
+  <si>
+    <t>New Marriott structure.</t>
+  </si>
+  <si>
+    <t>I am a Marriott loyalist - Life Time Platinum and decided to check out the AC Hotel in Denver. I was pleasantly surprised by the quality of service provided by this new chain member of the Marriott family. The room was comfortable yet very modern! Not the usual layout of Marriott hotels but acceptable. It is a MoreShow less</t>
+  </si>
+  <si>
+    <t>Aaron P, Manager at AC Hotel Denver Downtown, responded to this reviewResponded May 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 10, 2018</t>
+  </si>
+  <si>
+    <t>I am a Marriott loyalist - Life Time Platinum and decided to check out the AC Hotel in Denver. I was pleasantly surprised by the quality of service provided by this new chain member of the Marriott family. The room was comfortable yet very modern! Not the usual layout of Marriott hotels but acceptable. It is a More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r578799807-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>578799807</t>
+  </si>
+  <si>
+    <t>Overnight Fun in Denver</t>
+  </si>
+  <si>
+    <t>We enjoyed our stay at the AC.  Rooms were clean. However, Very Stark Décor and the rooms were kind of small.  Great City Views and within walking distance of many great restaurants and the 16th Street Mall.  We ventured up to the Roof Top bar but did not stay -- the DJ was playing the music so loud that our ears were ringing and definitely could not enjoy any conversation.  The bar in the hotel lobby makes a mean martini!MoreShow less</t>
+  </si>
+  <si>
+    <t>We enjoyed our stay at the AC.  Rooms were clean. However, Very Stark Décor and the rooms were kind of small.  Great City Views and within walking distance of many great restaurants and the 16th Street Mall.  We ventured up to the Roof Top bar but did not stay -- the DJ was playing the music so loud that our ears were ringing and definitely could not enjoy any conversation.  The bar in the hotel lobby makes a mean martini!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r578763030-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>578763030</t>
+  </si>
+  <si>
+    <t>Nice property</t>
+  </si>
+  <si>
+    <t>The rooms were nice. If you like very modern decor, you'll love them. If you like tradition room furnishings, you may not be a fan. The service was average. The valet parking is expensive ($45), so be prepared for that... Overall, a nice property.MoreShow less</t>
+  </si>
+  <si>
+    <t>The rooms were nice. If you like very modern decor, you'll love them. If you like tradition room furnishings, you may not be a fan. The service was average. The valet parking is expensive ($45), so be prepared for that... Overall, a nice property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r578176858-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>578176858</t>
+  </si>
+  <si>
+    <t>05/05/2018</t>
+  </si>
+  <si>
+    <t>A great hotel!</t>
+  </si>
+  <si>
+    <t>The rooms were spotless and the staff was very friendly and accommodating. It is within walking distance to the convention center, the  capital and other sites. If I go to Denver again, I will absolutely book a room at this hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>The rooms were spotless and the staff was very friendly and accommodating. It is within walking distance to the convention center, the  capital and other sites. If I go to Denver again, I will absolutely book a room at this hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r577961170-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>577961170</t>
+  </si>
+  <si>
+    <t>05/04/2018</t>
+  </si>
+  <si>
+    <t>Amazing hotel and staff</t>
+  </si>
+  <si>
+    <t>This hotel was visually stunning. Gorgeous design, friendly helpful staff. I was only in town here for about 8 hours for a photo shoot. But Peter, the front desk master, helped me through check in so there was not a hiccup or second to spare. I can’t stress enough about Peter, the dude is a professional amongst professionals. Amazing work. The absolute only con I can speak to and it really isn’t even that much of a negative is the size of the room. They are quite small. And I only noticed this due to the amount of equipment I had to pile into mine. But that’s it. Everything else was perfection. Oh, word to the wise, park directly next to the hotel in the self pay lot, unless youve got the cheddar to pay th $47/ Day valet. Will stay here again MoreShow less</t>
+  </si>
+  <si>
+    <t>Aaron P, Manager at AC Hotel Denver Downtown, responded to this reviewResponded May 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 5, 2018</t>
+  </si>
+  <si>
+    <t>This hotel was visually stunning. Gorgeous design, friendly helpful staff. I was only in town here for about 8 hours for a photo shoot. But Peter, the front desk master, helped me through check in so there was not a hiccup or second to spare. I can’t stress enough about Peter, the dude is a professional amongst professionals. Amazing work. The absolute only con I can speak to and it really isn’t even that much of a negative is the size of the room. They are quite small. And I only noticed this due to the amount of equipment I had to pile into mine. But that’s it. Everything else was perfection. Oh, word to the wise, park directly next to the hotel in the self pay lot, unless youve got the cheddar to pay th $47/ Day valet. Will stay here again More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r576259800-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>576259800</t>
+  </si>
+  <si>
+    <t>04/28/2018</t>
+  </si>
+  <si>
+    <t>Thank you, Chelsea!</t>
+  </si>
+  <si>
+    <t>I was sick during my trip and Chelsea was extremely hospitable. I work at a full service hotel and did not realize the AC hotel was select service. I had called downstairs with several requests (somewhat unintentionally ubnoxiously) and Chelsea wa so patient and helpful. Thank you!MoreShow less</t>
+  </si>
+  <si>
+    <t>Aaron P, Manager at AC Hotel Denver Downtown, responded to this reviewResponded April 28, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 28, 2018</t>
+  </si>
+  <si>
+    <t>I was sick during my trip and Chelsea was extremely hospitable. I work at a full service hotel and did not realize the AC hotel was select service. I had called downstairs with several requests (somewhat unintentionally ubnoxiously) and Chelsea wa so patient and helpful. Thank you!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r575882611-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>575882611</t>
+  </si>
+  <si>
+    <t>04/26/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Beautiful and cozy modern hotel!!!</t>
+  </si>
+  <si>
+    <t>Beautiful rooms, great lighting and windows, great shower head also including hand held, very snuggly comphy pillows and beds, incredible rooftop open air bar views, great restaurant, lots of glass and open feeling. Forgot to get pictures of the room.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Beautiful rooms, great lighting and windows, great shower head also including hand held, very snuggly comphy pillows and beds, incredible rooftop open air bar views, great restaurant, lots of glass and open feeling. Forgot to get pictures of the room.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r575841655-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>575841655</t>
+  </si>
+  <si>
+    <t>New, Modern, Convenient</t>
+  </si>
+  <si>
+    <t>I frequently stay at Marriott properties in addition to other more modern properties at the request of my wife. I have to say that I was impressed with the modern design, layout and convenience of this hotel. Rooftop gym with views of the mountains--perfect start to your day in Denver. Excellent entrance lounge to grab a coffee and catch the daily newspaper. In house restaurant/bar. Rooftop bar with views of the city, fitting for a proper night cap. Hotel is steps away from the main areas of the city (16th Street, Civic Center, etc). Recommended. Would stay hear again.MoreShow less</t>
+  </si>
+  <si>
+    <t>I frequently stay at Marriott properties in addition to other more modern properties at the request of my wife. I have to say that I was impressed with the modern design, layout and convenience of this hotel. Rooftop gym with views of the mountains--perfect start to your day in Denver. Excellent entrance lounge to grab a coffee and catch the daily newspaper. In house restaurant/bar. Rooftop bar with views of the city, fitting for a proper night cap. Hotel is steps away from the main areas of the city (16th Street, Civic Center, etc). Recommended. Would stay hear again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r575645763-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>575645763</t>
+  </si>
+  <si>
+    <t>04/25/2018</t>
+  </si>
+  <si>
+    <t>Nice downtown hotel</t>
+  </si>
+  <si>
+    <t>Enjoyed my stay at the AC Hotel. Very convenient location for restaurants, 16th Avenue mall and Convention Center. Very nice amenities. Like the choice of restaurants and bars, the modern European style décor and friendly service. MoreShow less</t>
+  </si>
+  <si>
+    <t>Aaron P, Manager at AC Hotel Denver Downtown, responded to this reviewResponded April 25, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 25, 2018</t>
+  </si>
+  <si>
+    <t>Enjoyed my stay at the AC Hotel. Very convenient location for restaurants, 16th Avenue mall and Convention Center. Very nice amenities. Like the choice of restaurants and bars, the modern European style décor and friendly service. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r575316640-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>575316640</t>
+  </si>
+  <si>
+    <t>04/23/2018</t>
+  </si>
+  <si>
+    <t>Downtown Denver near 16th street mall</t>
+  </si>
+  <si>
+    <t>The staff was so nice &amp; helpful ! Front desk agent was so sweet to give me a 2pm checkout due to my late flight. Rooftop bar is a must see.. I was there for 4/20 and it was a blast.. right in the perfect location.. mall is down the street. Uber is fast. Great food try pixte pizza ? I think is the name and district biscuit company .. yummy MoreShow less</t>
+  </si>
+  <si>
+    <t>Aaron P, Manager at AC Hotel Denver Downtown, responded to this reviewResponded April 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 23, 2018</t>
+  </si>
+  <si>
+    <t>The staff was so nice &amp; helpful ! Front desk agent was so sweet to give me a 2pm checkout due to my late flight. Rooftop bar is a must see.. I was there for 4/20 and it was a blast.. right in the perfect location.. mall is down the street. Uber is fast. Great food try pixte pizza ? I think is the name and district biscuit company .. yummy More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r575284497-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>575284497</t>
+  </si>
+  <si>
+    <t>Bad Check-in Experience</t>
+  </si>
+  <si>
+    <t>Was excited to try this new hotel in downtown Denver. Arrived after overnight flight at 1am to a lady at front desk who didn’t go out of her way to smile or offer much in the way of warmth. I offered my ID and CC. She dutifully slid the card into a very cheesy looking auxiliary reader, stared at the screen for a bit, and then alerted me that “It’s no working do you have another.” That’s odd, I know that card is good, but perhaps some fraud hold? So, I have her another. Same thing. Gave her a third card, same thing. By this time any idiot would know that the issue was with their cc processing, not my cards. I gave her a fourth card, my debit, same thing. I kept my composure but got a little disturbed by what was going on and a bunch of managers coming out and looking at me like I was some sort of criminal trying to get a room on bunk cards. Absolutely absurd and unprofessional! No apology or recognition of my Marriott status. I informed them that the issue was with their processor as it was saying “invalid card” not “declined.” The lady at the desk got on the phone with who knows who while I stood there looking at alternative hotels on the Marriott app. She was shuffling my cards around like playing cards. Apparently one went through...guess what?...Was excited to try this new hotel in downtown Denver. Arrived after overnight flight at 1am to a lady at front desk who didn’t go out of her way to smile or offer much in the way of warmth. I offered my ID and CC. She dutifully slid the card into a very cheesy looking auxiliary reader, stared at the screen for a bit, and then alerted me that “It’s no working do you have another.” That’s odd, I know that card is good, but perhaps some fraud hold? So, I have her another. Same thing. Gave her a third card, same thing. By this time any idiot would know that the issue was with their cc processing, not my cards. I gave her a fourth card, my debit, same thing. I kept my composure but got a little disturbed by what was going on and a bunch of managers coming out and looking at me like I was some sort of criminal trying to get a room on bunk cards. Absolutely absurd and unprofessional! No apology or recognition of my Marriott status. I informed them that the issue was with their processor as it was saying “invalid card” not “declined.” The lady at the desk got on the phone with who knows who while I stood there looking at alternative hotels on the Marriott app. She was shuffling my cards around like playing cards. Apparently one went through...guess what? The first one! Unbelievable. She couldn’t even keep the cards straight and said it was the debit that went through. Anyways, all of the cards were active with plenty of limit and in good standing, it was the hotel’s fault. This was the lamest most demeaning check in experience I’ve ever had in many years of constant business travel. The worst part was the zombie-like attitude of the staff, not recognizing that the issue was theirs not mine. Total joke. Would not recommend this place no matter how shiny and new it is.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>Aaron P, Manager at AC Hotel Denver Downtown, responded to this reviewResponded April 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 24, 2018</t>
+  </si>
+  <si>
+    <t>Was excited to try this new hotel in downtown Denver. Arrived after overnight flight at 1am to a lady at front desk who didn’t go out of her way to smile or offer much in the way of warmth. I offered my ID and CC. She dutifully slid the card into a very cheesy looking auxiliary reader, stared at the screen for a bit, and then alerted me that “It’s no working do you have another.” That’s odd, I know that card is good, but perhaps some fraud hold? So, I have her another. Same thing. Gave her a third card, same thing. By this time any idiot would know that the issue was with their cc processing, not my cards. I gave her a fourth card, my debit, same thing. I kept my composure but got a little disturbed by what was going on and a bunch of managers coming out and looking at me like I was some sort of criminal trying to get a room on bunk cards. Absolutely absurd and unprofessional! No apology or recognition of my Marriott status. I informed them that the issue was with their processor as it was saying “invalid card” not “declined.” The lady at the desk got on the phone with who knows who while I stood there looking at alternative hotels on the Marriott app. She was shuffling my cards around like playing cards. Apparently one went through...guess what?...Was excited to try this new hotel in downtown Denver. Arrived after overnight flight at 1am to a lady at front desk who didn’t go out of her way to smile or offer much in the way of warmth. I offered my ID and CC. She dutifully slid the card into a very cheesy looking auxiliary reader, stared at the screen for a bit, and then alerted me that “It’s no working do you have another.” That’s odd, I know that card is good, but perhaps some fraud hold? So, I have her another. Same thing. Gave her a third card, same thing. By this time any idiot would know that the issue was with their cc processing, not my cards. I gave her a fourth card, my debit, same thing. I kept my composure but got a little disturbed by what was going on and a bunch of managers coming out and looking at me like I was some sort of criminal trying to get a room on bunk cards. Absolutely absurd and unprofessional! No apology or recognition of my Marriott status. I informed them that the issue was with their processor as it was saying “invalid card” not “declined.” The lady at the desk got on the phone with who knows who while I stood there looking at alternative hotels on the Marriott app. She was shuffling my cards around like playing cards. Apparently one went through...guess what? The first one! Unbelievable. She couldn’t even keep the cards straight and said it was the debit that went through. Anyways, all of the cards were active with plenty of limit and in good standing, it was the hotel’s fault. This was the lamest most demeaning check in experience I’ve ever had in many years of constant business travel. The worst part was the zombie-like attitude of the staff, not recognizing that the issue was theirs not mine. Total joke. Would not recommend this place no matter how shiny and new it is.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r575056440-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>575056440</t>
+  </si>
+  <si>
+    <t>04/22/2018</t>
+  </si>
+  <si>
+    <t>College Visit</t>
+  </si>
+  <si>
+    <t>While Visiting D.U. my son and I stayed at this establishment. We found that it is close to public transportation and walking distance to all of downtown Denver.We found the hotel and our room to be very clean and up to date. Housekeeping did a fantastic job. All employees were very polite and knowledgeable of the city. It was a successful stay, and we will be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>While Visiting D.U. my son and I stayed at this establishment. We found that it is close to public transportation and walking distance to all of downtown Denver.We found the hotel and our room to be very clean and up to date. Housekeeping did a fantastic job. All employees were very polite and knowledgeable of the city. It was a successful stay, and we will be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r574205834-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>574205834</t>
+  </si>
+  <si>
+    <t>04/18/2018</t>
+  </si>
+  <si>
+    <t>Very professional, yet feels like family</t>
+  </si>
+  <si>
+    <t>After an extensive 6 month stay (Sep 2017 - Mar 2018), I don't have a single negative comment about this property or it's staff. The location is prime for all downtown access and easy reach to anywhere in the metro area. The hotel is clean, modern and cozy. The food is exceptional and, though I ate everything on the menu multiple times, I found it consistently pleasing and always satisfying. Whether it's small plates at any of the bars or breakfast, lunch or dinner at Corinne, the kitchen staff are amazing!
+I don't have enough good things to say about the staff! From Laney &amp; Aaron and the rest of the front desk staff, each of them were highly professional yet made me feel like I was at home every day. They each had wonderful recommendations for the local area and went out of their way to be accommodating and personal. 
+The multiple bars within the hotel equally had top-notch staff. Emily, Mia, Dane, Eric, Makeda, Chris and all the rest, never failed to bring their A-game every day. Each of them exhibit a friendly attitude and exceptional work ethic as brand-ambassadors for this hotel. (Special call out to the truly amazing craft cocktail knowledge of Chris, always a joy to experience a custom creation from one of Denver's greats!) Each of these fine professionals add to the welcoming environment of this classy establishment.
+Lastly, the hotel management was always...After an extensive 6 month stay (Sep 2017 - Mar 2018), I don't have a single negative comment about this property or it's staff. The location is prime for all downtown access and easy reach to anywhere in the metro area. The hotel is clean, modern and cozy. The food is exceptional and, though I ate everything on the menu multiple times, I found it consistently pleasing and always satisfying. Whether it's small plates at any of the bars or breakfast, lunch or dinner at Corinne, the kitchen staff are amazing!I don't have enough good things to say about the staff! From Laney &amp; Aaron and the rest of the front desk staff, each of them were highly professional yet made me feel like I was at home every day. They each had wonderful recommendations for the local area and went out of their way to be accommodating and personal. The multiple bars within the hotel equally had top-notch staff. Emily, Mia, Dane, Eric, Makeda, Chris and all the rest, never failed to bring their A-game every day. Each of them exhibit a friendly attitude and exceptional work ethic as brand-ambassadors for this hotel. (Special call out to the truly amazing craft cocktail knowledge of Chris, always a joy to experience a custom creation from one of Denver's greats!) Each of these fine professionals add to the welcoming environment of this classy establishment.Lastly, the hotel management was always present and engaged making sure this machine runs so smoothly that the guests have a carefree stay.I highly recommend this hotel; most of all for the warm, friendly people that make it like home.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>Aaron P, Manager at AC Hotel Denver Downtown, responded to this reviewResponded April 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 20, 2018</t>
+  </si>
+  <si>
+    <t>After an extensive 6 month stay (Sep 2017 - Mar 2018), I don't have a single negative comment about this property or it's staff. The location is prime for all downtown access and easy reach to anywhere in the metro area. The hotel is clean, modern and cozy. The food is exceptional and, though I ate everything on the menu multiple times, I found it consistently pleasing and always satisfying. Whether it's small plates at any of the bars or breakfast, lunch or dinner at Corinne, the kitchen staff are amazing!
+I don't have enough good things to say about the staff! From Laney &amp; Aaron and the rest of the front desk staff, each of them were highly professional yet made me feel like I was at home every day. They each had wonderful recommendations for the local area and went out of their way to be accommodating and personal. 
+The multiple bars within the hotel equally had top-notch staff. Emily, Mia, Dane, Eric, Makeda, Chris and all the rest, never failed to bring their A-game every day. Each of them exhibit a friendly attitude and exceptional work ethic as brand-ambassadors for this hotel. (Special call out to the truly amazing craft cocktail knowledge of Chris, always a joy to experience a custom creation from one of Denver's greats!) Each of these fine professionals add to the welcoming environment of this classy establishment.
+Lastly, the hotel management was always...After an extensive 6 month stay (Sep 2017 - Mar 2018), I don't have a single negative comment about this property or it's staff. The location is prime for all downtown access and easy reach to anywhere in the metro area. The hotel is clean, modern and cozy. The food is exceptional and, though I ate everything on the menu multiple times, I found it consistently pleasing and always satisfying. Whether it's small plates at any of the bars or breakfast, lunch or dinner at Corinne, the kitchen staff are amazing!I don't have enough good things to say about the staff! From Laney &amp; Aaron and the rest of the front desk staff, each of them were highly professional yet made me feel like I was at home every day. They each had wonderful recommendations for the local area and went out of their way to be accommodating and personal. The multiple bars within the hotel equally had top-notch staff. Emily, Mia, Dane, Eric, Makeda, Chris and all the rest, never failed to bring their A-game every day. Each of them exhibit a friendly attitude and exceptional work ethic as brand-ambassadors for this hotel. (Special call out to the truly amazing craft cocktail knowledge of Chris, always a joy to experience a custom creation from one of Denver's greats!) Each of these fine professionals add to the welcoming environment of this classy establishment.Lastly, the hotel management was always present and engaged making sure this machine runs so smoothly that the guests have a carefree stay.I highly recommend this hotel; most of all for the warm, friendly people that make it like home.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r574049290-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>574049290</t>
+  </si>
+  <si>
+    <t>04/17/2018</t>
+  </si>
+  <si>
+    <t>Terrible Service, Tiny Rooms, Poor Maintenace</t>
+  </si>
+  <si>
+    <t>When I checked in I was told that I had an updgraded room as a Platnium Member.  The "upgraded room" is probably less than 175 square feet.  The desk is too small to work at and the safe didn't work.  When I ordered room service it never came, I would say it is probably best to avoid this property.MoreShow less</t>
+  </si>
+  <si>
+    <t>When I checked in I was told that I had an updgraded room as a Platnium Member.  The "upgraded room" is probably less than 175 square feet.  The desk is too small to work at and the safe didn't work.  When I ordered room service it never came, I would say it is probably best to avoid this property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r573951640-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>573951640</t>
+  </si>
+  <si>
+    <t>Great service, great location</t>
+  </si>
+  <si>
+    <t>This is one of our favorite hotels.  It is kept up nice and in a great location.  The staff is friendly and efficient.  Rooms arent large but are comfortable.  Great lobby and rooftop bars make it a perfect place to end date night.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is one of our favorite hotels.  It is kept up nice and in a great location.  The staff is friendly and efficient.  Rooms arent large but are comfortable.  Great lobby and rooftop bars make it a perfect place to end date night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r573828662-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>573828662</t>
+  </si>
+  <si>
+    <t>04/16/2018</t>
+  </si>
+  <si>
+    <t>Girlsweekend2018</t>
+  </si>
+  <si>
+    <t>Amazing hotel and staff.  Will definitely come back!   Kudos to front desk staff. Always smiling!!!   Hotel bar is nice and laid back and so many amazing restaurants in walking distance.  And visit the rooftop bar!!!!  Million dollar view!MoreShow less</t>
+  </si>
+  <si>
+    <t>Amazing hotel and staff.  Will definitely come back!   Kudos to front desk staff. Always smiling!!!   Hotel bar is nice and laid back and so many amazing restaurants in walking distance.  And visit the rooftop bar!!!!  Million dollar view!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r573828435-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>573828435</t>
+  </si>
+  <si>
+    <t>Very modern, clean, and convenient to downtown</t>
+  </si>
+  <si>
+    <t>The hotel was very modern, clean, and convenient to downtown.  The room was new and a minimalist design.  It did feel small compared to other rooms but not a problem as I was alone.  It could get crowded for more than one person.MoreShow less</t>
+  </si>
+  <si>
+    <t>Aaron P, Manager at AC Hotel Denver Downtown, responded to this reviewResponded April 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 19, 2018</t>
+  </si>
+  <si>
+    <t>The hotel was very modern, clean, and convenient to downtown.  The room was new and a minimalist design.  It did feel small compared to other rooms but not a problem as I was alone.  It could get crowded for more than one person.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r573827152-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>573827152</t>
+  </si>
+  <si>
+    <t>AMAZING</t>
+  </si>
+  <si>
+    <t>Loved the hotel and the staff. They were very humble, kind, funny and helpful. We only stay at Marriott properties and love their Autograph Collection of hotels but the AC in Denver may be in the running as one of our favorites. Love the changes Marriott is making these days.MoreShow less</t>
+  </si>
+  <si>
+    <t>Loved the hotel and the staff. They were very humble, kind, funny and helpful. We only stay at Marriott properties and love their Autograph Collection of hotels but the AC in Denver may be in the running as one of our favorites. Love the changes Marriott is making these days.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r573722493-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>573722493</t>
+  </si>
+  <si>
+    <t>Cool vibe, not good for long term stays</t>
+  </si>
+  <si>
+    <t>We could not find a hotel at the last minute to stay in Denver for one night. What was left was heavily overpriced due to demand, including this hotel (it was priced over 400). We were able to book a one night stay with points. Great location, we loved the lobby, the restaurant area. Had a free glass of sangria (not really good) Checked into room, Clean &amp; sleek. But when we went to unpack, there was not a drawer or closet, you had a tiny rack to hang your clothes/jacket on. I am not sure what a business person would do to hang their suit pants. Since we only stayed overnight, we just never unpacks, there was not any space for toiletries by the sink. The bathroom was clean with cool shower. But why does every hotel want you to conserve by reusing your towel, but then only give you 1 hook? We are in a double room?  There was not any robes, or slippers, there was a coffee machine, but not a water pot. I am a tea drinker, they had a couple poor choices of tea. Plus the water always taste like coffee. I went downstairs to check out the lounge. There was not any complimentary coffee of tea (which many places have) You would think for that price you could get one. The breakfast area looked very cool, and tasty, Euro style, but I did not...We could not find a hotel at the last minute to stay in Denver for one night. What was left was heavily overpriced due to demand, including this hotel (it was priced over 400). We were able to book a one night stay with points. Great location, we loved the lobby, the restaurant area. Had a free glass of sangria (not really good) Checked into room, Clean &amp; sleek. But when we went to unpack, there was not a drawer or closet, you had a tiny rack to hang your clothes/jacket on. I am not sure what a business person would do to hang their suit pants. Since we only stayed overnight, we just never unpacks, there was not any space for toiletries by the sink. The bathroom was clean with cool shower. But why does every hotel want you to conserve by reusing your towel, but then only give you 1 hook? We are in a double room?  There was not any robes, or slippers, there was a coffee machine, but not a water pot. I am a tea drinker, they had a couple poor choices of tea. Plus the water always taste like coffee. I went downstairs to check out the lounge. There was not any complimentary coffee of tea (which many places have) You would think for that price you could get one. The breakfast area looked very cool, and tasty, Euro style, but I did not want to spend $15.00 to have a breakfast. Good value if you liked to eat that much in the morning. I know the hotel will say you could have called down to get those amenities, but by the time you realize you want something (water pot to have your tea taste like coffee), robe,  and wait for them to bring up, its not convenient. The huge disappointment was: Trying to pick between the 2 hotels we could get into that night, This one advertised "roof top bar" we were sold.Turns out it is not open, just seasonally. That is fine, but do not list it as an amenity. You could put seasonal next to it. We were able to sit outside, but we had to run down 20 flights to get a drink. ( I understand that they are working toward making it year round.But did not help me on that day.) Good happy hour pricing on wineMoreShow less</t>
+  </si>
+  <si>
+    <t>We could not find a hotel at the last minute to stay in Denver for one night. What was left was heavily overpriced due to demand, including this hotel (it was priced over 400). We were able to book a one night stay with points. Great location, we loved the lobby, the restaurant area. Had a free glass of sangria (not really good) Checked into room, Clean &amp; sleek. But when we went to unpack, there was not a drawer or closet, you had a tiny rack to hang your clothes/jacket on. I am not sure what a business person would do to hang their suit pants. Since we only stayed overnight, we just never unpacks, there was not any space for toiletries by the sink. The bathroom was clean with cool shower. But why does every hotel want you to conserve by reusing your towel, but then only give you 1 hook? We are in a double room?  There was not any robes, or slippers, there was a coffee machine, but not a water pot. I am a tea drinker, they had a couple poor choices of tea. Plus the water always taste like coffee. I went downstairs to check out the lounge. There was not any complimentary coffee of tea (which many places have) You would think for that price you could get one. The breakfast area looked very cool, and tasty, Euro style, but I did not...We could not find a hotel at the last minute to stay in Denver for one night. What was left was heavily overpriced due to demand, including this hotel (it was priced over 400). We were able to book a one night stay with points. Great location, we loved the lobby, the restaurant area. Had a free glass of sangria (not really good) Checked into room, Clean &amp; sleek. But when we went to unpack, there was not a drawer or closet, you had a tiny rack to hang your clothes/jacket on. I am not sure what a business person would do to hang their suit pants. Since we only stayed overnight, we just never unpacks, there was not any space for toiletries by the sink. The bathroom was clean with cool shower. But why does every hotel want you to conserve by reusing your towel, but then only give you 1 hook? We are in a double room?  There was not any robes, or slippers, there was a coffee machine, but not a water pot. I am a tea drinker, they had a couple poor choices of tea. Plus the water always taste like coffee. I went downstairs to check out the lounge. There was not any complimentary coffee of tea (which many places have) You would think for that price you could get one. The breakfast area looked very cool, and tasty, Euro style, but I did not want to spend $15.00 to have a breakfast. Good value if you liked to eat that much in the morning. I know the hotel will say you could have called down to get those amenities, but by the time you realize you want something (water pot to have your tea taste like coffee), robe,  and wait for them to bring up, its not convenient. The huge disappointment was: Trying to pick between the 2 hotels we could get into that night, This one advertised "roof top bar" we were sold.Turns out it is not open, just seasonally. That is fine, but do not list it as an amenity. You could put seasonal next to it. We were able to sit outside, but we had to run down 20 flights to get a drink. ( I understand that they are working toward making it year round.But did not help me on that day.) Good happy hour pricing on wineMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r573037776-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>573037776</t>
+  </si>
+  <si>
+    <t>04/13/2018</t>
+  </si>
+  <si>
+    <t>Great Location</t>
+  </si>
+  <si>
+    <t>First trip to Denver - what a beautiful city.  Hotel was a great location for the convention centre.  Helpful staff, had a room right over a busy intersection but they were happy to move me up to a quieter location with no hassle.MoreShow less</t>
+  </si>
+  <si>
+    <t>Aaron P, Manager at AC Hotel Denver Downtown, responded to this reviewResponded April 14, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 14, 2018</t>
+  </si>
+  <si>
+    <t>First trip to Denver - what a beautiful city.  Hotel was a great location for the convention centre.  Helpful staff, had a room right over a busy intersection but they were happy to move me up to a quieter location with no hassle.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r573037499-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>573037499</t>
+  </si>
+  <si>
+    <t>Good place to stay</t>
+  </si>
+  <si>
+    <t>The hotel is clean and nice.  I typically stay at Marriott properties and this was a fine hotel but not great or very good. The fact that the hotel is next to another Marriott property should have been a benefit but was not the case.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel is clean and nice.  I typically stay at Marriott properties and this was a fine hotel but not great or very good. The fact that the hotel is next to another Marriott property should have been a benefit but was not the case.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r572293612-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>572293612</t>
+  </si>
+  <si>
+    <t>04/09/2018</t>
+  </si>
+  <si>
+    <t>Enjoyed short stay</t>
+  </si>
+  <si>
+    <t>I was in Denver for a conference and had a chance to complete my Marriott Plat. challenge.  Stayed at the AC Hotel... nice european style decor - enjoyed by stay.  I am currently a Marriott Gold Elite,  all Ibut was able to get was free premium internet and 4 pm check out.MoreShow less</t>
+  </si>
+  <si>
+    <t>Aaron P, Manager at AC Hotel Denver Downtown, responded to this reviewResponded April 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 10, 2018</t>
+  </si>
+  <si>
+    <t>I was in Denver for a conference and had a chance to complete my Marriott Plat. challenge.  Stayed at the AC Hotel... nice european style decor - enjoyed by stay.  I am currently a Marriott Gold Elite,  all Ibut was able to get was free premium internet and 4 pm check out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r572005772-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>572005772</t>
+  </si>
+  <si>
+    <t>04/08/2018</t>
+  </si>
+  <si>
+    <t>You'll be fine if you're a convention traveler who likes Euro-style hotels, otherwise stay elsewhere</t>
+  </si>
+  <si>
+    <t>I'm a regular traveler, both for business and pleasure. As a Platinum Elite Marriott rewards member, I have a high standard for Marriott properties. Due to the fact that this was a new hotel and it had such good reviews, I figured it was going to be great! Sadly, I was mistaken - clearly the AC properties are not for me. The room design is very small and multifunctional, in a modern European sort of way. However there are SERIOUS drawbacks: there was exactly a SINGLE towel hook in the entire room, which meant one of us was hanging our towel off the ironing board, which, btw was NOT in a closet, beacuse there was not one. It was exposed storage. Same goes for the bathroom. The toilet had a sliding door to the main space. The shower was a capsule (no bathtub for feet soaking!) and the sink was to the side of the bed. In fact it was a double-sided mirror. I mean, I guess it was okay that I could do my makeup looking into the back of the mirror while sitting on the bed, but I would have preffered a real vanity. The restaurant is also connected to a non-marriott property, which is a little odd, but mostly inconsequential. The lobby bar, which had a Spanish theme did small plates, emphasis on small....needless to say we went elsewhere to eat, because the portion sizes were too...I'm a regular traveler, both for business and pleasure. As a Platinum Elite Marriott rewards member, I have a high standard for Marriott properties. Due to the fact that this was a new hotel and it had such good reviews, I figured it was going to be great! Sadly, I was mistaken - clearly the AC properties are not for me. The room design is very small and multifunctional, in a modern European sort of way. However there are SERIOUS drawbacks: there was exactly a SINGLE towel hook in the entire room, which meant one of us was hanging our towel off the ironing board, which, btw was NOT in a closet, beacuse there was not one. It was exposed storage. Same goes for the bathroom. The toilet had a sliding door to the main space. The shower was a capsule (no bathtub for feet soaking!) and the sink was to the side of the bed. In fact it was a double-sided mirror. I mean, I guess it was okay that I could do my makeup looking into the back of the mirror while sitting on the bed, but I would have preffered a real vanity. The restaurant is also connected to a non-marriott property, which is a little odd, but mostly inconsequential. The lobby bar, which had a Spanish theme did small plates, emphasis on small....needless to say we went elsewhere to eat, because the portion sizes were too tiny. The staff is friendly, but needs better training. I tried to mail a STAMPED postcard at the front desk and was told that the USPS didn't pickup from the hotel. When I commented that the day before the front desk had taken my stamped mail and I was therefore concerned for their status, she directed me to the FedEx box across the street. Note: FedEx does not accept USPS mail. All in all, it is a clean hotel with staff that is trying, however they need more training and the room design is not great. MoreShow less</t>
+  </si>
+  <si>
+    <t>Aaron P, Manager at AC Hotel Denver Downtown, responded to this reviewResponded April 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 9, 2018</t>
+  </si>
+  <si>
+    <t>I'm a regular traveler, both for business and pleasure. As a Platinum Elite Marriott rewards member, I have a high standard for Marriott properties. Due to the fact that this was a new hotel and it had such good reviews, I figured it was going to be great! Sadly, I was mistaken - clearly the AC properties are not for me. The room design is very small and multifunctional, in a modern European sort of way. However there are SERIOUS drawbacks: there was exactly a SINGLE towel hook in the entire room, which meant one of us was hanging our towel off the ironing board, which, btw was NOT in a closet, beacuse there was not one. It was exposed storage. Same goes for the bathroom. The toilet had a sliding door to the main space. The shower was a capsule (no bathtub for feet soaking!) and the sink was to the side of the bed. In fact it was a double-sided mirror. I mean, I guess it was okay that I could do my makeup looking into the back of the mirror while sitting on the bed, but I would have preffered a real vanity. The restaurant is also connected to a non-marriott property, which is a little odd, but mostly inconsequential. The lobby bar, which had a Spanish theme did small plates, emphasis on small....needless to say we went elsewhere to eat, because the portion sizes were too...I'm a regular traveler, both for business and pleasure. As a Platinum Elite Marriott rewards member, I have a high standard for Marriott properties. Due to the fact that this was a new hotel and it had such good reviews, I figured it was going to be great! Sadly, I was mistaken - clearly the AC properties are not for me. The room design is very small and multifunctional, in a modern European sort of way. However there are SERIOUS drawbacks: there was exactly a SINGLE towel hook in the entire room, which meant one of us was hanging our towel off the ironing board, which, btw was NOT in a closet, beacuse there was not one. It was exposed storage. Same goes for the bathroom. The toilet had a sliding door to the main space. The shower was a capsule (no bathtub for feet soaking!) and the sink was to the side of the bed. In fact it was a double-sided mirror. I mean, I guess it was okay that I could do my makeup looking into the back of the mirror while sitting on the bed, but I would have preffered a real vanity. The restaurant is also connected to a non-marriott property, which is a little odd, but mostly inconsequential. The lobby bar, which had a Spanish theme did small plates, emphasis on small....needless to say we went elsewhere to eat, because the portion sizes were too tiny. The staff is friendly, but needs better training. I tried to mail a STAMPED postcard at the front desk and was told that the USPS didn't pickup from the hotel. When I commented that the day before the front desk had taken my stamped mail and I was therefore concerned for their status, she directed me to the FedEx box across the street. Note: FedEx does not accept USPS mail. All in all, it is a clean hotel with staff that is trying, however they need more training and the room design is not great. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r571790787-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>571790787</t>
+  </si>
+  <si>
+    <t>04/07/2018</t>
+  </si>
+  <si>
+    <t>Be prepared - not normal level of Marriott service but normal level of rates</t>
+  </si>
+  <si>
+    <t>As a life time platinum I had certain expectations of Marriott, particularly given rates at this hotel. No free or vouchered breakfast, though clearly it was available as I was asked if I had one. I had had free breakfast at the AC Marseille and anticipated the same here. It was ok but not equivalent to regukar Marriott or AC in EuropeMoreShow less</t>
+  </si>
+  <si>
+    <t>As a life time platinum I had certain expectations of Marriott, particularly given rates at this hotel. No free or vouchered breakfast, though clearly it was available as I was asked if I had one. I had had free breakfast at the AC Marseille and anticipated the same here. It was ok but not equivalent to regukar Marriott or AC in EuropeMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r571696215-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>571696215</t>
+  </si>
+  <si>
+    <t>Stylish, modern, and new</t>
+  </si>
+  <si>
+    <t>I enjoyed my visit to this new hotel. The dual hotel brand set up is strange, but not difficult to navigate. The room was small, but the space is well laid-out and there was very smart use of the limited space — it’s completely fine for a short solo trip. Everything is new and crisp, and feels upscale if not luxurious. The location is central and very convenient to public transit. I would stay here again next time I’m in Denver. MoreShow less</t>
+  </si>
+  <si>
+    <t>I enjoyed my visit to this new hotel. The dual hotel brand set up is strange, but not difficult to navigate. The room was small, but the space is well laid-out and there was very smart use of the limited space — it’s completely fine for a short solo trip. Everything is new and crisp, and feels upscale if not luxurious. The location is central and very convenient to public transit. I would stay here again next time I’m in Denver. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r571155140-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>571155140</t>
+  </si>
+  <si>
+    <t>04/04/2018</t>
+  </si>
+  <si>
+    <t>Nice hotel!</t>
+  </si>
+  <si>
+    <t>Absolutely loved the AC! For one the Union Station ride from the airport to downtown Denver for $9 is amazing! Can’t beat that. From there we took the free mall ride and hopped off and walked to our hotel. The decor was nice, very clean and lovely. Had a room on the 11th floor, walked in and was in awe of the setup. It is small but the right kind of small. How everything is setup in the room works, from the toilet to the shower and the sink. Nice big comfy king size bed, hardwood floors, a desk, a little seating area, nice sized tv with cable and internet tv. Only thing I didn’t like was the fact that there wasn’t a microwave or a little mini fridge. I think every hotel room should come equipped with one but for the most part the stay was amazing, location great!MoreShow less</t>
+  </si>
+  <si>
+    <t>LMAC-HotelManager, Front Office Manager at AC Hotel Denver Downtown, responded to this reviewResponded April 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 5, 2018</t>
+  </si>
+  <si>
+    <t>Absolutely loved the AC! For one the Union Station ride from the airport to downtown Denver for $9 is amazing! Can’t beat that. From there we took the free mall ride and hopped off and walked to our hotel. The decor was nice, very clean and lovely. Had a room on the 11th floor, walked in and was in awe of the setup. It is small but the right kind of small. How everything is setup in the room works, from the toilet to the shower and the sink. Nice big comfy king size bed, hardwood floors, a desk, a little seating area, nice sized tv with cable and internet tv. Only thing I didn’t like was the fact that there wasn’t a microwave or a little mini fridge. I think every hotel room should come equipped with one but for the most part the stay was amazing, location great!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r570910231-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>570910231</t>
+  </si>
+  <si>
+    <t>04/03/2018</t>
+  </si>
+  <si>
+    <t>Confusing hotel with small rooms</t>
+  </si>
+  <si>
+    <t>This hotel was relatively new, after being partially converted from a Le Meridien.  Now, about half the rooms on a floor are an AC Hotel and the other half are still Le Meridien.  This is fairly confusing, and there isn't good signage outside the property.  Even within, I asked a couple of random employees what the difference was between them and never really got a good answer. The rooms are about the same and apparently the service and amenities are the same.  The only difference I could see is the rooms have different colors and and Le Meridien was about $20 more per night when I visited.
+Anyhow, the rooms were fairly small.  My full sized suitcase could not be opened on the little ledge in the room, and there was no separate suitcase stand either.  The closets are exposed, as are the sinks and bathrooms.  I understand from the website that this is "European style," but why would anyone want that in Denver where space is fairly plentiful?  
+Anyhow, the rooms were few, fresh, and well maintained.  My view from a corner was also nice. I also found every single person I spoke with to be friendly professional, and helpful (except for explaining the difference between the brands, but that's probably a training/branding issue that I don't fault them for).  In particular, the breakfast crew went above and beyond to get me a simple oatmeal each day, even though...This hotel was relatively new, after being partially converted from a Le Meridien.  Now, about half the rooms on a floor are an AC Hotel and the other half are still Le Meridien.  This is fairly confusing, and there isn't good signage outside the property.  Even within, I asked a couple of random employees what the difference was between them and never really got a good answer. The rooms are about the same and apparently the service and amenities are the same.  The only difference I could see is the rooms have different colors and and Le Meridien was about $20 more per night when I visited.Anyhow, the rooms were fairly small.  My full sized suitcase could not be opened on the little ledge in the room, and there was no separate suitcase stand either.  The closets are exposed, as are the sinks and bathrooms.  I understand from the website that this is "European style," but why would anyone want that in Denver where space is fairly plentiful?  Anyhow, the rooms were few, fresh, and well maintained.  My view from a corner was also nice. I also found every single person I spoke with to be friendly professional, and helpful (except for explaining the difference between the brands, but that's probably a training/branding issue that I don't fault them for).  In particular, the breakfast crew went above and beyond to get me a simple oatmeal each day, even though it wasn't officially offered.  Kudos to the staff!  Overall though, as nice as they were, the hotel just gets an "average" in my book.  Others from my group stayed at the Embassy Suites immediately diagonal from this building.  I got to see that it has rooms that are 2-3 times larger (really), include breakfast and free drinks at night, and are roughly the same price.  It's definitely not as new or trendy as this place, but there are definitely better values in the immediate area.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel was relatively new, after being partially converted from a Le Meridien.  Now, about half the rooms on a floor are an AC Hotel and the other half are still Le Meridien.  This is fairly confusing, and there isn't good signage outside the property.  Even within, I asked a couple of random employees what the difference was between them and never really got a good answer. The rooms are about the same and apparently the service and amenities are the same.  The only difference I could see is the rooms have different colors and and Le Meridien was about $20 more per night when I visited.
+Anyhow, the rooms were fairly small.  My full sized suitcase could not be opened on the little ledge in the room, and there was no separate suitcase stand either.  The closets are exposed, as are the sinks and bathrooms.  I understand from the website that this is "European style," but why would anyone want that in Denver where space is fairly plentiful?  
+Anyhow, the rooms were few, fresh, and well maintained.  My view from a corner was also nice. I also found every single person I spoke with to be friendly professional, and helpful (except for explaining the difference between the brands, but that's probably a training/branding issue that I don't fault them for).  In particular, the breakfast crew went above and beyond to get me a simple oatmeal each day, even though...This hotel was relatively new, after being partially converted from a Le Meridien.  Now, about half the rooms on a floor are an AC Hotel and the other half are still Le Meridien.  This is fairly confusing, and there isn't good signage outside the property.  Even within, I asked a couple of random employees what the difference was between them and never really got a good answer. The rooms are about the same and apparently the service and amenities are the same.  The only difference I could see is the rooms have different colors and and Le Meridien was about $20 more per night when I visited.Anyhow, the rooms were fairly small.  My full sized suitcase could not be opened on the little ledge in the room, and there was no separate suitcase stand either.  The closets are exposed, as are the sinks and bathrooms.  I understand from the website that this is "European style," but why would anyone want that in Denver where space is fairly plentiful?  Anyhow, the rooms were few, fresh, and well maintained.  My view from a corner was also nice. I also found every single person I spoke with to be friendly professional, and helpful (except for explaining the difference between the brands, but that's probably a training/branding issue that I don't fault them for).  In particular, the breakfast crew went above and beyond to get me a simple oatmeal each day, even though it wasn't officially offered.  Kudos to the staff!  Overall though, as nice as they were, the hotel just gets an "average" in my book.  Others from my group stayed at the Embassy Suites immediately diagonal from this building.  I got to see that it has rooms that are 2-3 times larger (really), include breakfast and free drinks at night, and are roughly the same price.  It's definitely not as new or trendy as this place, but there are definitely better values in the immediate area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r570501449-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>570501449</t>
+  </si>
+  <si>
+    <t>04/02/2018</t>
+  </si>
+  <si>
+    <t>Very cool hotel. Amazing staff. Great location. Will definitely return.</t>
+  </si>
+  <si>
+    <t>What a great experience at the AC Marriott Denver Downtown! The lobby and bar is gorgeous. The staff is super friendly, especially Aaron at the front desk who went above and beyond! Rooms are great and clean and have everything you could want including a coffee machine, which I personally love. Will definitely return.MoreShow less</t>
+  </si>
+  <si>
+    <t>What a great experience at the AC Marriott Denver Downtown! The lobby and bar is gorgeous. The staff is super friendly, especially Aaron at the front desk who went above and beyond! Rooms are great and clean and have everything you could want including a coffee machine, which I personally love. Will definitely return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r570438844-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>570438844</t>
+  </si>
+  <si>
+    <t>Great choice in Denver</t>
+  </si>
+  <si>
+    <t>Spent a long weekend at this property and thought it was really great.  Central location with most areas of interest in walking distance.  Clean modern with very professional and helpful staff.  The Hotel Bar has a Happy Hour most days. We had a brunch and dinner at Corrine which had really good food and service for fair pricing.   Unfortunately we were unable to visit the Roof Bar as it was closed for the Season.MoreShow less</t>
+  </si>
+  <si>
+    <t>Spent a long weekend at this property and thought it was really great.  Central location with most areas of interest in walking distance.  Clean modern with very professional and helpful staff.  The Hotel Bar has a Happy Hour most days. We had a brunch and dinner at Corrine which had really good food and service for fair pricing.   Unfortunately we were unable to visit the Roof Bar as it was closed for the Season.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r570277487-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>570277487</t>
+  </si>
+  <si>
+    <t>04/01/2018</t>
+  </si>
+  <si>
+    <t>Stylish New Hotel in Denver!</t>
+  </si>
+  <si>
+    <t>Quick weekend trip to Denver, so glad we picked AC Hotel. Love the welcoming Sangia and tapas in lobby bar, corner king had gorgeous view of city and mountains. Super sleek decor, soft bedding, and impeccably clean.  Phenomenal view from rooftop bar and fitness room. So close to downtown sites, sporting venues, restaurants, and light rail. MoreShow less</t>
+  </si>
+  <si>
+    <t>Quick weekend trip to Denver, so glad we picked AC Hotel. Love the welcoming Sangia and tapas in lobby bar, corner king had gorgeous view of city and mountains. Super sleek decor, soft bedding, and impeccably clean.  Phenomenal view from rooftop bar and fitness room. So close to downtown sites, sporting venues, restaurants, and light rail. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r568899846-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>568899846</t>
+  </si>
+  <si>
+    <t>03/26/2018</t>
+  </si>
+  <si>
+    <t>Terrific staff - great location</t>
+  </si>
+  <si>
+    <t>You have 2 hotels in 1 with this property with sister hotels occupying the same building, resulting in more bars, more restaurants and more place to just relax and chill.  Rooms are very good, modern, clean and comfortable.  Terrific location near theater and concert halls, restaurants, and convenient to the highway.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Laney W, Front Office Manager at AC Hotel Denver Downtown, responded to this reviewResponded March 29, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 29, 2018</t>
+  </si>
+  <si>
+    <t>You have 2 hotels in 1 with this property with sister hotels occupying the same building, resulting in more bars, more restaurants and more place to just relax and chill.  Rooms are very good, modern, clean and comfortable.  Terrific location near theater and concert halls, restaurants, and convenient to the highway.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r568883589-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>568883589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiny and disappointed </t>
+  </si>
+  <si>
+    <t>First room the sheets clearly were not changed. We moved rooms and again very suspect that sheets were not clean.  The room was decorated nicely but barely enough room for me and my wife to move around. Staff was friendly, but 50 bucks for valet and lack of amenities we will not be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>LMAC-HotelManager, Front Office Manager at AC Hotel Denver Downtown, responded to this reviewResponded March 30, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 30, 2018</t>
+  </si>
+  <si>
+    <t>First room the sheets clearly were not changed. We moved rooms and again very suspect that sheets were not clean.  The room was decorated nicely but barely enough room for me and my wife to move around. Staff was friendly, but 50 bucks for valet and lack of amenities we will not be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r568743202-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>568743202</t>
+  </si>
+  <si>
+    <t>03/25/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birthday visit to Denver </t>
+  </si>
+  <si>
+    <t>My husband and I live in Greeley, but have friends in Denver and because of the great restaurant scene here, I decided this is where I wanted to come for my birthday this year. Spent one night in the hotel and we were not pleased with our stay. As soon as we got to our room, we noticed hairs all over the sheets as well as yellow stains. We called and immediately were moved to another room only to find the same exact thing on the sheets. Decided to just suck it up and move on. The rooms are tiny, think NYC Times Square size. My other complaints are the extra fees. $45 to park the car... you almost have to do this because of lack of parking and traffic issues, $50 per night for my dog. $50 a night!!?? Just seems excessive to me. No vending machines and the only floor out of 20 is floor 2 to get ice. The shower door is poor design because when you open the door to get out (the room is so small that there’s no actual bathroom) water gets all over the floor that is too much for a towel mat to handle. Floor was drenched and a total mess. We usually stay at Hilton brand and we are definitely going back after this stay with the Marriott group. High dollar hotel with no amenities. The pros I can give are...My husband and I live in Greeley, but have friends in Denver and because of the great restaurant scene here, I decided this is where I wanted to come for my birthday this year. Spent one night in the hotel and we were not pleased with our stay. As soon as we got to our room, we noticed hairs all over the sheets as well as yellow stains. We called and immediately were moved to another room only to find the same exact thing on the sheets. Decided to just suck it up and move on. The rooms are tiny, think NYC Times Square size. My other complaints are the extra fees. $45 to park the car... you almost have to do this because of lack of parking and traffic issues, $50 per night for my dog. $50 a night!!?? Just seems excessive to me. No vending machines and the only floor out of 20 is floor 2 to get ice. The shower door is poor design because when you open the door to get out (the room is so small that there’s no actual bathroom) water gets all over the floor that is too much for a towel mat to handle. Floor was drenched and a total mess. We usually stay at Hilton brand and we are definitely going back after this stay with the Marriott group. High dollar hotel with no amenities. The pros I can give are the view and the super modern decor in the room. MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and I live in Greeley, but have friends in Denver and because of the great restaurant scene here, I decided this is where I wanted to come for my birthday this year. Spent one night in the hotel and we were not pleased with our stay. As soon as we got to our room, we noticed hairs all over the sheets as well as yellow stains. We called and immediately were moved to another room only to find the same exact thing on the sheets. Decided to just suck it up and move on. The rooms are tiny, think NYC Times Square size. My other complaints are the extra fees. $45 to park the car... you almost have to do this because of lack of parking and traffic issues, $50 per night for my dog. $50 a night!!?? Just seems excessive to me. No vending machines and the only floor out of 20 is floor 2 to get ice. The shower door is poor design because when you open the door to get out (the room is so small that there’s no actual bathroom) water gets all over the floor that is too much for a towel mat to handle. Floor was drenched and a total mess. We usually stay at Hilton brand and we are definitely going back after this stay with the Marriott group. High dollar hotel with no amenities. The pros I can give are...My husband and I live in Greeley, but have friends in Denver and because of the great restaurant scene here, I decided this is where I wanted to come for my birthday this year. Spent one night in the hotel and we were not pleased with our stay. As soon as we got to our room, we noticed hairs all over the sheets as well as yellow stains. We called and immediately were moved to another room only to find the same exact thing on the sheets. Decided to just suck it up and move on. The rooms are tiny, think NYC Times Square size. My other complaints are the extra fees. $45 to park the car... you almost have to do this because of lack of parking and traffic issues, $50 per night for my dog. $50 a night!!?? Just seems excessive to me. No vending machines and the only floor out of 20 is floor 2 to get ice. The shower door is poor design because when you open the door to get out (the room is so small that there’s no actual bathroom) water gets all over the floor that is too much for a towel mat to handle. Floor was drenched and a total mess. We usually stay at Hilton brand and we are definitely going back after this stay with the Marriott group. High dollar hotel with no amenities. The pros I can give are the view and the super modern decor in the room. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r567745839-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>567745839</t>
+  </si>
+  <si>
+    <t>03/20/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What a view!!!! </t>
+  </si>
+  <si>
+    <t>The hotel was spectacularly clean! The modern rooms are so stylish and comfortable. The restaurants were incredible, Corrinne has fabulous drinks and amazing food. Finally the view from the rooftop bar is breathtaking. Highly recommend this hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>LMAC-HotelManager, Front Office Manager at AC Hotel Denver Downtown, responded to this reviewResponded March 21, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 21, 2018</t>
+  </si>
+  <si>
+    <t>The hotel was spectacularly clean! The modern rooms are so stylish and comfortable. The restaurants were incredible, Corrinne has fabulous drinks and amazing food. Finally the view from the rooftop bar is breathtaking. Highly recommend this hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r567698748-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>567698748</t>
+  </si>
+  <si>
+    <t>Excellent Property</t>
+  </si>
+  <si>
+    <t>Great location, room and staff!  Will definitely return for another stay.  We had a tournament at the convention center and the hotel was only a 2 minute walk to the main hall.  Overall, had a great stay at a great property.MoreShow less</t>
+  </si>
+  <si>
+    <t>Great location, room and staff!  Will definitely return for another stay.  We had a tournament at the convention center and the hotel was only a 2 minute walk to the main hall.  Overall, had a great stay at a great property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r567374565-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>567374565</t>
+  </si>
+  <si>
+    <t>03/18/2018</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>I choose the hotel due to the European look that it had and location to the convention center. I was attending a conference there and it was less than a minute walk each day. The room was nice and clean. The only recommendation I would have for Housekeeping to to make sure the shower floor is clean. Mine had crumbs but that wasn't too bad. There was an issue that I had in my room when I returned from Dinner. A pipe broke and the Front Desk sent maintenance up right away. I wish I could remember the gentlemen's name but he very professional and kind. He got me a new room and it was a nice upgraded Suite. He also gave me chocolate in the shape of a hammer and ranch. The service is an A+ from front desk to maintenance. There is a nice little bar on the first floor where you can relax and enjoy a drink or seven with your friends. If given the chance I would stay at this hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>LMAC-HotelManager, Front Office Manager at AC Hotel Denver Downtown, responded to this reviewResponded March 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 20, 2018</t>
+  </si>
+  <si>
+    <t>I choose the hotel due to the European look that it had and location to the convention center. I was attending a conference there and it was less than a minute walk each day. The room was nice and clean. The only recommendation I would have for Housekeeping to to make sure the shower floor is clean. Mine had crumbs but that wasn't too bad. There was an issue that I had in my room when I returned from Dinner. A pipe broke and the Front Desk sent maintenance up right away. I wish I could remember the gentlemen's name but he very professional and kind. He got me a new room and it was a nice upgraded Suite. He also gave me chocolate in the shape of a hammer and ranch. The service is an A+ from front desk to maintenance. There is a nice little bar on the first floor where you can relax and enjoy a drink or seven with your friends. If given the chance I would stay at this hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r566650252-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>566650252</t>
+  </si>
+  <si>
+    <t>03/15/2018</t>
+  </si>
+  <si>
+    <t>Wonderful Marriott property</t>
+  </si>
+  <si>
+    <t>Loved my modern room, the atmosphere and the design of the lobby. The modern rooms are a lot smaller than the reg Marriott ones but a lot more inspiring. The location of this property is very convenient downtown Denver.MoreShow less</t>
+  </si>
+  <si>
+    <t>LMAC-HotelManager, Front Office Manager at AC Hotel Denver Downtown, responded to this reviewResponded March 16, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 16, 2018</t>
+  </si>
+  <si>
+    <t>Loved my modern room, the atmosphere and the design of the lobby. The modern rooms are a lot smaller than the reg Marriott ones but a lot more inspiring. The location of this property is very convenient downtown Denver.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r566607486-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>566607486</t>
+  </si>
+  <si>
+    <t>Great service</t>
+  </si>
+  <si>
+    <t>This marriott turned a missed flight to albuquerque meeting family into a spontaneous romantic getaway for my fiancee and I.Booked same day from out of state. Pete at the front desk was on shift late as we arrived {11:30pm}his service alone wins the 5 stars. The night valet after check-in was very personable and welcoming to us as new comers and made Denver even more inviting to two Texas guest's. Transitioning between front desk agents with regards to account information was easy and all working that day at Front(I spoke with Two helpful and pleasant ladies after 4 pm March 11th) both delivered above excellent customer service. Room was Spotless and had an untouched feel. We had planned on going out to explore Denver nightlife but it was so comfortable we didnt make it past the bed.(Sorry for asking for an extra towel Pete).Checkout next morning was fast and simple. 10 out of 10 would recommend and will stay againMoreShow less</t>
+  </si>
+  <si>
+    <t>This marriott turned a missed flight to albuquerque meeting family into a spontaneous romantic getaway for my fiancee and I.Booked same day from out of state. Pete at the front desk was on shift late as we arrived {11:30pm}his service alone wins the 5 stars. The night valet after check-in was very personable and welcoming to us as new comers and made Denver even more inviting to two Texas guest's. Transitioning between front desk agents with regards to account information was easy and all working that day at Front(I spoke with Two helpful and pleasant ladies after 4 pm March 11th) both delivered above excellent customer service. Room was Spotless and had an untouched feel. We had planned on going out to explore Denver nightlife but it was so comfortable we didnt make it past the bed.(Sorry for asking for an extra towel Pete).Checkout next morning was fast and simple. 10 out of 10 would recommend and will stay againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r566574868-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>566574868</t>
+  </si>
+  <si>
+    <t>03/14/2018</t>
+  </si>
+  <si>
+    <t>Great Service</t>
+  </si>
+  <si>
+    <t>The hotel was beautiful, the staff was incredibly accommodating, and the room was a reasonable price!  The location was walking distance to everything I needed downtown and the room’s city view was incredible.  I will stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel was beautiful, the staff was incredibly accommodating, and the room was a reasonable price!  The location was walking distance to everything I needed downtown and the room’s city view was incredible.  I will stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r566564771-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>566564771</t>
+  </si>
+  <si>
+    <t>Modern design, quiet and made for the modern workplace</t>
+  </si>
+  <si>
+    <t>Great art and decoration throughout the hotel, amazing staff, from valet to reception to housekeeping. Amazing location in downtown denver, close to shoppings and business centers. Great amenities and beautiful city views from the top floors.MoreShow less</t>
+  </si>
+  <si>
+    <t>Great art and decoration throughout the hotel, amazing staff, from valet to reception to housekeeping. Amazing location in downtown denver, close to shoppings and business centers. Great amenities and beautiful city views from the top floors.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r566563028-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>566563028</t>
+  </si>
+  <si>
+    <t>outstanding and great service!</t>
+  </si>
+  <si>
+    <t>i loved the hotel. It is in a great location and had everything i needed. People were super accomodating! Great gym and rooftop bar with fantastic views! Very cozy common areas and the connection to the Meridien was nice!MoreShow less</t>
+  </si>
+  <si>
+    <t>i loved the hotel. It is in a great location and had everything i needed. People were super accomodating! Great gym and rooftop bar with fantastic views! Very cozy common areas and the connection to the Meridien was nice!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r566241909-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>566241909</t>
+  </si>
+  <si>
+    <t>03/13/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimalist to the max </t>
+  </si>
+  <si>
+    <t>Small rooms with bathroom open to rest of room.  A door to toilet at least.  Super clean.  No carpets so never had the cozy feel.  Desk area (I guess?) Was too thin to really work comfortably.  Bed was pretty comfortable though.  Although they are going for European, they missed the breakfast included part.  Breakfast didn't open until 630 (We needed to leave at 7 for first meeting).  Then we get down there and breakfast opening is late, main items (croissants and sandwiches) were late in arriving and we were told cappuccino machine was broken.  A super disappointment for $15. And too late to find another option.  Front desk nice enough, but I would not stay again unless other options limited.MoreShow less</t>
+  </si>
+  <si>
+    <t>Small rooms with bathroom open to rest of room.  A door to toilet at least.  Super clean.  No carpets so never had the cozy feel.  Desk area (I guess?) Was too thin to really work comfortably.  Bed was pretty comfortable though.  Although they are going for European, they missed the breakfast included part.  Breakfast didn't open until 630 (We needed to leave at 7 for first meeting).  Then we get down there and breakfast opening is late, main items (croissants and sandwiches) were late in arriving and we were told cappuccino machine was broken.  A super disappointment for $15. And too late to find another option.  Front desk nice enough, but I would not stay again unless other options limited.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r565447596-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>565447596</t>
+  </si>
+  <si>
+    <t>03/09/2018</t>
+  </si>
+  <si>
+    <t>nice property</t>
+  </si>
+  <si>
+    <t>This hotel was new, clean and a great location for Downtown Denver.  It was one block from the 16th Mall.  The only concern is that the hotel rooms do not have drawers or closet to put clothing out of sight.  Other than that a great place to stayMoreShow less</t>
+  </si>
+  <si>
+    <t>LMAC-HotelManager, Front Office Manager at AC Hotel Denver Downtown, responded to this reviewResponded March 13, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 13, 2018</t>
+  </si>
+  <si>
+    <t>This hotel was new, clean and a great location for Downtown Denver.  It was one block from the 16th Mall.  The only concern is that the hotel rooms do not have drawers or closet to put clothing out of sight.  Other than that a great place to stayMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r565438326-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>565438326</t>
+  </si>
+  <si>
+    <t>business travel</t>
+  </si>
+  <si>
+    <t>great new hotel with clean rooms, great views, super friendly and helpful staff, walk to Larimer or convention center; don't like the breakfast menu due to limited offering and coffee machine not working - but other places close by; will definitly stay here when back on businessMoreShow less</t>
+  </si>
+  <si>
+    <t>great new hotel with clean rooms, great views, super friendly and helpful staff, walk to Larimer or convention center; don't like the breakfast menu due to limited offering and coffee machine not working - but other places close by; will definitly stay here when back on businessMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r565436664-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>565436664</t>
+  </si>
+  <si>
+    <t>NIRSA</t>
+  </si>
+  <si>
+    <t>excellent site; rooms were comfortable; fitness center was more than adequate; desk staff was friendly and more than accommodating. facility was clean, loved the modern furnishings, but i could have used more than one drawer in the room. MoreShow less</t>
+  </si>
+  <si>
+    <t>excellent site; rooms were comfortable; fitness center was more than adequate; desk staff was friendly and more than accommodating. facility was clean, loved the modern furnishings, but i could have used more than one drawer in the room. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r565338176-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>565338176</t>
+  </si>
+  <si>
+    <t>03/08/2018</t>
+  </si>
+  <si>
+    <t>Amazing staff!</t>
+  </si>
+  <si>
+    <t>We had a one night reservation since we flew into Denver before heading to Steamboat, and thanks to flight delays, didn't get in until 2 am.  In addition to that, one of my teenagers started to come down with strep and tonsilitis on our flight out, so by the time we checked in, he really wasn't feeling well.  The staff offered to go to the 7 11 for me and grab some gatorade for him and anything else we might need.  I also had our ski clothes shipped to the hotel before our arrival and they were there waiting on us.  The hotel is new and really nice, but the staff is amazing.  We will definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>We had a one night reservation since we flew into Denver before heading to Steamboat, and thanks to flight delays, didn't get in until 2 am.  In addition to that, one of my teenagers started to come down with strep and tonsilitis on our flight out, so by the time we checked in, he really wasn't feeling well.  The staff offered to go to the 7 11 for me and grab some gatorade for him and anything else we might need.  I also had our ski clothes shipped to the hotel before our arrival and they were there waiting on us.  The hotel is new and really nice, but the staff is amazing.  We will definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r564423018-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>564423018</t>
+  </si>
+  <si>
+    <t>03/04/2018</t>
+  </si>
+  <si>
+    <t>Brand new Top Shelf Chic Hotel in Lodo</t>
+  </si>
+  <si>
+    <t>What an awesome addition to the Denver market. Perfect location, fantastic room, with an outstanding view of downtown. Clean, well appointed, comfortable bed and linens and a fantastic walk in shower with rain head and frameless glass enclosure. Friendly staff, &amp; valet.MoreShow less</t>
+  </si>
+  <si>
+    <t>LMAC-HotelManager, Front Office Manager at AC Hotel Denver Downtown, responded to this reviewResponded March 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 5, 2018</t>
+  </si>
+  <si>
+    <t>What an awesome addition to the Denver market. Perfect location, fantastic room, with an outstanding view of downtown. Clean, well appointed, comfortable bed and linens and a fantastic walk in shower with rain head and frameless glass enclosure. Friendly staff, &amp; valet.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r563583880-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>563583880</t>
+  </si>
+  <si>
+    <t>03/01/2018</t>
+  </si>
+  <si>
+    <t>Has Potential.....Not Quite There Yet</t>
+  </si>
+  <si>
+    <t>This is a new hotel that is adjacent to the Le Meridian. It’s a modern property with stylish well appointed rooms. Very tastefully done - and the first property in recent memory that was well outfitted to the needs of the business traveller. Breakfast is a bit lacking - a sparse buffet. And there is no lounge., which is a mistake really for a property that feeds off the convention centre. Check in was a bit rough. I had a late arrival and the front door was locked....hmm. When I found my way in through a side door the front desk was unmanned - with a sign that says they will be back later. NOT what you want at 2:00am. When the clerk appears she said that the system was updating and we had to wait on check in. Then they could not clear my debit card.Not a great introduction. Am hopeful they will work it out....MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a new hotel that is adjacent to the Le Meridian. It’s a modern property with stylish well appointed rooms. Very tastefully done - and the first property in recent memory that was well outfitted to the needs of the business traveller. Breakfast is a bit lacking - a sparse buffet. And there is no lounge., which is a mistake really for a property that feeds off the convention centre. Check in was a bit rough. I had a late arrival and the front door was locked....hmm. When I found my way in through a side door the front desk was unmanned - with a sign that says they will be back later. NOT what you want at 2:00am. When the clerk appears she said that the system was updating and we had to wait on check in. Then they could not clear my debit card.Not a great introduction. Am hopeful they will work it out....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r555502998-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>555502998</t>
+  </si>
+  <si>
+    <t>01/22/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great location - great service - beautiful property </t>
+  </si>
+  <si>
+    <t>The hotel is located just one short block from the 16th St Mall. The lobby and bar areas are spacious and attractively decorated. The rooms are also very attractive and large enough. Some people describe the style as European - sleek lines, somewhat minimalist. The staff were friendly and helpful. The entire hotel, including our room, was spotless. As I mentioned earlier - the rooms are stylish, but have no storage space for unpacking on an extended trip. We had 1 issue during the stay, upon checkout we noticed a $45 erroneous charge for valet. Although this is a Marriott, there are few benefits for the elite members. We enjoyed our stay and would recommend this location. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>LeMeridienManager303, Front Office Manager at AC Hotel Denver Downtown, responded to this reviewResponded January 29, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 29, 2018</t>
+  </si>
+  <si>
+    <t>The hotel is located just one short block from the 16th St Mall. The lobby and bar areas are spacious and attractively decorated. The rooms are also very attractive and large enough. Some people describe the style as European - sleek lines, somewhat minimalist. The staff were friendly and helpful. The entire hotel, including our room, was spotless. As I mentioned earlier - the rooms are stylish, but have no storage space for unpacking on an extended trip. We had 1 issue during the stay, upon checkout we noticed a $45 erroneous charge for valet. Although this is a Marriott, there are few benefits for the elite members. We enjoyed our stay and would recommend this location. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r551750642-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>551750642</t>
+  </si>
+  <si>
+    <t>01/05/2018</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>Beautiful brand new hotel. Very nice room.  Great location - 1 block to the mall or the Convention Center. Great Views and reasonable restaurants. I want to come back in warmer weather and enjoy the rooftop amenities.  Highly recommendMoreShow less</t>
+  </si>
+  <si>
+    <t>LeMeridienManager303, Front Office Manager at AC Hotel Denver Downtown, responded to this reviewResponded January 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 9, 2018</t>
+  </si>
+  <si>
+    <t>Beautiful brand new hotel. Very nice room.  Great location - 1 block to the mall or the Convention Center. Great Views and reasonable restaurants. I want to come back in warmer weather and enjoy the rooftop amenities.  Highly recommendMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r549216917-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>549216917</t>
+  </si>
+  <si>
+    <t>12/25/2017</t>
+  </si>
+  <si>
+    <t>Nice Attempt But Falls Short</t>
+  </si>
+  <si>
+    <t>Lobby has the feel of an international hotel.  Rooms and service are just okay.  Upon arrival the room that I was given was “straightened up” but not cleaned. Bar staff was the highlight of the hotel. They provided the type of service you would expect at a higher end hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>LeMeridienManager303, Front Office Manager at AC Hotel Denver Downtown, responded to this reviewResponded December 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 26, 2017</t>
+  </si>
+  <si>
+    <t>Lobby has the feel of an international hotel.  Rooms and service are just okay.  Upon arrival the room that I was given was “straightened up” but not cleaned. Bar staff was the highlight of the hotel. They provided the type of service you would expect at a higher end hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r548458192-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>548458192</t>
+  </si>
+  <si>
+    <t>12/21/2017</t>
+  </si>
+  <si>
+    <t>AC Excellence (and a little Meridien to boot)...</t>
+  </si>
+  <si>
+    <t>Disclaimer - I love the new Marriott AC brand.  Clean, mode, elegant &amp; simple (add "fun" in as well)... So, using that as a starting point - This is now my favorite AC property to date.The staff is fun, knowledgable, helpful and clearly seem to enjoy their job (when THEY do, WE do...).  The property is unique (attached in a geometrically fun way to an SPG Meridien), situated in a perfect place for conventions and 16th street with great access to almost everything.The rooms are unique, fun, and set up really well.  Food in the restaurant (Corrine - technically on the Meridien side of the puzzle) was outstanding and also unique (can you say BLT deviled eggs, Pimiento Cheese and smoke Ham omelette?).Bottom line - As a Certified AC Lover, this is my favorite so far.  You could almost stay inside the whole time (...almost).A spectacular property...MoreShow less</t>
+  </si>
+  <si>
+    <t>LeMeridienManager303, Front Office Manager at AC Hotel Denver Downtown, responded to this reviewResponded December 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 24, 2017</t>
+  </si>
+  <si>
+    <t>Disclaimer - I love the new Marriott AC brand.  Clean, mode, elegant &amp; simple (add "fun" in as well)... So, using that as a starting point - This is now my favorite AC property to date.The staff is fun, knowledgable, helpful and clearly seem to enjoy their job (when THEY do, WE do...).  The property is unique (attached in a geometrically fun way to an SPG Meridien), situated in a perfect place for conventions and 16th street with great access to almost everything.The rooms are unique, fun, and set up really well.  Food in the restaurant (Corrine - technically on the Meridien side of the puzzle) was outstanding and also unique (can you say BLT deviled eggs, Pimiento Cheese and smoke Ham omelette?).Bottom line - As a Certified AC Lover, this is my favorite so far.  You could almost stay inside the whole time (...almost).A spectacular property...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r548215277-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>548215277</t>
+  </si>
+  <si>
+    <t>12/20/2017</t>
+  </si>
+  <si>
+    <t>Lady Gaga getaway</t>
+  </si>
+  <si>
+    <t>We came for a quick 2 day getaway to see Lady Gaga at the Pepsi Center.  This was a perfect location - close to everything.  A quick Uber ride to the Zoo and the concert.  Place was Super clean!-  friendly service.  Just what we needed!!MoreShow less</t>
+  </si>
+  <si>
+    <t>LeMeridienManager303, Front Office Manager at AC Hotel Denver Downtown, responded to this reviewResponded December 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 21, 2017</t>
+  </si>
+  <si>
+    <t>We came for a quick 2 day getaway to see Lady Gaga at the Pepsi Center.  This was a perfect location - close to everything.  A quick Uber ride to the Zoo and the concert.  Place was Super clean!-  friendly service.  Just what we needed!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r548075123-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>548075123</t>
+  </si>
+  <si>
+    <t>12/19/2017</t>
+  </si>
+  <si>
+    <t>Great staff, interesting hotel</t>
+  </si>
+  <si>
+    <t>After you find the place you are in for a nice stay, be  prepared for nicely appointed new furnishings in a Euro-style (i.e. compact) room with clean lines. The bed and pillows were quite comfy, I prefer a bit more room for a work desk, yet, I was here for leisure so it wasn't a problem. The bar is busy and has a trendy vibe. Good location near the Denver Performing Arts Center. I would stay here again for work or business, my boyfriend would not as the size of the room and furnishings did not meet his expectations. The staff, as I mentioned, were outstanding. MoreShow less</t>
+  </si>
+  <si>
+    <t>After you find the place you are in for a nice stay, be  prepared for nicely appointed new furnishings in a Euro-style (i.e. compact) room with clean lines. The bed and pillows were quite comfy, I prefer a bit more room for a work desk, yet, I was here for leisure so it wasn't a problem. The bar is busy and has a trendy vibe. Good location near the Denver Performing Arts Center. I would stay here again for work or business, my boyfriend would not as the size of the room and furnishings did not meet his expectations. The staff, as I mentioned, were outstanding. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r547591114-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>547591114</t>
+  </si>
+  <si>
+    <t>12/16/2017</t>
+  </si>
+  <si>
+    <t>great experience</t>
+  </si>
+  <si>
+    <t>Great atmosphere, very hip and trendy hotel in an excellent location for fine eateries and businesses as well.  European feel through and through, great beds, towels and pillows!  Walk down to Larimer Street for some very nice bars and restaurants.MoreShow less</t>
+  </si>
+  <si>
+    <t>LeMeridienManager303, Front Office Manager at AC Hotel Denver Downtown, responded to this reviewResponded December 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 18, 2017</t>
+  </si>
+  <si>
+    <t>Great atmosphere, very hip and trendy hotel in an excellent location for fine eateries and businesses as well.  European feel through and through, great beds, towels and pillows!  Walk down to Larimer Street for some very nice bars and restaurants.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r547232140-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>547232140</t>
+  </si>
+  <si>
+    <t>12/14/2017</t>
+  </si>
+  <si>
+    <t>Perfect Hotel for Engagement Weekend</t>
+  </si>
+  <si>
+    <t>My fiance and I came to the AC to celebrate our engagement. I called and told the hotel this and James at the front desk took my information down. When we arrived we checked into a beautiful room and were surprised to find a bottle of champagne and a congratulations note from James (nice touch). Aaron at the front desk helped us find vegan restaurants near by, and was extremely helpful. In fact the whole front desk staff was excellent. Chelsea and Chris were extremely friendly and hospitable, and Tanay was able to give us some excellent recommendations. for things to do in Denver. Checking out the art museum is a must. Vikrant (also front desk) was very helpful as well and a great dancer to boot. Overall this is a beautiful hotel, but the staff is what made the experience excellent.MoreShow less</t>
+  </si>
+  <si>
+    <t>LeMeridienManager303, Front Office Manager at AC Hotel Denver Downtown, responded to this reviewResponded December 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 15, 2017</t>
+  </si>
+  <si>
+    <t>My fiance and I came to the AC to celebrate our engagement. I called and told the hotel this and James at the front desk took my information down. When we arrived we checked into a beautiful room and were surprised to find a bottle of champagne and a congratulations note from James (nice touch). Aaron at the front desk helped us find vegan restaurants near by, and was extremely helpful. In fact the whole front desk staff was excellent. Chelsea and Chris were extremely friendly and hospitable, and Tanay was able to give us some excellent recommendations. for things to do in Denver. Checking out the art museum is a must. Vikrant (also front desk) was very helpful as well and a great dancer to boot. Overall this is a beautiful hotel, but the staff is what made the experience excellent.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r547196511-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>547196511</t>
+  </si>
+  <si>
+    <t>Very cramped, no benefits for Marriott Gold</t>
+  </si>
+  <si>
+    <t>We have stayed at AC Marriott before in Minnesota and it was nice so decided to stay here. The rooms were super cramped and bed was okay. Pillows were the soft mushy type that goes flat. People were nice but no Marriott gold rewards? I asked the front desk, I think her name was Rachel and she told me unfortunately this Marriott does not do free breakfast or free drink passes, or late checkout for Gold. This surprised me, I get a lot more for being a gold at a Hilton which is what we did. After our 2 night stay was up, went and stayed at the Hilton across the street and not only got late checkout and free breakfast every day, we also received drink passes for the next 3 days. I'd say this was pretty average for a nicer Marriott.MoreShow less</t>
+  </si>
+  <si>
+    <t>We have stayed at AC Marriott before in Minnesota and it was nice so decided to stay here. The rooms were super cramped and bed was okay. Pillows were the soft mushy type that goes flat. People were nice but no Marriott gold rewards? I asked the front desk, I think her name was Rachel and she told me unfortunately this Marriott does not do free breakfast or free drink passes, or late checkout for Gold. This surprised me, I get a lot more for being a gold at a Hilton which is what we did. After our 2 night stay was up, went and stayed at the Hilton across the street and not only got late checkout and free breakfast every day, we also received drink passes for the next 3 days. I'd say this was pretty average for a nicer Marriott.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r546811977-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>546811977</t>
+  </si>
+  <si>
+    <t>12/12/2017</t>
+  </si>
+  <si>
+    <t>Perfect Stay</t>
+  </si>
+  <si>
+    <t>We enjoyed our first stay at the AC and it will not be our last. It is a lovely hotel, new and modern. Our room was as we expected. Everyone at the hotel went above and beyond to make our stay perfect. The nicest staff overall that we have ever encountered. We love the close proximity of this hotel to all of the theater and concert venues. We shall return.MoreShow less</t>
+  </si>
+  <si>
+    <t>We enjoyed our first stay at the AC and it will not be our last. It is a lovely hotel, new and modern. Our room was as we expected. Everyone at the hotel went above and beyond to make our stay perfect. The nicest staff overall that we have ever encountered. We love the close proximity of this hotel to all of the theater and concert venues. We shall return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r546729585-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>546729585</t>
+  </si>
+  <si>
+    <t>12/11/2017</t>
+  </si>
+  <si>
+    <t>Great LOCATION</t>
+  </si>
+  <si>
+    <t>The front desk staff were very informative and pleasant. The room was very modern - europeon like. Beautiful shower. My grand daughter loved he golf ball soap. The bed was really comfortable. We walked everywhere down town. I would definitely stay here againMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>LeMeridienManager303, Front Office Manager at AC Hotel Denver Downtown, responded to this reviewResponded December 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 12, 2017</t>
+  </si>
+  <si>
+    <t>The front desk staff were very informative and pleasant. The room was very modern - europeon like. Beautiful shower. My grand daughter loved he golf ball soap. The bed was really comfortable. We walked everywhere down town. I would definitely stay here againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r546723871-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>546723871</t>
+  </si>
+  <si>
+    <t>Nice hotel, but lacking</t>
+  </si>
+  <si>
+    <t>This hotel is clearly of the trendy variety.  The lobby hops with pop music and the front desk is more like a podium.  The rooms are small, but nice in a techie type of way.  The bathroom sink and shower are not integrated like most bathrooms, the sink is out in the living area with little separation from the sleeping area.  Not normal, but a pretty cool setup.  The TVs were great, and typical Marriott smart TVs, which allowed me to watch Netflix right on my TV.  There wasn't much desk space in the room, so if you're planning on working from your home, forget it.  I was on the 17th floor, so my view overlooked the city, it was eh, ok.  The shades on the window were cool because they had a shade that allowed the light through, and a blackout shade that made the room very dark.
+The bed was not as comfortable as other Marriott hotels that I've stayed in, and 2 of the 4 nights I stayed it was very difficult to fall asleep. This may have been caused by the person staying in the room next door playing what sounded like calypso music until midnight.  The walls appeared to be very thin because you couldn't hear the music in the hallway.
+The gym is located on the 20th floor, and is smallish but has the standard hotel treadmills and dumbbells.  Definitely not an athlete's gym....This hotel is clearly of the trendy variety.  The lobby hops with pop music and the front desk is more like a podium.  The rooms are small, but nice in a techie type of way.  The bathroom sink and shower are not integrated like most bathrooms, the sink is out in the living area with little separation from the sleeping area.  Not normal, but a pretty cool setup.  The TVs were great, and typical Marriott smart TVs, which allowed me to watch Netflix right on my TV.  There wasn't much desk space in the room, so if you're planning on working from your home, forget it.  I was on the 17th floor, so my view overlooked the city, it was eh, ok.  The shades on the window were cool because they had a shade that allowed the light through, and a blackout shade that made the room very dark.The bed was not as comfortable as other Marriott hotels that I've stayed in, and 2 of the 4 nights I stayed it was very difficult to fall asleep. This may have been caused by the person staying in the room next door playing what sounded like calypso music until midnight.  The walls appeared to be very thin because you couldn't hear the music in the hallway.The gym is located on the 20th floor, and is smallish but has the standard hotel treadmills and dumbbells.  Definitely not an athlete's gym.  There is also an outside bar/lounge on the 20th floor right outside the gym, it was pretty cold during my stay so it was cold, but it looked like it would have been great if it was warm out.  The view from the lounge was outstanding.The thing that sealed the deal on not coming back here was the lack of a concierge.  Now I realize it is not advertised as having one, but this reservation was made for me by my company.  I'm a gold Marriott elite member, so having access to a lounge is key for me when staying at a Marriott.  But the worst part is that I didn't receive anything, no points, no coupons for the continental breakfast in the morning either.  The continental breakfast cost me $16 for a piece of breakfast quiche, coffee, and orange juice, not even close to worth it.  Very disappointing.The staff at the hotel was great, very friendly and approachable, but when I checked on Friday morning I noticed that despite the fact that I was checking out they tried to charge me for Friday night.  They corrected this when I brought it to their attention, but how does this happen?  My reservation was for Monday-Friday. My advice is check your bill closely at checkout, and stay elsewhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is clearly of the trendy variety.  The lobby hops with pop music and the front desk is more like a podium.  The rooms are small, but nice in a techie type of way.  The bathroom sink and shower are not integrated like most bathrooms, the sink is out in the living area with little separation from the sleeping area.  Not normal, but a pretty cool setup.  The TVs were great, and typical Marriott smart TVs, which allowed me to watch Netflix right on my TV.  There wasn't much desk space in the room, so if you're planning on working from your home, forget it.  I was on the 17th floor, so my view overlooked the city, it was eh, ok.  The shades on the window were cool because they had a shade that allowed the light through, and a blackout shade that made the room very dark.
+The bed was not as comfortable as other Marriott hotels that I've stayed in, and 2 of the 4 nights I stayed it was very difficult to fall asleep. This may have been caused by the person staying in the room next door playing what sounded like calypso music until midnight.  The walls appeared to be very thin because you couldn't hear the music in the hallway.
+The gym is located on the 20th floor, and is smallish but has the standard hotel treadmills and dumbbells.  Definitely not an athlete's gym....This hotel is clearly of the trendy variety.  The lobby hops with pop music and the front desk is more like a podium.  The rooms are small, but nice in a techie type of way.  The bathroom sink and shower are not integrated like most bathrooms, the sink is out in the living area with little separation from the sleeping area.  Not normal, but a pretty cool setup.  The TVs were great, and typical Marriott smart TVs, which allowed me to watch Netflix right on my TV.  There wasn't much desk space in the room, so if you're planning on working from your home, forget it.  I was on the 17th floor, so my view overlooked the city, it was eh, ok.  The shades on the window were cool because they had a shade that allowed the light through, and a blackout shade that made the room very dark.The bed was not as comfortable as other Marriott hotels that I've stayed in, and 2 of the 4 nights I stayed it was very difficult to fall asleep. This may have been caused by the person staying in the room next door playing what sounded like calypso music until midnight.  The walls appeared to be very thin because you couldn't hear the music in the hallway.The gym is located on the 20th floor, and is smallish but has the standard hotel treadmills and dumbbells.  Definitely not an athlete's gym.  There is also an outside bar/lounge on the 20th floor right outside the gym, it was pretty cold during my stay so it was cold, but it looked like it would have been great if it was warm out.  The view from the lounge was outstanding.The thing that sealed the deal on not coming back here was the lack of a concierge.  Now I realize it is not advertised as having one, but this reservation was made for me by my company.  I'm a gold Marriott elite member, so having access to a lounge is key for me when staying at a Marriott.  But the worst part is that I didn't receive anything, no points, no coupons for the continental breakfast in the morning either.  The continental breakfast cost me $16 for a piece of breakfast quiche, coffee, and orange juice, not even close to worth it.  Very disappointing.The staff at the hotel was great, very friendly and approachable, but when I checked on Friday morning I noticed that despite the fact that I was checking out they tried to charge me for Friday night.  They corrected this when I brought it to their attention, but how does this happen?  My reservation was for Monday-Friday. My advice is check your bill closely at checkout, and stay elsewhere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r546500888-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>546500888</t>
+  </si>
+  <si>
+    <t>12/10/2017</t>
+  </si>
+  <si>
+    <t>Comfortable modern</t>
+  </si>
+  <si>
+    <t>The employees were great! I was sitting waiting on a friend to pick me up in the lobby/ bar area &amp; an employee came over to hand me a water and a drink ticket to enjoy while waiting. The room also had an amazing viewMoreShow less</t>
+  </si>
+  <si>
+    <t>LeMeridienManager303, Front Office Manager at AC Hotel Denver Downtown, responded to this reviewResponded December 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 11, 2017</t>
+  </si>
+  <si>
+    <t>The employees were great! I was sitting waiting on a friend to pick me up in the lobby/ bar area &amp; an employee came over to hand me a water and a drink ticket to enjoy while waiting. The room also had an amazing viewMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r546484810-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>546484810</t>
+  </si>
+  <si>
+    <t>Great Value - Downtown Denver</t>
+  </si>
+  <si>
+    <t>Nice contemporary style hotel with a great location in downtown Denver.  Within walking distance to shopping, restaurants and museums.  Nice clean, comfortable rooms.  Friendly staff.  Recommended for a weekend getaway.MoreShow less</t>
+  </si>
+  <si>
+    <t>Nice contemporary style hotel with a great location in downtown Denver.  Within walking distance to shopping, restaurants and museums.  Nice clean, comfortable rooms.  Friendly staff.  Recommended for a weekend getaway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r546480080-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>546480080</t>
+  </si>
+  <si>
+    <t>Nice place</t>
+  </si>
+  <si>
+    <t>The hotel and staff were very nice. The location is fantastic. We were able to walk to the performing arts center. I missed not having a M lounge. The hotel is very modern and beautifully decorated. There is a parking lot across the street, but valet parking is really the only viable option. The valet parking is also quite expensive at $45.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel and staff were very nice. The location is fantastic. We were able to walk to the performing arts center. I missed not having a M lounge. The hotel is very modern and beautifully decorated. There is a parking lot across the street, but valet parking is really the only viable option. The valet parking is also quite expensive at $45.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r546094310-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>546094310</t>
+  </si>
+  <si>
+    <t>12/08/2017</t>
+  </si>
+  <si>
+    <t>Glorious Contemporary Option</t>
+  </si>
+  <si>
+    <t>Beautiful contemporary styled hotel option one block from the Convention Center, two blocks from the Performing Arts Complex, and one block from the 16th Street Mall and Denver Pavilions.  Staff was unbelievably friendly and provided great assistance after 11pm during our stay.  Rooms are small but very elegant with amazing views on upper floors (ours was NE-facing on 15th St on 17th floor).  Mattress was firm as desired and woke up without back-aches or pains (common for me).  Highly recommend (now my preferred downtown hotel option in Denver)!  Wish the roof top bar was open in the winter.MoreShow less</t>
+  </si>
+  <si>
+    <t>LeMeridienManager303, Director of Sales at AC Hotel Denver Downtown, responded to this reviewResponded December 11, 2017</t>
+  </si>
+  <si>
+    <t>Beautiful contemporary styled hotel option one block from the Convention Center, two blocks from the Performing Arts Complex, and one block from the 16th Street Mall and Denver Pavilions.  Staff was unbelievably friendly and provided great assistance after 11pm during our stay.  Rooms are small but very elegant with amazing views on upper floors (ours was NE-facing on 15th St on 17th floor).  Mattress was firm as desired and woke up without back-aches or pains (common for me).  Highly recommend (now my preferred downtown hotel option in Denver)!  Wish the roof top bar was open in the winter.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r545662995-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>545662995</t>
+  </si>
+  <si>
+    <t>12/06/2017</t>
+  </si>
+  <si>
+    <t>Quick trip</t>
+  </si>
+  <si>
+    <t>Chris at the front desk was amazing.    I would stay there again just because of Chris.    The room was comfortable TV amazing   I loved the Netflix option.    But again Chris at the front desk offered so many great options MoreShow less</t>
+  </si>
+  <si>
+    <t>LeMeridienManager303, Front Office Manager at AC Hotel Denver Downtown, responded to this reviewResponded December 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 8, 2017</t>
+  </si>
+  <si>
+    <t>Chris at the front desk was amazing.    I would stay there again just because of Chris.    The room was comfortable TV amazing   I loved the Netflix option.    But again Chris at the front desk offered so many great options More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r545657082-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>545657082</t>
+  </si>
+  <si>
+    <t>Awesome staff and front row view of parade!</t>
+  </si>
+  <si>
+    <t>Great place for viewing the Parade of Lights! Excellent service from Kendra the bartender with mulled wine and atmosphere were perfect on an unseasonably warm holiday evening as the parade traveled by just outside. Sean was very accommodating for our group as we waited for the parade and enjoyed our wine while Laney at the front desk is just a hoot! I'll definitely be coming back to this hotel next year for the downtown festivities!MoreShow less</t>
+  </si>
+  <si>
+    <t>Great place for viewing the Parade of Lights! Excellent service from Kendra the bartender with mulled wine and atmosphere were perfect on an unseasonably warm holiday evening as the parade traveled by just outside. Sean was very accommodating for our group as we waited for the parade and enjoyed our wine while Laney at the front desk is just a hoot! I'll definitely be coming back to this hotel next year for the downtown festivities!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r544612714-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>544612714</t>
+  </si>
+  <si>
+    <t>12/02/2017</t>
+  </si>
+  <si>
+    <t>Cool Mid Mod Hotel in Downtown</t>
+  </si>
+  <si>
+    <t>Super cool decor, 5pm free sangria!, friendly staff. Nice quiet bar with great small plates. Dane and Kendra were friendly and knowledgeable!  Make sure you go see the other half of the hotel… The art is amazing!MoreShow less</t>
+  </si>
+  <si>
+    <t>Super cool decor, 5pm free sangria!, friendly staff. Nice quiet bar with great small plates. Dane and Kendra were friendly and knowledgeable!  Make sure you go see the other half of the hotel… The art is amazing!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r544488667-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>544488667</t>
+  </si>
+  <si>
+    <t>12/01/2017</t>
+  </si>
+  <si>
+    <t>Welcoming arrival</t>
+  </si>
+  <si>
+    <t>My arrival in the AC Hotel lobby was tranquil (or tranquilo as they say in Spain). Subtle and inviting; Low lighting with a welcoming lounge adjacent to the desk. The bartender suggested I try the ACGT cocktail or signature gin cocktail featured in the lounge. I chose the Signature Lounge Cocktail and was delighted. Perfectly mixed with friendly conversation, this is the place I suggest to unwind and enjoy the scenery after a long day. Just what I needed for a good night's rest.MoreShow less</t>
+  </si>
+  <si>
+    <t>My arrival in the AC Hotel lobby was tranquil (or tranquilo as they say in Spain). Subtle and inviting; Low lighting with a welcoming lounge adjacent to the desk. The bartender suggested I try the ACGT cocktail or signature gin cocktail featured in the lounge. I chose the Signature Lounge Cocktail and was delighted. Perfectly mixed with friendly conversation, this is the place I suggest to unwind and enjoy the scenery after a long day. Just what I needed for a good night's rest.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r544296776-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>544296776</t>
+  </si>
+  <si>
+    <t>11/30/2017</t>
+  </si>
+  <si>
+    <t>New Mexico Traveler</t>
+  </si>
+  <si>
+    <t>Amazing Modern Hotel. We loved every minute we were in the room. The staff was extremely friendly and did not seem rushed. It was a very relaxing and a calming environment. Even when we asked for Mustard late at night, we were met with great hospitality! I would recommend this Hotel for couples, great shopping, bars, nightlife all within walking distance. Shower was amazing! Windows were extremely were awesome to enjoy the Downtown views.MoreShow less</t>
+  </si>
+  <si>
+    <t>Amazing Modern Hotel. We loved every minute we were in the room. The staff was extremely friendly and did not seem rushed. It was a very relaxing and a calming environment. Even when we asked for Mustard late at night, we were met with great hospitality! I would recommend this Hotel for couples, great shopping, bars, nightlife all within walking distance. Shower was amazing! Windows were extremely were awesome to enjoy the Downtown views.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r540084053-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>540084053</t>
+  </si>
+  <si>
+    <t>11/10/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best experience </t>
+  </si>
+  <si>
+    <t>This hotel is a beautiful venue and the rooms have a wonderful European feel.  The service was spectacular and top notch in hospitality.  Loved everything from the moment I walked in the door.  The room was elegant and the bathroom was spa inspired.MoreShow less</t>
+  </si>
+  <si>
+    <t>LeMeridienManager303, Front Office Manager at AC Hotel Denver Downtown, responded to this reviewResponded November 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 11, 2017</t>
+  </si>
+  <si>
+    <t>This hotel is a beautiful venue and the rooms have a wonderful European feel.  The service was spectacular and top notch in hospitality.  Loved everything from the moment I walked in the door.  The room was elegant and the bathroom was spa inspired.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r540083931-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>540083931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great trip. Staff is amazing </t>
+  </si>
+  <si>
+    <t>We stayed on a Thursday night and the staff were welcoming and accommodating from start to finish.  From the moment we arrived at the hotel valet greeted us with a smile and offered to assist with any of our needs. Every member of the staff were happy to assist with our request.  Beautiful brand new property.  There are a lot of food and beverage options available.  MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed on a Thursday night and the staff were welcoming and accommodating from start to finish.  From the moment we arrived at the hotel valet greeted us with a smile and offered to assist with any of our needs. Every member of the staff were happy to assist with our request.  Beautiful brand new property.  There are a lot of food and beverage options available.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r539582351-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>539582351</t>
+  </si>
+  <si>
+    <t>11/08/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very small for price </t>
+  </si>
+  <si>
+    <t>Very disappointed. First of all, there is no privacy! It’s like staying in an RV and for $500 a night! The location was very convenient, walking distance to 16th street which has shopping and multiple places to grab a bite to eat. MoreShow less</t>
+  </si>
+  <si>
+    <t>Very disappointed. First of all, there is no privacy! It’s like staying in an RV and for $500 a night! The location was very convenient, walking distance to 16th street which has shopping and multiple places to grab a bite to eat. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r538385155-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>538385155</t>
+  </si>
+  <si>
+    <t>11/04/2017</t>
+  </si>
+  <si>
+    <t>Pros and Cons</t>
+  </si>
+  <si>
+    <t>Pros: check in and out was easy and efficient, location convenient to convention center, sleek modern design, spotlessly clean, quiet.Cons: no dresser or storage in room- 2 people living out of suitcases for 5 days is tedious, no wall between bed area and sink- if one person has to get up early the whole room is lit up, and there is not a moment of privacy. Signage outside the hotel is impossible to see from a car, cab drivers, Uber and friends drove around the block endlessly searching for us.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded November 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 7, 2017</t>
+  </si>
+  <si>
+    <t>Pros: check in and out was easy and efficient, location convenient to convention center, sleek modern design, spotlessly clean, quiet.Cons: no dresser or storage in room- 2 people living out of suitcases for 5 days is tedious, no wall between bed area and sink- if one person has to get up early the whole room is lit up, and there is not a moment of privacy. Signage outside the hotel is impossible to see from a car, cab drivers, Uber and friends drove around the block endlessly searching for us.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r536703174-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>536703174</t>
+  </si>
+  <si>
+    <t>10/28/2017</t>
+  </si>
+  <si>
+    <t>New yet average</t>
+  </si>
+  <si>
+    <t>Staff was friendly and welcoming.  Location is great, close to the convention center. Rooms are very small. Room service menu was limited. "City view" is a spectacular view of the nearby building roofs.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded October 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 31, 2017</t>
+  </si>
+  <si>
+    <t>Staff was friendly and welcoming.  Location is great, close to the convention center. Rooms are very small. Room service menu was limited. "City view" is a spectacular view of the nearby building roofs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r536012119-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>536012119</t>
+  </si>
+  <si>
+    <t>10/25/2017</t>
+  </si>
+  <si>
+    <t>European-style, excellent service. Rooftop lounge has amazing views!</t>
+  </si>
+  <si>
+    <t>Stayed 4 days during a recent business trip. Check-in was quick and front desk staff were quite welcoming. The room itself is modern and has a minimalist feel. Don't expect a large dresser or closet because they don't have them. There's roughly six hangars and one small drawer to stow things. The room itself is nicely appointed. Very comfortable bed. Modern shower (overhead rain shower head). One big plus is the rooftop lounge. Incredible views of downtown Denver and the Rocky Mountains in the distance. Nice selection of beers, wine and cocktails. The bar off from the lobby is a comfortable area as well. This hotel is connected to the Le Meridien hotel, and I had breakfast at the restaurant there everyday (Corrine). If you're working at the convention center this hotel is a very short walk away, and is in a very convenient location. Recommend this hotel and would gladly stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded October 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 26, 2017</t>
+  </si>
+  <si>
+    <t>Stayed 4 days during a recent business trip. Check-in was quick and front desk staff were quite welcoming. The room itself is modern and has a minimalist feel. Don't expect a large dresser or closet because they don't have them. There's roughly six hangars and one small drawer to stow things. The room itself is nicely appointed. Very comfortable bed. Modern shower (overhead rain shower head). One big plus is the rooftop lounge. Incredible views of downtown Denver and the Rocky Mountains in the distance. Nice selection of beers, wine and cocktails. The bar off from the lobby is a comfortable area as well. This hotel is connected to the Le Meridien hotel, and I had breakfast at the restaurant there everyday (Corrine). If you're working at the convention center this hotel is a very short walk away, and is in a very convenient location. Recommend this hotel and would gladly stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r535560709-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>535560709</t>
+  </si>
+  <si>
+    <t>10/23/2017</t>
+  </si>
+  <si>
+    <t>Modern yet Sparce</t>
+  </si>
+  <si>
+    <t>We found staff very friendly and willing to assist at all times. The bar and cocktails are definitely a highlight - some great mixology. Breakfast is minimal, however AC and the hotel next door (same building) have an agreement that allows you to dine, drink and enjoy yourself at either and still charge to your own room.Into the roomskwMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded October 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 25, 2017</t>
+  </si>
+  <si>
+    <t>We found staff very friendly and willing to assist at all times. The bar and cocktails are definitely a highlight - some great mixology. Breakfast is minimal, however AC and the hotel next door (same building) have an agreement that allows you to dine, drink and enjoy yourself at either and still charge to your own room.Into the roomskwMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r534170114-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>534170114</t>
+  </si>
+  <si>
+    <t>10/18/2017</t>
+  </si>
+  <si>
+    <t>Fresh Hotel in Downtown</t>
+  </si>
+  <si>
+    <t>This new hotel is a welcome addition to a vibrant city center.  It is a combination AC and La Meridian- providing a lot of choices in food and atmosphere. Super comfortable and excellent service. One morning it had turned very cold and I was not prepared for the walk to meet colleagues to leave for the airport.  Andy offered to drive me before the official valet service was available.  A big thank you to Andy !MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded October 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 19, 2017</t>
+  </si>
+  <si>
+    <t>This new hotel is a welcome addition to a vibrant city center.  It is a combination AC and La Meridian- providing a lot of choices in food and atmosphere. Super comfortable and excellent service. One morning it had turned very cold and I was not prepared for the walk to meet colleagues to leave for the airport.  Andy offered to drive me before the official valet service was available.  A big thank you to Andy !More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r534167478-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>534167478</t>
+  </si>
+  <si>
+    <t>Staycation</t>
+  </si>
+  <si>
+    <t>The hotel was nice, but the price was more than it should be. These rooms should be more in the $150-$200 range. It’s European/boutique style, be prepared for a smaller room. The rooftop bar is a great view. However, go early as it is a local trendy hangout and can get pretty loud. We did not eat in the restaurant, but did have drinks at the bar. The staff was friendly and attentive. It was overall a nice stay just not at the price-point it should be. MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel was nice, but the price was more than it should be. These rooms should be more in the $150-$200 range. It’s European/boutique style, be prepared for a smaller room. The rooftop bar is a great view. However, go early as it is a local trendy hangout and can get pretty loud. We did not eat in the restaurant, but did have drinks at the bar. The staff was friendly and attentive. It was overall a nice stay just not at the price-point it should be. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r532644480-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>532644480</t>
+  </si>
+  <si>
+    <t>10/13/2017</t>
+  </si>
+  <si>
+    <t>Exceptional service in a stylish and comfortable hotel</t>
+  </si>
+  <si>
+    <t>My colleagues and I choose the AC for its reasonable price and good location in downtown Denver, walking distance to the meetings we were having.  Both the interior and the rooms have a slick contemporary design.  But it was the hotel staff which was really great.  The front desk workers fielded frantic calls from me when at the airport to go home I realized I had left my bag.  And then additional calls after I had missed my flight and needed to come back and stay an extra night.  The staff could not have been more helpful and accommodating.  Plus a very good lounge area for evening drinks and bites, morning breakfast.  And a rooftop bar that was quite a scene, with views to the mountains.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded October 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 14, 2017</t>
+  </si>
+  <si>
+    <t>My colleagues and I choose the AC for its reasonable price and good location in downtown Denver, walking distance to the meetings we were having.  Both the interior and the rooms have a slick contemporary design.  But it was the hotel staff which was really great.  The front desk workers fielded frantic calls from me when at the airport to go home I realized I had left my bag.  And then additional calls after I had missed my flight and needed to come back and stay an extra night.  The staff could not have been more helpful and accommodating.  Plus a very good lounge area for evening drinks and bites, morning breakfast.  And a rooftop bar that was quite a scene, with views to the mountains.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r532640864-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>532640864</t>
+  </si>
+  <si>
+    <t>Great hotel with a great vibe</t>
+  </si>
+  <si>
+    <t>This place was a trendy hotel that has very kind staff that treat you well. The location is in the heart of downtown and close to everything. Their rooftop patio rocks! Since the AC HOTEL is attached to the Last Merridien hotel, it gives you double the options in terms of restaurant/lounges and the atmosphere is awesome.  A must stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded October 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 16, 2017</t>
+  </si>
+  <si>
+    <t>This place was a trendy hotel that has very kind staff that treat you well. The location is in the heart of downtown and close to everything. Their rooftop patio rocks! Since the AC HOTEL is attached to the Last Merridien hotel, it gives you double the options in terms of restaurant/lounges and the atmosphere is awesome.  A must stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r532474170-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>532474170</t>
+  </si>
+  <si>
+    <t>10/12/2017</t>
+  </si>
+  <si>
+    <t>Maybe a little too hip, but convenient to the Convention Center</t>
+  </si>
+  <si>
+    <t>We stayed here for the GABF.  It was around the corner from the convention center which made everything very easy.  Only a block from the main pedestrian street on 16th Street, it was easy to get to food.  The freedom bus goes up and down 16th start, so you can get to the Larimar Square and Union Station easily. The room was very nice, and we really liked the internet TV.  The "bathroom" was a little weird. The shower and toilet were in separate closets, but the sink area was out in the open.  Just a little different.  Overall, a nice place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here for the GABF.  It was around the corner from the convention center which made everything very easy.  Only a block from the main pedestrian street on 16th Street, it was easy to get to food.  The freedom bus goes up and down 16th start, so you can get to the Larimar Square and Union Station easily. The room was very nice, and we really liked the internet TV.  The "bathroom" was a little weird. The shower and toilet were in separate closets, but the sink area was out in the open.  Just a little different.  Overall, a nice place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r528131006-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>528131006</t>
+  </si>
+  <si>
+    <t>09/28/2017</t>
+  </si>
+  <si>
+    <t>Don't Waste Your Time (or money)</t>
+  </si>
+  <si>
+    <t>I'll caveat this review with the fact that they just opened up 2 weeks ago so their inexperience could be a factor. Starting off small, breakfast is a joke.  The selection is small and the "hot items" are warm at best.  Coffee, the first few days they had a couple coffee pots out that were always empty or full of coffee grounds.  They have a coffee machine also, but sometimes you just want a cup of coffee and not some french concoction! 
+Second are the rooms.  For what they are charging here a night (The Ritz was cheaper), I was expecting much more.  The room is clean and of standard size. The closet is nothing more than a rack to hang a few shirts, but they've packed it with a small safe and a coffee machine, thus making the closet only half as useful.  
+Third, no one here seems to know how to run a hotel.  Using my high tech paper "do not disturb" sign should be enough to not be disturbed you'd think... Wrong! My door was knocked on constantly from 8am-2pm, and even entered by two different people, once while I was trying to sleep, and once while i was in the shower.  This was all in the same day. This is unacceptable.  I made a single reservation on their website, but somehow they lost it.  They tried blaming me asking if I had changed it or extended...I'll caveat this review with the fact that they just opened up 2 weeks ago so their inexperience could be a factor. Starting off small, breakfast is a joke.  The selection is small and the "hot items" are warm at best.  Coffee, the first few days they had a couple coffee pots out that were always empty or full of coffee grounds.  They have a coffee machine also, but sometimes you just want a cup of coffee and not some french concoction! Second are the rooms.  For what they are charging here a night (The Ritz was cheaper), I was expecting much more.  The room is clean and of standard size. The closet is nothing more than a rack to hang a few shirts, but they've packed it with a small safe and a coffee machine, thus making the closet only half as useful.  Third, no one here seems to know how to run a hotel.  Using my high tech paper "do not disturb" sign should be enough to not be disturbed you'd think... Wrong! My door was knocked on constantly from 8am-2pm, and even entered by two different people, once while I was trying to sleep, and once while i was in the shower.  This was all in the same day. This is unacceptable.  I made a single reservation on their website, but somehow they lost it.  They tried blaming me asking if I had changed it or extended it (which I did not).I talked to the hotel manager who took my concerns seriously but offered nothing to make up for this lackluster experience.  For $500 a night I am disappointed to say the least.MoreShow less</t>
+  </si>
+  <si>
+    <t>Alexander L, Manager at AC Hotel Denver Downtown, responded to this reviewResponded October 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 5, 2017</t>
+  </si>
+  <si>
+    <t>I'll caveat this review with the fact that they just opened up 2 weeks ago so their inexperience could be a factor. Starting off small, breakfast is a joke.  The selection is small and the "hot items" are warm at best.  Coffee, the first few days they had a couple coffee pots out that were always empty or full of coffee grounds.  They have a coffee machine also, but sometimes you just want a cup of coffee and not some french concoction! 
+Second are the rooms.  For what they are charging here a night (The Ritz was cheaper), I was expecting much more.  The room is clean and of standard size. The closet is nothing more than a rack to hang a few shirts, but they've packed it with a small safe and a coffee machine, thus making the closet only half as useful.  
+Third, no one here seems to know how to run a hotel.  Using my high tech paper "do not disturb" sign should be enough to not be disturbed you'd think... Wrong! My door was knocked on constantly from 8am-2pm, and even entered by two different people, once while I was trying to sleep, and once while i was in the shower.  This was all in the same day. This is unacceptable.  I made a single reservation on their website, but somehow they lost it.  They tried blaming me asking if I had changed it or extended...I'll caveat this review with the fact that they just opened up 2 weeks ago so their inexperience could be a factor. Starting off small, breakfast is a joke.  The selection is small and the "hot items" are warm at best.  Coffee, the first few days they had a couple coffee pots out that were always empty or full of coffee grounds.  They have a coffee machine also, but sometimes you just want a cup of coffee and not some french concoction! Second are the rooms.  For what they are charging here a night (The Ritz was cheaper), I was expecting much more.  The room is clean and of standard size. The closet is nothing more than a rack to hang a few shirts, but they've packed it with a small safe and a coffee machine, thus making the closet only half as useful.  Third, no one here seems to know how to run a hotel.  Using my high tech paper "do not disturb" sign should be enough to not be disturbed you'd think... Wrong! My door was knocked on constantly from 8am-2pm, and even entered by two different people, once while I was trying to sleep, and once while i was in the shower.  This was all in the same day. This is unacceptable.  I made a single reservation on their website, but somehow they lost it.  They tried blaming me asking if I had changed it or extended it (which I did not).I talked to the hotel manager who took my concerns seriously but offered nothing to make up for this lackluster experience.  For $500 a night I am disappointed to say the least.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r527556643-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>527556643</t>
+  </si>
+  <si>
+    <t>09/26/2017</t>
+  </si>
+  <si>
+    <t>Beautiful Brand New Hotel in a Great Location</t>
+  </si>
+  <si>
+    <t>The AC is in a great location for a Rockies or Broncos game. Close enough to Coors Field and a short Uber ride to Mile High. Great place for a weekend get-away for couples or boy/girlfriends trip. There are a ton of great restaurants, bars, and shopping in the area. 
+The hotel room was cozy, clean and comfortable. The bathroom is small without a lot of privacy, but the shower is big with two shower heads.  Probably not ideal if you are sharing a room with someone besides your spouse. The rooftop bar is amazing, but very busy with a young crowd. Too crowded and crazy for us 40 year olds. 
+Front staff was amazing with restaurant and bar suggestions. We were always greeted when we came or went.
+Restaurants/bars that I would recommend: Great bars for watching football-Henry's Tavern, Jacksons (offers free shuttle to Mile High), View House, Tap 14. Great breakfast-Sam's No 3 and Urban Legend. Coffee shop-Ink. Great beer bar-Woods Boss (beer flights), Wine bar-1515. Capitol Grille was a great last-night dinner as we needed some healthy food after our long weekend. Capitol Grille never disappoints.
+I would suggest taking the train from the airport as it drops you off right behind the AC. It's a quick 35 minute ride. You do not need a car in this location as Uber is easily accessible.  Also the rental car locations are not right at the airport so you...The AC is in a great location for a Rockies or Broncos game. Close enough to Coors Field and a short Uber ride to Mile High. Great place for a weekend get-away for couples or boy/girlfriends trip. There are a ton of great restaurants, bars, and shopping in the area. The hotel room was cozy, clean and comfortable. The bathroom is small without a lot of privacy, but the shower is big with two shower heads.  Probably not ideal if you are sharing a room with someone besides your spouse. The rooftop bar is amazing, but very busy with a young crowd. Too crowded and crazy for us 40 year olds. Front staff was amazing with restaurant and bar suggestions. We were always greeted when we came or went.Restaurants/bars that I would recommend: Great bars for watching football-Henry's Tavern, Jacksons (offers free shuttle to Mile High), View House, Tap 14. Great breakfast-Sam's No 3 and Urban Legend. Coffee shop-Ink. Great beer bar-Woods Boss (beer flights), Wine bar-1515. Capitol Grille was a great last-night dinner as we needed some healthy food after our long weekend. Capitol Grille never disappoints.I would suggest taking the train from the airport as it drops you off right behind the AC. It's a quick 35 minute ride. You do not need a car in this location as Uber is easily accessible.  Also the rental car locations are not right at the airport so you have to shuttle over. It took us longer to get our rental car than it did to fly to Denver-over 90 minutes. We will definitely return to the AC. Beautiful hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>The AC is in a great location for a Rockies or Broncos game. Close enough to Coors Field and a short Uber ride to Mile High. Great place for a weekend get-away for couples or boy/girlfriends trip. There are a ton of great restaurants, bars, and shopping in the area. 
+The hotel room was cozy, clean and comfortable. The bathroom is small without a lot of privacy, but the shower is big with two shower heads.  Probably not ideal if you are sharing a room with someone besides your spouse. The rooftop bar is amazing, but very busy with a young crowd. Too crowded and crazy for us 40 year olds. 
+Front staff was amazing with restaurant and bar suggestions. We were always greeted when we came or went.
+Restaurants/bars that I would recommend: Great bars for watching football-Henry's Tavern, Jacksons (offers free shuttle to Mile High), View House, Tap 14. Great breakfast-Sam's No 3 and Urban Legend. Coffee shop-Ink. Great beer bar-Woods Boss (beer flights), Wine bar-1515. Capitol Grille was a great last-night dinner as we needed some healthy food after our long weekend. Capitol Grille never disappoints.
+I would suggest taking the train from the airport as it drops you off right behind the AC. It's a quick 35 minute ride. You do not need a car in this location as Uber is easily accessible.  Also the rental car locations are not right at the airport so you...The AC is in a great location for a Rockies or Broncos game. Close enough to Coors Field and a short Uber ride to Mile High. Great place for a weekend get-away for couples or boy/girlfriends trip. There are a ton of great restaurants, bars, and shopping in the area. The hotel room was cozy, clean and comfortable. The bathroom is small without a lot of privacy, but the shower is big with two shower heads.  Probably not ideal if you are sharing a room with someone besides your spouse. The rooftop bar is amazing, but very busy with a young crowd. Too crowded and crazy for us 40 year olds. Front staff was amazing with restaurant and bar suggestions. We were always greeted when we came or went.Restaurants/bars that I would recommend: Great bars for watching football-Henry's Tavern, Jacksons (offers free shuttle to Mile High), View House, Tap 14. Great breakfast-Sam's No 3 and Urban Legend. Coffee shop-Ink. Great beer bar-Woods Boss (beer flights), Wine bar-1515. Capitol Grille was a great last-night dinner as we needed some healthy food after our long weekend. Capitol Grille never disappoints.I would suggest taking the train from the airport as it drops you off right behind the AC. It's a quick 35 minute ride. You do not need a car in this location as Uber is easily accessible.  Also the rental car locations are not right at the airport so you have to shuttle over. It took us longer to get our rental car than it did to fly to Denver-over 90 minutes. We will definitely return to the AC. Beautiful hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12388462-r526109035-AC_Hotel_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>526109035</t>
+  </si>
+  <si>
+    <t>09/20/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice, great rooftop bar, lacks basic amenities </t>
+  </si>
+  <si>
+    <t>I would love to give this a 4 star rating or higher, but I just can't.
+First, their customer service is 5 star, top notch. From the second you arrive until you depart, everything about their service was fantastic.
+The hotel is a swanky, modern, minimalistic style and smells amazing. (Seriously, I wish I had whatever they are pumping out to have for my home).
+The rooms. We had 2 rooms. A standard queen and then an "upgraded" room because we had a problem with the first room, which they made right, no questions asked.
+The rooms are small, no freestanding furniture but rather everything is wall-mounted for space saving efficiency and style. 
+It's modern, nice, large TV, comfortable bed (ask for extra pillows because we had a good laugh over how they seem fluffy and all but disappear once you lay on them).
+I would warn that if you're at all claustrophobic the fully enclosed shower and WC may be an issue.
+There are no dresser drawers to speak of, no microwave or fridge, so if you have leftovers use the bathroom sink or shower and ice (or bring a cooler but there's no way to heat anything up) (ice is located on the 2nd floor only).  The closet is a rack above the coffee pot/ice bucket. There is a small safe as well.
+The rooftop bar was incredible but sadly was far too crowded for us to partake....I would love to give this a 4 star rating or higher, but I just can't.First, their customer service is 5 star, top notch. From the second you arrive until you depart, everything about their service was fantastic.The hotel is a swanky, modern, minimalistic style and smells amazing. (Seriously, I wish I had whatever they are pumping out to have for my home).The rooms. We had 2 rooms. A standard queen and then an "upgraded" room because we had a problem with the first room, which they made right, no questions asked.The rooms are small, no freestanding furniture but rather everything is wall-mounted for space saving efficiency and style. It's modern, nice, large TV, comfortable bed (ask for extra pillows because we had a good laugh over how they seem fluffy and all but disappear once you lay on them).I would warn that if you're at all claustrophobic the fully enclosed shower and WC may be an issue.There are no dresser drawers to speak of, no microwave or fridge, so if you have leftovers use the bathroom sink or shower and ice (or bring a cooler but there's no way to heat anything up) (ice is located on the 2nd floor only).  The closet is a rack above the coffee pot/ice bucket. There is a small safe as well.The rooftop bar was incredible but sadly was far too crowded for us to partake. That said, it was a Sunday night after a Broncos win. Business was booming.The location is great. Easy access to 16th Street and the Convention Center and right across from Ruth's Chris Steakhouse and Bubba Gumps. It was a pretty good stay. Not amazing but good. Their toiletries were fantastic but that's not a reason to book a hotel, even though my hair did look great.  MoreShow less</t>
+  </si>
+  <si>
+    <t>I would love to give this a 4 star rating or higher, but I just can't.
+First, their customer service is 5 star, top notch. From the second you arrive until you depart, everything about their service was fantastic.
+The hotel is a swanky, modern, minimalistic style and smells amazing. (Seriously, I wish I had whatever they are pumping out to have for my home).
+The rooms. We had 2 rooms. A standard queen and then an "upgraded" room because we had a problem with the first room, which they made right, no questions asked.
+The rooms are small, no freestanding furniture but rather everything is wall-mounted for space saving efficiency and style. 
+It's modern, nice, large TV, comfortable bed (ask for extra pillows because we had a good laugh over how they seem fluffy and all but disappear once you lay on them).
+I would warn that if you're at all claustrophobic the fully enclosed shower and WC may be an issue.
+There are no dresser drawers to speak of, no microwave or fridge, so if you have leftovers use the bathroom sink or shower and ice (or bring a cooler but there's no way to heat anything up) (ice is located on the 2nd floor only).  The closet is a rack above the coffee pot/ice bucket. There is a small safe as well.
+The rooftop bar was incredible but sadly was far too crowded for us to partake....I would love to give this a 4 star rating or higher, but I just can't.First, their customer service is 5 star, top notch. From the second you arrive until you depart, everything about their service was fantastic.The hotel is a swanky, modern, minimalistic style and smells amazing. (Seriously, I wish I had whatever they are pumping out to have for my home).The rooms. We had 2 rooms. A standard queen and then an "upgraded" room because we had a problem with the first room, which they made right, no questions asked.The rooms are small, no freestanding furniture but rather everything is wall-mounted for space saving efficiency and style. It's modern, nice, large TV, comfortable bed (ask for extra pillows because we had a good laugh over how they seem fluffy and all but disappear once you lay on them).I would warn that if you're at all claustrophobic the fully enclosed shower and WC may be an issue.There are no dresser drawers to speak of, no microwave or fridge, so if you have leftovers use the bathroom sink or shower and ice (or bring a cooler but there's no way to heat anything up) (ice is located on the 2nd floor only).  The closet is a rack above the coffee pot/ice bucket. There is a small safe as well.The rooftop bar was incredible but sadly was far too crowded for us to partake. That said, it was a Sunday night after a Broncos win. Business was booming.The location is great. Easy access to 16th Street and the Convention Center and right across from Ruth's Chris Steakhouse and Bubba Gumps. It was a pretty good stay. Not amazing but good. Their toiletries were fantastic but that's not a reason to book a hotel, even though my hair did look great.  More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2889,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2921,7133 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>68</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>69</v>
+      </c>
+      <c r="X4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" t="s">
+        <v>68</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>77</v>
+      </c>
+      <c r="X5" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>52</v>
+      </c>
+      <c r="O6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>77</v>
+      </c>
+      <c r="X6" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>89</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>77</v>
+      </c>
+      <c r="X7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" t="s">
+        <v>94</v>
+      </c>
+      <c r="L8" t="s">
+        <v>95</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>52</v>
+      </c>
+      <c r="O8" t="s">
+        <v>68</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>77</v>
+      </c>
+      <c r="X8" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" t="s">
+        <v>99</v>
+      </c>
+      <c r="L9" t="s">
+        <v>100</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>52</v>
+      </c>
+      <c r="O9" t="s">
+        <v>68</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>77</v>
+      </c>
+      <c r="X9" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" t="s">
+        <v>93</v>
+      </c>
+      <c r="K10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" t="s">
+        <v>105</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>52</v>
+      </c>
+      <c r="O10" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>77</v>
+      </c>
+      <c r="X10" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>108</v>
+      </c>
+      <c r="J11" t="s">
+        <v>109</v>
+      </c>
+      <c r="K11" t="s">
+        <v>110</v>
+      </c>
+      <c r="L11" t="s">
+        <v>111</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>89</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>112</v>
+      </c>
+      <c r="X11" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>116</v>
+      </c>
+      <c r="J12" t="s">
+        <v>117</v>
+      </c>
+      <c r="K12" t="s">
+        <v>118</v>
+      </c>
+      <c r="L12" t="s">
+        <v>119</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>89</v>
+      </c>
+      <c r="O12" t="s">
+        <v>61</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>120</v>
+      </c>
+      <c r="X12" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>124</v>
+      </c>
+      <c r="J13" t="s">
+        <v>125</v>
+      </c>
+      <c r="K13" t="s">
+        <v>126</v>
+      </c>
+      <c r="L13" t="s">
+        <v>127</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>52</v>
+      </c>
+      <c r="O13" t="s">
+        <v>68</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>120</v>
+      </c>
+      <c r="X13" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>129</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>130</v>
+      </c>
+      <c r="J14" t="s">
+        <v>131</v>
+      </c>
+      <c r="K14" t="s">
+        <v>132</v>
+      </c>
+      <c r="L14" t="s">
+        <v>133</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>89</v>
+      </c>
+      <c r="O14" t="s">
+        <v>134</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>135</v>
+      </c>
+      <c r="X14" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>138</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>139</v>
+      </c>
+      <c r="J15" t="s">
+        <v>131</v>
+      </c>
+      <c r="K15" t="s">
+        <v>140</v>
+      </c>
+      <c r="L15" t="s">
+        <v>141</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>89</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>135</v>
+      </c>
+      <c r="X15" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>144</v>
+      </c>
+      <c r="J16" t="s">
+        <v>145</v>
+      </c>
+      <c r="K16" t="s">
+        <v>146</v>
+      </c>
+      <c r="L16" t="s">
+        <v>147</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>89</v>
+      </c>
+      <c r="O16" t="s">
+        <v>61</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>2</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>135</v>
+      </c>
+      <c r="X16" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>149</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>150</v>
+      </c>
+      <c r="J17" t="s">
+        <v>151</v>
+      </c>
+      <c r="K17" t="s">
+        <v>152</v>
+      </c>
+      <c r="L17" t="s">
+        <v>153</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>89</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>154</v>
+      </c>
+      <c r="X17" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>157</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>158</v>
+      </c>
+      <c r="J18" t="s">
+        <v>159</v>
+      </c>
+      <c r="K18" t="s">
+        <v>160</v>
+      </c>
+      <c r="L18" t="s">
+        <v>161</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>89</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>162</v>
+      </c>
+      <c r="X18" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>165</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>166</v>
+      </c>
+      <c r="J19" t="s">
+        <v>167</v>
+      </c>
+      <c r="K19" t="s">
+        <v>168</v>
+      </c>
+      <c r="L19" t="s">
+        <v>169</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>89</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>162</v>
+      </c>
+      <c r="X19" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>171</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>172</v>
+      </c>
+      <c r="J20" t="s">
+        <v>173</v>
+      </c>
+      <c r="K20" t="s">
+        <v>174</v>
+      </c>
+      <c r="L20" t="s">
+        <v>175</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>176</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>177</v>
+      </c>
+      <c r="X20" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>180</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>181</v>
+      </c>
+      <c r="J21" t="s">
+        <v>182</v>
+      </c>
+      <c r="K21" t="s">
+        <v>183</v>
+      </c>
+      <c r="L21" t="s">
+        <v>184</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>176</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>185</v>
+      </c>
+      <c r="X21" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>188</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>189</v>
+      </c>
+      <c r="J22" t="s">
+        <v>182</v>
+      </c>
+      <c r="K22" t="s">
+        <v>190</v>
+      </c>
+      <c r="L22" t="s">
+        <v>191</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>89</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>185</v>
+      </c>
+      <c r="X22" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>193</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>194</v>
+      </c>
+      <c r="J23" t="s">
+        <v>182</v>
+      </c>
+      <c r="K23" t="s">
+        <v>195</v>
+      </c>
+      <c r="L23" t="s">
+        <v>196</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>89</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>185</v>
+      </c>
+      <c r="X23" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>198</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>199</v>
+      </c>
+      <c r="J24" t="s">
+        <v>200</v>
+      </c>
+      <c r="K24" t="s">
+        <v>201</v>
+      </c>
+      <c r="L24" t="s">
+        <v>202</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>176</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>203</v>
+      </c>
+      <c r="X24" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>206</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>207</v>
+      </c>
+      <c r="J25" t="s">
+        <v>208</v>
+      </c>
+      <c r="K25" t="s">
+        <v>209</v>
+      </c>
+      <c r="L25" t="s">
+        <v>210</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>176</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>203</v>
+      </c>
+      <c r="X25" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>212</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>213</v>
+      </c>
+      <c r="J26" t="s">
+        <v>208</v>
+      </c>
+      <c r="K26" t="s">
+        <v>209</v>
+      </c>
+      <c r="L26" t="s">
+        <v>214</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>176</v>
+      </c>
+      <c r="O26" t="s">
+        <v>61</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>215</v>
+      </c>
+      <c r="X26" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>217</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>218</v>
+      </c>
+      <c r="J27" t="s">
+        <v>208</v>
+      </c>
+      <c r="K27" t="s">
+        <v>219</v>
+      </c>
+      <c r="L27" t="s">
+        <v>220</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>176</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>215</v>
+      </c>
+      <c r="X27" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>222</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>223</v>
+      </c>
+      <c r="J28" t="s">
+        <v>224</v>
+      </c>
+      <c r="K28" t="s">
+        <v>225</v>
+      </c>
+      <c r="L28" t="s">
+        <v>226</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>176</v>
+      </c>
+      <c r="O28" t="s">
+        <v>61</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>215</v>
+      </c>
+      <c r="X28" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>228</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>229</v>
+      </c>
+      <c r="J29" t="s">
+        <v>230</v>
+      </c>
+      <c r="K29" t="s">
+        <v>231</v>
+      </c>
+      <c r="L29" t="s">
+        <v>232</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>176</v>
+      </c>
+      <c r="O29" t="s">
+        <v>233</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>234</v>
+      </c>
+      <c r="X29" t="s">
+        <v>235</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>237</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>238</v>
+      </c>
+      <c r="J30" t="s">
+        <v>239</v>
+      </c>
+      <c r="K30" t="s">
+        <v>168</v>
+      </c>
+      <c r="L30" t="s">
+        <v>240</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>176</v>
+      </c>
+      <c r="O30" t="s">
+        <v>61</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>241</v>
+      </c>
+      <c r="X30" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>244</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>245</v>
+      </c>
+      <c r="J31" t="s">
+        <v>239</v>
+      </c>
+      <c r="K31" t="s">
+        <v>246</v>
+      </c>
+      <c r="L31" t="s">
+        <v>247</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>176</v>
+      </c>
+      <c r="O31" t="s">
+        <v>68</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>241</v>
+      </c>
+      <c r="X31" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>249</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>250</v>
+      </c>
+      <c r="J32" t="s">
+        <v>251</v>
+      </c>
+      <c r="K32" t="s">
+        <v>252</v>
+      </c>
+      <c r="L32" t="s">
+        <v>253</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>176</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>254</v>
+      </c>
+      <c r="X32" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>257</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>258</v>
+      </c>
+      <c r="J33" t="s">
+        <v>251</v>
+      </c>
+      <c r="K33" t="s">
+        <v>259</v>
+      </c>
+      <c r="L33" t="s">
+        <v>260</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>176</v>
+      </c>
+      <c r="O33" t="s">
+        <v>61</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>254</v>
+      </c>
+      <c r="X33" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>262</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>263</v>
+      </c>
+      <c r="J34" t="s">
+        <v>251</v>
+      </c>
+      <c r="K34" t="s">
+        <v>264</v>
+      </c>
+      <c r="L34" t="s">
+        <v>265</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>176</v>
+      </c>
+      <c r="O34" t="s">
+        <v>134</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>254</v>
+      </c>
+      <c r="X34" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>267</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>268</v>
+      </c>
+      <c r="J35" t="s">
+        <v>269</v>
+      </c>
+      <c r="K35" t="s">
+        <v>270</v>
+      </c>
+      <c r="L35" t="s">
+        <v>271</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>272</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>254</v>
+      </c>
+      <c r="X35" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>274</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>275</v>
+      </c>
+      <c r="J36" t="s">
+        <v>276</v>
+      </c>
+      <c r="K36" t="s">
+        <v>277</v>
+      </c>
+      <c r="L36" t="s">
+        <v>278</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>176</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>279</v>
+      </c>
+      <c r="X36" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>282</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>283</v>
+      </c>
+      <c r="J37" t="s">
+        <v>284</v>
+      </c>
+      <c r="K37" t="s">
+        <v>285</v>
+      </c>
+      <c r="L37" t="s">
+        <v>286</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>272</v>
+      </c>
+      <c r="O37" t="s">
+        <v>134</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>287</v>
+      </c>
+      <c r="X37" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>290</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>291</v>
+      </c>
+      <c r="J38" t="s">
+        <v>292</v>
+      </c>
+      <c r="K38" t="s">
+        <v>293</v>
+      </c>
+      <c r="L38" t="s">
+        <v>294</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>272</v>
+      </c>
+      <c r="O38" t="s">
+        <v>61</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>287</v>
+      </c>
+      <c r="X38" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>296</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>297</v>
+      </c>
+      <c r="J39" t="s">
+        <v>292</v>
+      </c>
+      <c r="K39" t="s">
+        <v>298</v>
+      </c>
+      <c r="L39" t="s">
+        <v>299</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>272</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>287</v>
+      </c>
+      <c r="X39" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>301</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>302</v>
+      </c>
+      <c r="J40" t="s">
+        <v>303</v>
+      </c>
+      <c r="K40" t="s">
+        <v>304</v>
+      </c>
+      <c r="L40" t="s">
+        <v>305</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>272</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>306</v>
+      </c>
+      <c r="X40" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>309</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>310</v>
+      </c>
+      <c r="J41" t="s">
+        <v>311</v>
+      </c>
+      <c r="K41" t="s">
+        <v>312</v>
+      </c>
+      <c r="L41" t="s">
+        <v>313</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>272</v>
+      </c>
+      <c r="O41" t="s">
+        <v>233</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>314</v>
+      </c>
+      <c r="X41" t="s">
+        <v>315</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>317</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>318</v>
+      </c>
+      <c r="J42" t="s">
+        <v>311</v>
+      </c>
+      <c r="K42" t="s">
+        <v>319</v>
+      </c>
+      <c r="L42" t="s">
+        <v>320</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s">
+        <v>321</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>322</v>
+      </c>
+      <c r="X42" t="s">
+        <v>323</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>325</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>326</v>
+      </c>
+      <c r="J43" t="s">
+        <v>327</v>
+      </c>
+      <c r="K43" t="s">
+        <v>328</v>
+      </c>
+      <c r="L43" t="s">
+        <v>329</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>272</v>
+      </c>
+      <c r="O43" t="s">
+        <v>68</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>314</v>
+      </c>
+      <c r="X43" t="s">
+        <v>315</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>331</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>332</v>
+      </c>
+      <c r="J44" t="s">
+        <v>333</v>
+      </c>
+      <c r="K44" t="s">
+        <v>334</v>
+      </c>
+      <c r="L44" t="s">
+        <v>335</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>336</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>337</v>
+      </c>
+      <c r="X44" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>340</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>341</v>
+      </c>
+      <c r="J45" t="s">
+        <v>342</v>
+      </c>
+      <c r="K45" t="s">
+        <v>343</v>
+      </c>
+      <c r="L45" t="s">
+        <v>344</v>
+      </c>
+      <c r="M45" t="n">
+        <v>2</v>
+      </c>
+      <c r="N45" t="s">
+        <v>272</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>1</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>337</v>
+      </c>
+      <c r="X45" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>346</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>347</v>
+      </c>
+      <c r="J46" t="s">
+        <v>342</v>
+      </c>
+      <c r="K46" t="s">
+        <v>348</v>
+      </c>
+      <c r="L46" t="s">
+        <v>349</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>272</v>
+      </c>
+      <c r="O46" t="s">
+        <v>61</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>337</v>
+      </c>
+      <c r="X46" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>351</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>352</v>
+      </c>
+      <c r="J47" t="s">
+        <v>353</v>
+      </c>
+      <c r="K47" t="s">
+        <v>354</v>
+      </c>
+      <c r="L47" t="s">
+        <v>355</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>272</v>
+      </c>
+      <c r="O47" t="s">
+        <v>68</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>337</v>
+      </c>
+      <c r="X47" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>357</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>358</v>
+      </c>
+      <c r="J48" t="s">
+        <v>353</v>
+      </c>
+      <c r="K48" t="s">
+        <v>359</v>
+      </c>
+      <c r="L48" t="s">
+        <v>360</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>272</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>361</v>
+      </c>
+      <c r="X48" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>364</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>365</v>
+      </c>
+      <c r="J49" t="s">
+        <v>353</v>
+      </c>
+      <c r="K49" t="s">
+        <v>366</v>
+      </c>
+      <c r="L49" t="s">
+        <v>367</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>272</v>
+      </c>
+      <c r="O49" t="s">
+        <v>61</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>361</v>
+      </c>
+      <c r="X49" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>369</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>370</v>
+      </c>
+      <c r="J50" t="s">
+        <v>353</v>
+      </c>
+      <c r="K50" t="s">
+        <v>371</v>
+      </c>
+      <c r="L50" t="s">
+        <v>372</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>272</v>
+      </c>
+      <c r="O50" t="s">
+        <v>134</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>361</v>
+      </c>
+      <c r="X50" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>374</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>375</v>
+      </c>
+      <c r="J51" t="s">
+        <v>376</v>
+      </c>
+      <c r="K51" t="s">
+        <v>377</v>
+      </c>
+      <c r="L51" t="s">
+        <v>378</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>272</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>379</v>
+      </c>
+      <c r="X51" t="s">
+        <v>380</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>382</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>383</v>
+      </c>
+      <c r="J52" t="s">
+        <v>376</v>
+      </c>
+      <c r="K52" t="s">
+        <v>384</v>
+      </c>
+      <c r="L52" t="s">
+        <v>385</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="s">
+        <v>272</v>
+      </c>
+      <c r="O52" t="s">
+        <v>68</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>379</v>
+      </c>
+      <c r="X52" t="s">
+        <v>380</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>387</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>388</v>
+      </c>
+      <c r="J53" t="s">
+        <v>389</v>
+      </c>
+      <c r="K53" t="s">
+        <v>390</v>
+      </c>
+      <c r="L53" t="s">
+        <v>391</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>272</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>392</v>
+      </c>
+      <c r="X53" t="s">
+        <v>393</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>395</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>396</v>
+      </c>
+      <c r="J54" t="s">
+        <v>397</v>
+      </c>
+      <c r="K54" t="s">
+        <v>398</v>
+      </c>
+      <c r="L54" t="s">
+        <v>399</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s">
+        <v>272</v>
+      </c>
+      <c r="O54" t="s">
+        <v>61</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>400</v>
+      </c>
+      <c r="X54" t="s">
+        <v>401</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>403</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>404</v>
+      </c>
+      <c r="J55" t="s">
+        <v>405</v>
+      </c>
+      <c r="K55" t="s">
+        <v>406</v>
+      </c>
+      <c r="L55" t="s">
+        <v>407</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s">
+        <v>272</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>400</v>
+      </c>
+      <c r="X55" t="s">
+        <v>401</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>409</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>410</v>
+      </c>
+      <c r="J56" t="s">
+        <v>405</v>
+      </c>
+      <c r="K56" t="s">
+        <v>411</v>
+      </c>
+      <c r="L56" t="s">
+        <v>412</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>272</v>
+      </c>
+      <c r="O56" t="s">
+        <v>233</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>400</v>
+      </c>
+      <c r="X56" t="s">
+        <v>401</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>414</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>415</v>
+      </c>
+      <c r="J57" t="s">
+        <v>416</v>
+      </c>
+      <c r="K57" t="s">
+        <v>417</v>
+      </c>
+      <c r="L57" t="s">
+        <v>418</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>272</v>
+      </c>
+      <c r="O57" t="s">
+        <v>134</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>419</v>
+      </c>
+      <c r="X57" t="s">
+        <v>420</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>422</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>423</v>
+      </c>
+      <c r="J58" t="s">
+        <v>424</v>
+      </c>
+      <c r="K58" t="s">
+        <v>425</v>
+      </c>
+      <c r="L58" t="s">
+        <v>426</v>
+      </c>
+      <c r="M58" t="n">
+        <v>3</v>
+      </c>
+      <c r="N58" t="s">
+        <v>336</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="n">
+        <v>2</v>
+      </c>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>419</v>
+      </c>
+      <c r="X58" t="s">
+        <v>420</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>428</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>429</v>
+      </c>
+      <c r="J59" t="s">
+        <v>430</v>
+      </c>
+      <c r="K59" t="s">
+        <v>431</v>
+      </c>
+      <c r="L59" t="s">
+        <v>432</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>336</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="s"/>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>419</v>
+      </c>
+      <c r="X59" t="s">
+        <v>420</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>434</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>435</v>
+      </c>
+      <c r="J60" t="s">
+        <v>430</v>
+      </c>
+      <c r="K60" t="s">
+        <v>436</v>
+      </c>
+      <c r="L60" t="s">
+        <v>437</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>336</v>
+      </c>
+      <c r="O60" t="s">
+        <v>61</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>419</v>
+      </c>
+      <c r="X60" t="s">
+        <v>420</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>439</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>440</v>
+      </c>
+      <c r="J61" t="s">
+        <v>441</v>
+      </c>
+      <c r="K61" t="s">
+        <v>442</v>
+      </c>
+      <c r="L61" t="s">
+        <v>443</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>336</v>
+      </c>
+      <c r="O61" t="s">
+        <v>61</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="s"/>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>419</v>
+      </c>
+      <c r="X61" t="s">
+        <v>420</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>445</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>446</v>
+      </c>
+      <c r="J62" t="s">
+        <v>447</v>
+      </c>
+      <c r="K62" t="s">
+        <v>448</v>
+      </c>
+      <c r="L62" t="s">
+        <v>449</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>336</v>
+      </c>
+      <c r="O62" t="s">
+        <v>68</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>450</v>
+      </c>
+      <c r="X62" t="s">
+        <v>451</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>453</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>454</v>
+      </c>
+      <c r="J63" t="s">
+        <v>447</v>
+      </c>
+      <c r="K63" t="s">
+        <v>455</v>
+      </c>
+      <c r="L63" t="s">
+        <v>456</v>
+      </c>
+      <c r="M63" t="n">
+        <v>3</v>
+      </c>
+      <c r="N63" t="s">
+        <v>336</v>
+      </c>
+      <c r="O63" t="s">
+        <v>61</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="s"/>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>457</v>
+      </c>
+      <c r="X63" t="s">
+        <v>458</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>460</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>461</v>
+      </c>
+      <c r="J64" t="s">
+        <v>462</v>
+      </c>
+      <c r="K64" t="s">
+        <v>463</v>
+      </c>
+      <c r="L64" t="s">
+        <v>464</v>
+      </c>
+      <c r="M64" t="n">
+        <v>2</v>
+      </c>
+      <c r="N64" t="s">
+        <v>336</v>
+      </c>
+      <c r="O64" t="s">
+        <v>61</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="s"/>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>457</v>
+      </c>
+      <c r="X64" t="s">
+        <v>458</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>466</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>467</v>
+      </c>
+      <c r="J65" t="s">
+        <v>468</v>
+      </c>
+      <c r="K65" t="s">
+        <v>469</v>
+      </c>
+      <c r="L65" t="s">
+        <v>470</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>336</v>
+      </c>
+      <c r="O65" t="s">
+        <v>61</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>471</v>
+      </c>
+      <c r="X65" t="s">
+        <v>472</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>474</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>475</v>
+      </c>
+      <c r="J66" t="s">
+        <v>468</v>
+      </c>
+      <c r="K66" t="s">
+        <v>476</v>
+      </c>
+      <c r="L66" t="s">
+        <v>477</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>336</v>
+      </c>
+      <c r="O66" t="s">
+        <v>68</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="s"/>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>471</v>
+      </c>
+      <c r="X66" t="s">
+        <v>472</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>479</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>480</v>
+      </c>
+      <c r="J67" t="s">
+        <v>481</v>
+      </c>
+      <c r="K67" t="s">
+        <v>482</v>
+      </c>
+      <c r="L67" t="s">
+        <v>483</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>336</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>484</v>
+      </c>
+      <c r="X67" t="s">
+        <v>485</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>487</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>488</v>
+      </c>
+      <c r="J68" t="s">
+        <v>489</v>
+      </c>
+      <c r="K68" t="s">
+        <v>490</v>
+      </c>
+      <c r="L68" t="s">
+        <v>491</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>336</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="s"/>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>492</v>
+      </c>
+      <c r="X68" t="s">
+        <v>493</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>495</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>496</v>
+      </c>
+      <c r="J69" t="s">
+        <v>489</v>
+      </c>
+      <c r="K69" t="s">
+        <v>497</v>
+      </c>
+      <c r="L69" t="s">
+        <v>498</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>336</v>
+      </c>
+      <c r="O69" t="s">
+        <v>61</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="s"/>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>492</v>
+      </c>
+      <c r="X69" t="s">
+        <v>493</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>500</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>501</v>
+      </c>
+      <c r="J70" t="s">
+        <v>502</v>
+      </c>
+      <c r="K70" t="s">
+        <v>503</v>
+      </c>
+      <c r="L70" t="s">
+        <v>504</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>336</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="s"/>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>492</v>
+      </c>
+      <c r="X70" t="s">
+        <v>493</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>506</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>507</v>
+      </c>
+      <c r="J71" t="s">
+        <v>502</v>
+      </c>
+      <c r="K71" t="s">
+        <v>508</v>
+      </c>
+      <c r="L71" t="s">
+        <v>509</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>336</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="s"/>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>492</v>
+      </c>
+      <c r="X71" t="s">
+        <v>493</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>511</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>512</v>
+      </c>
+      <c r="J72" t="s">
+        <v>502</v>
+      </c>
+      <c r="K72" t="s">
+        <v>513</v>
+      </c>
+      <c r="L72" t="s">
+        <v>514</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>336</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="s"/>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>492</v>
+      </c>
+      <c r="X72" t="s">
+        <v>493</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>516</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>517</v>
+      </c>
+      <c r="J73" t="s">
+        <v>518</v>
+      </c>
+      <c r="K73" t="s">
+        <v>519</v>
+      </c>
+      <c r="L73" t="s">
+        <v>520</v>
+      </c>
+      <c r="M73" t="n">
+        <v>3</v>
+      </c>
+      <c r="N73" t="s">
+        <v>336</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="s"/>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>492</v>
+      </c>
+      <c r="X73" t="s">
+        <v>493</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>522</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>523</v>
+      </c>
+      <c r="J74" t="s">
+        <v>524</v>
+      </c>
+      <c r="K74" t="s">
+        <v>525</v>
+      </c>
+      <c r="L74" t="s">
+        <v>526</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>336</v>
+      </c>
+      <c r="O74" t="s">
+        <v>68</v>
+      </c>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="s"/>
+      <c r="T74" t="s"/>
+      <c r="U74" t="s"/>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>527</v>
+      </c>
+      <c r="X74" t="s">
+        <v>528</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>530</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>531</v>
+      </c>
+      <c r="J75" t="s">
+        <v>524</v>
+      </c>
+      <c r="K75" t="s">
+        <v>532</v>
+      </c>
+      <c r="L75" t="s">
+        <v>533</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>336</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="s"/>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>527</v>
+      </c>
+      <c r="X75" t="s">
+        <v>528</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>535</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>536</v>
+      </c>
+      <c r="J76" t="s">
+        <v>524</v>
+      </c>
+      <c r="K76" t="s">
+        <v>537</v>
+      </c>
+      <c r="L76" t="s">
+        <v>538</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>336</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="s"/>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="s"/>
+      <c r="S76" t="s"/>
+      <c r="T76" t="s"/>
+      <c r="U76" t="s"/>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>527</v>
+      </c>
+      <c r="X76" t="s">
+        <v>528</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>540</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>541</v>
+      </c>
+      <c r="J77" t="s">
+        <v>542</v>
+      </c>
+      <c r="K77" t="s">
+        <v>543</v>
+      </c>
+      <c r="L77" t="s">
+        <v>544</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>545</v>
+      </c>
+      <c r="O77" t="s">
+        <v>68</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="s"/>
+      <c r="R77" t="s"/>
+      <c r="S77" t="s"/>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>527</v>
+      </c>
+      <c r="X77" t="s">
+        <v>528</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>547</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>548</v>
+      </c>
+      <c r="J78" t="s">
+        <v>549</v>
+      </c>
+      <c r="K78" t="s">
+        <v>550</v>
+      </c>
+      <c r="L78" t="s">
+        <v>551</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>336</v>
+      </c>
+      <c r="O78" t="s">
+        <v>61</v>
+      </c>
+      <c r="P78" t="s"/>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="s"/>
+      <c r="S78" t="s"/>
+      <c r="T78" t="s"/>
+      <c r="U78" t="s"/>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>552</v>
+      </c>
+      <c r="X78" t="s">
+        <v>553</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>555</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>556</v>
+      </c>
+      <c r="J79" t="s">
+        <v>557</v>
+      </c>
+      <c r="K79" t="s">
+        <v>558</v>
+      </c>
+      <c r="L79" t="s">
+        <v>559</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>336</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="s"/>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="s"/>
+      <c r="S79" t="s"/>
+      <c r="T79" t="s"/>
+      <c r="U79" t="s"/>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>552</v>
+      </c>
+      <c r="X79" t="s">
+        <v>553</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>561</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>562</v>
+      </c>
+      <c r="J80" t="s">
+        <v>563</v>
+      </c>
+      <c r="K80" t="s">
+        <v>564</v>
+      </c>
+      <c r="L80" t="s">
+        <v>565</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>566</v>
+      </c>
+      <c r="O80" t="s">
+        <v>68</v>
+      </c>
+      <c r="P80" t="s"/>
+      <c r="Q80" t="s"/>
+      <c r="R80" t="s"/>
+      <c r="S80" t="s"/>
+      <c r="T80" t="s"/>
+      <c r="U80" t="s"/>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>567</v>
+      </c>
+      <c r="X80" t="s">
+        <v>568</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>570</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>571</v>
+      </c>
+      <c r="J81" t="s">
+        <v>572</v>
+      </c>
+      <c r="K81" t="s">
+        <v>573</v>
+      </c>
+      <c r="L81" t="s">
+        <v>574</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>321</v>
+      </c>
+      <c r="O81" t="s">
+        <v>68</v>
+      </c>
+      <c r="P81" t="s"/>
+      <c r="Q81" t="s"/>
+      <c r="R81" t="s"/>
+      <c r="S81" t="s"/>
+      <c r="T81" t="s"/>
+      <c r="U81" t="s"/>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>575</v>
+      </c>
+      <c r="X81" t="s">
+        <v>576</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>578</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>579</v>
+      </c>
+      <c r="J82" t="s">
+        <v>580</v>
+      </c>
+      <c r="K82" t="s">
+        <v>581</v>
+      </c>
+      <c r="L82" t="s">
+        <v>582</v>
+      </c>
+      <c r="M82" t="n">
+        <v>3</v>
+      </c>
+      <c r="N82" t="s">
+        <v>321</v>
+      </c>
+      <c r="O82" t="s">
+        <v>53</v>
+      </c>
+      <c r="P82" t="s"/>
+      <c r="Q82" t="s"/>
+      <c r="R82" t="s"/>
+      <c r="S82" t="s"/>
+      <c r="T82" t="s"/>
+      <c r="U82" t="s"/>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>583</v>
+      </c>
+      <c r="X82" t="s">
+        <v>584</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>586</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>587</v>
+      </c>
+      <c r="J83" t="s">
+        <v>588</v>
+      </c>
+      <c r="K83" t="s">
+        <v>589</v>
+      </c>
+      <c r="L83" t="s">
+        <v>590</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>321</v>
+      </c>
+      <c r="O83" t="s">
+        <v>134</v>
+      </c>
+      <c r="P83" t="s"/>
+      <c r="Q83" t="s"/>
+      <c r="R83" t="s"/>
+      <c r="S83" t="s"/>
+      <c r="T83" t="s"/>
+      <c r="U83" t="s"/>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>591</v>
+      </c>
+      <c r="X83" t="s">
+        <v>592</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>594</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>595</v>
+      </c>
+      <c r="J84" t="s">
+        <v>596</v>
+      </c>
+      <c r="K84" t="s">
+        <v>597</v>
+      </c>
+      <c r="L84" t="s">
+        <v>598</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>321</v>
+      </c>
+      <c r="O84" t="s">
+        <v>68</v>
+      </c>
+      <c r="P84" t="s"/>
+      <c r="Q84" t="s"/>
+      <c r="R84" t="s"/>
+      <c r="S84" t="s"/>
+      <c r="T84" t="s"/>
+      <c r="U84" t="s"/>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>599</v>
+      </c>
+      <c r="X84" t="s">
+        <v>600</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>602</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>603</v>
+      </c>
+      <c r="J85" t="s">
+        <v>604</v>
+      </c>
+      <c r="K85" t="s">
+        <v>605</v>
+      </c>
+      <c r="L85" t="s">
+        <v>606</v>
+      </c>
+      <c r="M85" t="n">
+        <v>3</v>
+      </c>
+      <c r="N85" t="s">
+        <v>321</v>
+      </c>
+      <c r="O85" t="s">
+        <v>61</v>
+      </c>
+      <c r="P85" t="s"/>
+      <c r="Q85" t="s"/>
+      <c r="R85" t="s"/>
+      <c r="S85" t="s"/>
+      <c r="T85" t="s"/>
+      <c r="U85" t="s"/>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>599</v>
+      </c>
+      <c r="X85" t="s">
+        <v>600</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>608</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>609</v>
+      </c>
+      <c r="J86" t="s">
+        <v>610</v>
+      </c>
+      <c r="K86" t="s">
+        <v>611</v>
+      </c>
+      <c r="L86" t="s">
+        <v>612</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>321</v>
+      </c>
+      <c r="O86" t="s">
+        <v>53</v>
+      </c>
+      <c r="P86" t="s"/>
+      <c r="Q86" t="s"/>
+      <c r="R86" t="s"/>
+      <c r="S86" t="s"/>
+      <c r="T86" t="s"/>
+      <c r="U86" t="s"/>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>613</v>
+      </c>
+      <c r="X86" t="s">
+        <v>614</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>616</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>617</v>
+      </c>
+      <c r="J87" t="s">
+        <v>618</v>
+      </c>
+      <c r="K87" t="s">
+        <v>619</v>
+      </c>
+      <c r="L87" t="s">
+        <v>620</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>321</v>
+      </c>
+      <c r="O87" t="s">
+        <v>61</v>
+      </c>
+      <c r="P87" t="s"/>
+      <c r="Q87" t="s"/>
+      <c r="R87" t="s"/>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>621</v>
+      </c>
+      <c r="X87" t="s">
+        <v>622</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>624</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>625</v>
+      </c>
+      <c r="J88" t="s">
+        <v>618</v>
+      </c>
+      <c r="K88" t="s">
+        <v>626</v>
+      </c>
+      <c r="L88" t="s">
+        <v>627</v>
+      </c>
+      <c r="M88" t="n">
+        <v>3</v>
+      </c>
+      <c r="N88" t="s">
+        <v>321</v>
+      </c>
+      <c r="O88" t="s">
+        <v>61</v>
+      </c>
+      <c r="P88" t="s"/>
+      <c r="Q88" t="s"/>
+      <c r="R88" t="s"/>
+      <c r="S88" t="s"/>
+      <c r="T88" t="s"/>
+      <c r="U88" t="s"/>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>621</v>
+      </c>
+      <c r="X88" t="s">
+        <v>622</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>629</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>630</v>
+      </c>
+      <c r="J89" t="s">
+        <v>631</v>
+      </c>
+      <c r="K89" t="s">
+        <v>632</v>
+      </c>
+      <c r="L89" t="s">
+        <v>633</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>321</v>
+      </c>
+      <c r="O89" t="s">
+        <v>61</v>
+      </c>
+      <c r="P89" t="s"/>
+      <c r="Q89" t="s"/>
+      <c r="R89" t="s"/>
+      <c r="S89" t="s"/>
+      <c r="T89" t="s"/>
+      <c r="U89" t="s"/>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>621</v>
+      </c>
+      <c r="X89" t="s">
+        <v>622</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>635</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>636</v>
+      </c>
+      <c r="J90" t="s">
+        <v>637</v>
+      </c>
+      <c r="K90" t="s">
+        <v>638</v>
+      </c>
+      <c r="L90" t="s">
+        <v>639</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>640</v>
+      </c>
+      <c r="O90" t="s">
+        <v>61</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="s"/>
+      <c r="R90" t="s"/>
+      <c r="S90" t="s"/>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>641</v>
+      </c>
+      <c r="X90" t="s">
+        <v>642</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>644</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>645</v>
+      </c>
+      <c r="J91" t="s">
+        <v>637</v>
+      </c>
+      <c r="K91" t="s">
+        <v>646</v>
+      </c>
+      <c r="L91" t="s">
+        <v>647</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s">
+        <v>321</v>
+      </c>
+      <c r="O91" t="s">
+        <v>53</v>
+      </c>
+      <c r="P91" t="s"/>
+      <c r="Q91" t="s"/>
+      <c r="R91" t="s"/>
+      <c r="S91" t="s"/>
+      <c r="T91" t="s"/>
+      <c r="U91" t="s"/>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>641</v>
+      </c>
+      <c r="X91" t="s">
+        <v>642</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>649</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>650</v>
+      </c>
+      <c r="J92" t="s">
+        <v>651</v>
+      </c>
+      <c r="K92" t="s">
+        <v>652</v>
+      </c>
+      <c r="L92" t="s">
+        <v>653</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>321</v>
+      </c>
+      <c r="O92" t="s">
+        <v>233</v>
+      </c>
+      <c r="P92" t="s"/>
+      <c r="Q92" t="s"/>
+      <c r="R92" t="s"/>
+      <c r="S92" t="s"/>
+      <c r="T92" t="s"/>
+      <c r="U92" t="s"/>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>654</v>
+      </c>
+      <c r="X92" t="s">
+        <v>655</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>657</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>658</v>
+      </c>
+      <c r="J93" t="s">
+        <v>651</v>
+      </c>
+      <c r="K93" t="s">
+        <v>659</v>
+      </c>
+      <c r="L93" t="s">
+        <v>660</v>
+      </c>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s">
+        <v>321</v>
+      </c>
+      <c r="O93" t="s">
+        <v>68</v>
+      </c>
+      <c r="P93" t="s"/>
+      <c r="Q93" t="s"/>
+      <c r="R93" t="s"/>
+      <c r="S93" t="s"/>
+      <c r="T93" t="s"/>
+      <c r="U93" t="s"/>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>654</v>
+      </c>
+      <c r="X93" t="s">
+        <v>655</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>662</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>663</v>
+      </c>
+      <c r="J94" t="s">
+        <v>651</v>
+      </c>
+      <c r="K94" t="s">
+        <v>664</v>
+      </c>
+      <c r="L94" t="s">
+        <v>665</v>
+      </c>
+      <c r="M94" t="n">
+        <v>4</v>
+      </c>
+      <c r="N94" t="s">
+        <v>321</v>
+      </c>
+      <c r="O94" t="s">
+        <v>61</v>
+      </c>
+      <c r="P94" t="s"/>
+      <c r="Q94" t="s"/>
+      <c r="R94" t="s"/>
+      <c r="S94" t="s"/>
+      <c r="T94" t="s"/>
+      <c r="U94" t="s"/>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>654</v>
+      </c>
+      <c r="X94" t="s">
+        <v>655</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>667</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>668</v>
+      </c>
+      <c r="J95" t="s">
+        <v>669</v>
+      </c>
+      <c r="K95" t="s">
+        <v>670</v>
+      </c>
+      <c r="L95" t="s">
+        <v>671</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>321</v>
+      </c>
+      <c r="O95" t="s">
+        <v>61</v>
+      </c>
+      <c r="P95" t="s"/>
+      <c r="Q95" t="s"/>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="s"/>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s">
+        <v>672</v>
+      </c>
+      <c r="X95" t="s">
+        <v>655</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>674</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>675</v>
+      </c>
+      <c r="J96" t="s">
+        <v>676</v>
+      </c>
+      <c r="K96" t="s">
+        <v>677</v>
+      </c>
+      <c r="L96" t="s">
+        <v>678</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>321</v>
+      </c>
+      <c r="O96" t="s">
+        <v>134</v>
+      </c>
+      <c r="P96" t="s"/>
+      <c r="Q96" t="s"/>
+      <c r="R96" t="s"/>
+      <c r="S96" t="s"/>
+      <c r="T96" t="s"/>
+      <c r="U96" t="s"/>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s">
+        <v>679</v>
+      </c>
+      <c r="X96" t="s">
+        <v>680</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>682</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>683</v>
+      </c>
+      <c r="J97" t="s">
+        <v>676</v>
+      </c>
+      <c r="K97" t="s">
+        <v>684</v>
+      </c>
+      <c r="L97" t="s">
+        <v>685</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>321</v>
+      </c>
+      <c r="O97" t="s">
+        <v>134</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="s"/>
+      <c r="R97" t="n">
+        <v>5</v>
+      </c>
+      <c r="S97" t="s"/>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s">
+        <v>679</v>
+      </c>
+      <c r="X97" t="s">
+        <v>680</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>687</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>688</v>
+      </c>
+      <c r="J98" t="s">
+        <v>689</v>
+      </c>
+      <c r="K98" t="s">
+        <v>690</v>
+      </c>
+      <c r="L98" t="s">
+        <v>691</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s">
+        <v>321</v>
+      </c>
+      <c r="O98" t="s">
+        <v>134</v>
+      </c>
+      <c r="P98" t="s"/>
+      <c r="Q98" t="s"/>
+      <c r="R98" t="s"/>
+      <c r="S98" t="s"/>
+      <c r="T98" t="s"/>
+      <c r="U98" t="s"/>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s">
+        <v>679</v>
+      </c>
+      <c r="X98" t="s">
+        <v>680</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>693</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>694</v>
+      </c>
+      <c r="J99" t="s">
+        <v>695</v>
+      </c>
+      <c r="K99" t="s">
+        <v>696</v>
+      </c>
+      <c r="L99" t="s">
+        <v>697</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s">
+        <v>640</v>
+      </c>
+      <c r="O99" t="s">
+        <v>233</v>
+      </c>
+      <c r="P99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>5</v>
+      </c>
+      <c r="R99" t="s"/>
+      <c r="S99" t="s"/>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s">
+        <v>679</v>
+      </c>
+      <c r="X99" t="s">
+        <v>680</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>699</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>700</v>
+      </c>
+      <c r="J100" t="s">
+        <v>701</v>
+      </c>
+      <c r="K100" t="s">
+        <v>702</v>
+      </c>
+      <c r="L100" t="s">
+        <v>703</v>
+      </c>
+      <c r="M100" t="n">
+        <v>5</v>
+      </c>
+      <c r="N100" t="s">
+        <v>640</v>
+      </c>
+      <c r="O100" t="s">
+        <v>61</v>
+      </c>
+      <c r="P100" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q100" t="s"/>
+      <c r="R100" t="s"/>
+      <c r="S100" t="s"/>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s">
+        <v>241</v>
+      </c>
+      <c r="X100" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>705</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>706</v>
+      </c>
+      <c r="J101" t="s">
+        <v>707</v>
+      </c>
+      <c r="K101" t="s">
+        <v>708</v>
+      </c>
+      <c r="L101" t="s">
+        <v>709</v>
+      </c>
+      <c r="M101" t="n">
+        <v>5</v>
+      </c>
+      <c r="N101" t="s">
+        <v>640</v>
+      </c>
+      <c r="O101" t="s">
+        <v>134</v>
+      </c>
+      <c r="P101" t="s"/>
+      <c r="Q101" t="s"/>
+      <c r="R101" t="s"/>
+      <c r="S101" t="s"/>
+      <c r="T101" t="s"/>
+      <c r="U101" t="s"/>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s">
+        <v>710</v>
+      </c>
+      <c r="X101" t="s">
+        <v>711</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>713</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>714</v>
+      </c>
+      <c r="J102" t="s">
+        <v>707</v>
+      </c>
+      <c r="K102" t="s">
+        <v>715</v>
+      </c>
+      <c r="L102" t="s">
+        <v>716</v>
+      </c>
+      <c r="M102" t="n">
+        <v>5</v>
+      </c>
+      <c r="N102" t="s"/>
+      <c r="O102" t="s"/>
+      <c r="P102" t="s"/>
+      <c r="Q102" t="s"/>
+      <c r="R102" t="s"/>
+      <c r="S102" t="s"/>
+      <c r="T102" t="s"/>
+      <c r="U102" t="s"/>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s">
+        <v>710</v>
+      </c>
+      <c r="X102" t="s">
+        <v>711</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>718</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>719</v>
+      </c>
+      <c r="J103" t="s">
+        <v>720</v>
+      </c>
+      <c r="K103" t="s">
+        <v>721</v>
+      </c>
+      <c r="L103" t="s">
+        <v>722</v>
+      </c>
+      <c r="M103" t="n">
+        <v>2</v>
+      </c>
+      <c r="N103" t="s"/>
+      <c r="O103" t="s"/>
+      <c r="P103" t="s"/>
+      <c r="Q103" t="s"/>
+      <c r="R103" t="s"/>
+      <c r="S103" t="s"/>
+      <c r="T103" t="s"/>
+      <c r="U103" t="s"/>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s">
+        <v>710</v>
+      </c>
+      <c r="X103" t="s">
+        <v>711</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>724</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>725</v>
+      </c>
+      <c r="J104" t="s">
+        <v>726</v>
+      </c>
+      <c r="K104" t="s">
+        <v>727</v>
+      </c>
+      <c r="L104" t="s">
+        <v>728</v>
+      </c>
+      <c r="M104" t="n">
+        <v>3</v>
+      </c>
+      <c r="N104" t="s">
+        <v>729</v>
+      </c>
+      <c r="O104" t="s">
+        <v>61</v>
+      </c>
+      <c r="P104" t="s"/>
+      <c r="Q104" t="s"/>
+      <c r="R104" t="s"/>
+      <c r="S104" t="s"/>
+      <c r="T104" t="s"/>
+      <c r="U104" t="s"/>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s">
+        <v>730</v>
+      </c>
+      <c r="X104" t="s">
+        <v>731</v>
+      </c>
+      <c r="Y104" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>733</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>734</v>
+      </c>
+      <c r="J105" t="s">
+        <v>735</v>
+      </c>
+      <c r="K105" t="s">
+        <v>736</v>
+      </c>
+      <c r="L105" t="s">
+        <v>737</v>
+      </c>
+      <c r="M105" t="n">
+        <v>3</v>
+      </c>
+      <c r="N105" t="s">
+        <v>729</v>
+      </c>
+      <c r="O105" t="s">
+        <v>53</v>
+      </c>
+      <c r="P105" t="s"/>
+      <c r="Q105" t="s"/>
+      <c r="R105" t="s"/>
+      <c r="S105" t="s"/>
+      <c r="T105" t="s"/>
+      <c r="U105" t="s"/>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s">
+        <v>738</v>
+      </c>
+      <c r="X105" t="s">
+        <v>739</v>
+      </c>
+      <c r="Y105" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>741</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>742</v>
+      </c>
+      <c r="J106" t="s">
+        <v>743</v>
+      </c>
+      <c r="K106" t="s">
+        <v>744</v>
+      </c>
+      <c r="L106" t="s">
+        <v>745</v>
+      </c>
+      <c r="M106" t="n">
+        <v>4</v>
+      </c>
+      <c r="N106" t="s">
+        <v>729</v>
+      </c>
+      <c r="O106" t="s">
+        <v>53</v>
+      </c>
+      <c r="P106" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q106" t="s"/>
+      <c r="R106" t="s"/>
+      <c r="S106" t="n">
+        <v>4</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>4</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s">
+        <v>746</v>
+      </c>
+      <c r="X106" t="s">
+        <v>747</v>
+      </c>
+      <c r="Y106" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>749</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>750</v>
+      </c>
+      <c r="J107" t="s">
+        <v>751</v>
+      </c>
+      <c r="K107" t="s">
+        <v>752</v>
+      </c>
+      <c r="L107" t="s">
+        <v>753</v>
+      </c>
+      <c r="M107" t="n">
+        <v>3</v>
+      </c>
+      <c r="N107" t="s">
+        <v>754</v>
+      </c>
+      <c r="O107" t="s">
+        <v>61</v>
+      </c>
+      <c r="P107" t="s"/>
+      <c r="Q107" t="s"/>
+      <c r="R107" t="s"/>
+      <c r="S107" t="s"/>
+      <c r="T107" t="s"/>
+      <c r="U107" t="s"/>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s">
+        <v>755</v>
+      </c>
+      <c r="X107" t="s">
+        <v>756</v>
+      </c>
+      <c r="Y107" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>758</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>759</v>
+      </c>
+      <c r="J108" t="s">
+        <v>760</v>
+      </c>
+      <c r="K108" t="s">
+        <v>761</v>
+      </c>
+      <c r="L108" t="s">
+        <v>762</v>
+      </c>
+      <c r="M108" t="n">
+        <v>5</v>
+      </c>
+      <c r="N108" t="s">
+        <v>729</v>
+      </c>
+      <c r="O108" t="s">
+        <v>53</v>
+      </c>
+      <c r="P108" t="s"/>
+      <c r="Q108" t="s"/>
+      <c r="R108" t="s"/>
+      <c r="S108" t="s"/>
+      <c r="T108" t="s"/>
+      <c r="U108" t="s"/>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s">
+        <v>763</v>
+      </c>
+      <c r="X108" t="s">
+        <v>764</v>
+      </c>
+      <c r="Y108" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>766</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>767</v>
+      </c>
+      <c r="J109" t="s">
+        <v>760</v>
+      </c>
+      <c r="K109" t="s">
+        <v>768</v>
+      </c>
+      <c r="L109" t="s">
+        <v>769</v>
+      </c>
+      <c r="M109" t="n">
+        <v>3</v>
+      </c>
+      <c r="N109" t="s">
+        <v>729</v>
+      </c>
+      <c r="O109" t="s">
+        <v>61</v>
+      </c>
+      <c r="P109" t="s"/>
+      <c r="Q109" t="s"/>
+      <c r="R109" t="s"/>
+      <c r="S109" t="s"/>
+      <c r="T109" t="s"/>
+      <c r="U109" t="s"/>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s">
+        <v>763</v>
+      </c>
+      <c r="X109" t="s">
+        <v>764</v>
+      </c>
+      <c r="Y109" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>44</v>
+      </c>
+      <c r="F110" t="s">
+        <v>771</v>
+      </c>
+      <c r="G110" t="s">
+        <v>46</v>
+      </c>
+      <c r="H110" t="s">
+        <v>47</v>
+      </c>
+      <c r="I110" t="s">
+        <v>772</v>
+      </c>
+      <c r="J110" t="s">
+        <v>773</v>
+      </c>
+      <c r="K110" t="s">
+        <v>774</v>
+      </c>
+      <c r="L110" t="s">
+        <v>775</v>
+      </c>
+      <c r="M110" t="n">
+        <v>4</v>
+      </c>
+      <c r="N110" t="s">
+        <v>729</v>
+      </c>
+      <c r="O110" t="s">
+        <v>53</v>
+      </c>
+      <c r="P110" t="s"/>
+      <c r="Q110" t="s"/>
+      <c r="R110" t="n">
+        <v>4</v>
+      </c>
+      <c r="S110" t="s"/>
+      <c r="T110" t="s"/>
+      <c r="U110" t="n">
+        <v>5</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s">
+        <v>776</v>
+      </c>
+      <c r="X110" t="s">
+        <v>777</v>
+      </c>
+      <c r="Y110" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B111" t="s"/>
+      <c r="C111" t="s"/>
+      <c r="D111" t="n">
+        <v>110</v>
+      </c>
+      <c r="E111" t="s">
+        <v>44</v>
+      </c>
+      <c r="F111" t="s">
+        <v>779</v>
+      </c>
+      <c r="G111" t="s">
+        <v>46</v>
+      </c>
+      <c r="H111" t="s">
+        <v>47</v>
+      </c>
+      <c r="I111" t="s">
+        <v>780</v>
+      </c>
+      <c r="J111" t="s">
+        <v>773</v>
+      </c>
+      <c r="K111" t="s">
+        <v>781</v>
+      </c>
+      <c r="L111" t="s">
+        <v>782</v>
+      </c>
+      <c r="M111" t="n">
+        <v>5</v>
+      </c>
+      <c r="N111" t="s">
+        <v>729</v>
+      </c>
+      <c r="O111" t="s">
+        <v>134</v>
+      </c>
+      <c r="P111" t="s"/>
+      <c r="Q111" t="s"/>
+      <c r="R111" t="s"/>
+      <c r="S111" t="s"/>
+      <c r="T111" t="s"/>
+      <c r="U111" t="s"/>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
+      <c r="W111" t="s">
+        <v>783</v>
+      </c>
+      <c r="X111" t="s">
+        <v>784</v>
+      </c>
+      <c r="Y111" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B112" t="s"/>
+      <c r="C112" t="s"/>
+      <c r="D112" t="n">
+        <v>111</v>
+      </c>
+      <c r="E112" t="s">
+        <v>44</v>
+      </c>
+      <c r="F112" t="s">
+        <v>786</v>
+      </c>
+      <c r="G112" t="s">
+        <v>46</v>
+      </c>
+      <c r="H112" t="s">
+        <v>47</v>
+      </c>
+      <c r="I112" t="s">
+        <v>787</v>
+      </c>
+      <c r="J112" t="s">
+        <v>788</v>
+      </c>
+      <c r="K112" t="s">
+        <v>789</v>
+      </c>
+      <c r="L112" t="s">
+        <v>790</v>
+      </c>
+      <c r="M112" t="n">
+        <v>4</v>
+      </c>
+      <c r="N112" t="s">
+        <v>729</v>
+      </c>
+      <c r="O112" t="s">
+        <v>61</v>
+      </c>
+      <c r="P112" t="s"/>
+      <c r="Q112" t="s"/>
+      <c r="R112" t="n">
+        <v>4</v>
+      </c>
+      <c r="S112" t="n">
+        <v>4</v>
+      </c>
+      <c r="T112" t="s"/>
+      <c r="U112" t="n">
+        <v>4</v>
+      </c>
+      <c r="V112" t="n">
+        <v>0</v>
+      </c>
+      <c r="W112" t="s">
+        <v>783</v>
+      </c>
+      <c r="X112" t="s">
+        <v>784</v>
+      </c>
+      <c r="Y112" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B113" t="s"/>
+      <c r="C113" t="s"/>
+      <c r="D113" t="n">
+        <v>112</v>
+      </c>
+      <c r="E113" t="s">
+        <v>44</v>
+      </c>
+      <c r="F113" t="s">
+        <v>792</v>
+      </c>
+      <c r="G113" t="s">
+        <v>46</v>
+      </c>
+      <c r="H113" t="s">
+        <v>47</v>
+      </c>
+      <c r="I113" t="s">
+        <v>793</v>
+      </c>
+      <c r="J113" t="s">
+        <v>794</v>
+      </c>
+      <c r="K113" t="s">
+        <v>795</v>
+      </c>
+      <c r="L113" t="s">
+        <v>796</v>
+      </c>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="s">
+        <v>754</v>
+      </c>
+      <c r="O113" t="s">
+        <v>53</v>
+      </c>
+      <c r="P113" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q113" t="s"/>
+      <c r="R113" t="s"/>
+      <c r="S113" t="n">
+        <v>5</v>
+      </c>
+      <c r="T113" t="s"/>
+      <c r="U113" t="n">
+        <v>1</v>
+      </c>
+      <c r="V113" t="n">
+        <v>0</v>
+      </c>
+      <c r="W113" t="s">
+        <v>797</v>
+      </c>
+      <c r="X113" t="s">
+        <v>798</v>
+      </c>
+      <c r="Y113" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B114" t="s"/>
+      <c r="C114" t="s"/>
+      <c r="D114" t="n">
+        <v>113</v>
+      </c>
+      <c r="E114" t="s">
+        <v>44</v>
+      </c>
+      <c r="F114" t="s">
+        <v>800</v>
+      </c>
+      <c r="G114" t="s">
+        <v>46</v>
+      </c>
+      <c r="H114" t="s">
+        <v>47</v>
+      </c>
+      <c r="I114" t="s">
+        <v>801</v>
+      </c>
+      <c r="J114" t="s">
+        <v>802</v>
+      </c>
+      <c r="K114" t="s">
+        <v>803</v>
+      </c>
+      <c r="L114" t="s">
+        <v>804</v>
+      </c>
+      <c r="M114" t="n">
+        <v>5</v>
+      </c>
+      <c r="N114" t="s"/>
+      <c r="O114" t="s"/>
+      <c r="P114" t="s"/>
+      <c r="Q114" t="s"/>
+      <c r="R114" t="s"/>
+      <c r="S114" t="s"/>
+      <c r="T114" t="s"/>
+      <c r="U114" t="s"/>
+      <c r="V114" t="n">
+        <v>0</v>
+      </c>
+      <c r="W114" t="s">
+        <v>797</v>
+      </c>
+      <c r="X114" t="s">
+        <v>798</v>
+      </c>
+      <c r="Y114" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>64881</v>
+      </c>
+      <c r="B115" t="s"/>
+      <c r="C115" t="s"/>
+      <c r="D115" t="n">
+        <v>114</v>
+      </c>
+      <c r="E115" t="s">
+        <v>44</v>
+      </c>
+      <c r="F115" t="s">
+        <v>806</v>
+      </c>
+      <c r="G115" t="s">
+        <v>46</v>
+      </c>
+      <c r="H115" t="s">
+        <v>47</v>
+      </c>
+      <c r="I115" t="s">
+        <v>807</v>
+      </c>
+      <c r="J115" t="s">
+        <v>808</v>
+      </c>
+      <c r="K115" t="s">
+        <v>809</v>
+      </c>
+      <c r="L115" t="s">
+        <v>810</v>
+      </c>
+      <c r="M115" t="n">
+        <v>3</v>
+      </c>
+      <c r="N115" t="s">
+        <v>754</v>
+      </c>
+      <c r="O115" t="s">
+        <v>68</v>
+      </c>
+      <c r="P115" t="s"/>
+      <c r="Q115" t="s"/>
+      <c r="R115" t="s"/>
+      <c r="S115" t="s"/>
+      <c r="T115" t="s"/>
+      <c r="U115" t="s"/>
+      <c r="V115" t="n">
+        <v>0</v>
+      </c>
+      <c r="W115" t="s">
+        <v>797</v>
+      </c>
+      <c r="X115" t="s">
+        <v>798</v>
+      </c>
+      <c r="Y115" t="s">
+        <v>811</v>
       </c>
     </row>
   </sheetData>
